--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292BBFDA-195F-FE4C-A2F2-EC2AB305B019}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A50FB2-CF88-804A-AE6F-862E2C3D944D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="13020" windowWidth="40960" windowHeight="12580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="433">
   <si>
     <t>description</t>
   </si>
@@ -1323,15 +1323,6 @@
     <t>macro1</t>
   </si>
   <si>
-    <t>13.625</t>
-  </si>
-  <si>
-    <t>2.1875</t>
-  </si>
-  <si>
-    <t>10.325</t>
-  </si>
-  <si>
     <t>Check Calculation</t>
   </si>
   <si>
@@ -1350,9 +1341,6 @@
     <t>Check Calculation 3</t>
   </si>
   <si>
-    <t>21.44</t>
-  </si>
-  <si>
     <t>ProceedIf( ${nexial.scope.currentIteration} = 2)</t>
   </si>
   <si>
@@ -1360,6 +1348,21 @@
   </si>
   <si>
     <t>[NUMBER(${fixture}) =&gt; divide(${multiply2})]</t>
+  </si>
+  <si>
+    <t>${calc-expected-1}</t>
+  </si>
+  <si>
+    <t>${calc-expected-2}</t>
+  </si>
+  <si>
+    <t>${calc-expected-3}</t>
+  </si>
+  <si>
+    <t>${calc-expected-4}</t>
+  </si>
+  <si>
+    <t>${calc-expected-5}</t>
   </si>
 </sst>
 </file>
@@ -3458,17 +3461,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.6640625" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="32.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
+    <col min="6" max="9" width="20.1640625" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="50.33203125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
@@ -3594,7 +3597,7 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
@@ -3604,10 +3607,10 @@
         <v>318</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3629,10 +3632,10 @@
         <v>318</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -3646,7 +3649,7 @@
     </row>
     <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -3675,7 +3678,7 @@
     </row>
     <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -3685,10 +3688,10 @@
         <v>318</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3710,10 +3713,10 @@
         <v>318</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -3727,7 +3730,7 @@
     </row>
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -3743,7 +3746,7 @@
         <v>417</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -3766,16 +3769,16 @@
         <v>318</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="22" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="15"/>
@@ -14983,7 +14986,7 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A50FB2-CF88-804A-AE6F-862E2C3D944D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD78FF37-5B81-1F42-93AF-27FFF7405E4B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="13020" windowWidth="40960" windowHeight="12580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <definedName name="ws">'#system'!$V$2:$V$16</definedName>
     <definedName name="xml">'#system'!$W$2:$W$11</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3635" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4083" uniqueCount="459">
   <si>
     <t>description</t>
   </si>
@@ -1436,6 +1436,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1446,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="131" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2178,8 +2181,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3269,8 +3366,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5282,6 +5532,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5289,7 +5821,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="157">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5688,49 +6220,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6055,7 +6632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7267,7 +7844,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>215</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60">
@@ -7275,7 +7852,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61">
@@ -7283,7 +7860,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>140</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62">
@@ -7291,7 +7868,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -7299,7 +7876,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>448</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
@@ -7307,7 +7884,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65">
@@ -7315,7 +7892,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -7323,7 +7900,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
@@ -7331,7 +7908,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68">
@@ -7339,7 +7916,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69">
@@ -7347,7 +7924,7 @@
         <v>411</v>
       </c>
       <c r="U69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
@@ -7355,7 +7932,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -7363,7 +7940,7 @@
         <v>412</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -7371,7 +7948,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -7379,7 +7956,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
@@ -7387,7 +7964,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -7395,7 +7972,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76">
@@ -7403,7 +7980,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -7411,7 +7988,7 @@
         <v>435</v>
       </c>
       <c r="U77" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
@@ -7419,7 +7996,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79">
@@ -7427,7 +8004,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80">
@@ -7435,7 +8012,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -7443,7 +8020,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="82">
@@ -7451,7 +8028,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="83">
@@ -7459,7 +8036,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
@@ -7467,7 +8044,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -7475,7 +8052,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -7483,7 +8060,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -7491,7 +8068,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88">
@@ -7499,7 +8076,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -7507,7 +8084,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90">
@@ -7515,7 +8092,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91">
@@ -7523,7 +8100,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
@@ -7531,101 +8108,106 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -19,16 +19,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,8 +42,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4083" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4538" uniqueCount="467">
   <si>
     <t>description</t>
   </si>
@@ -1439,6 +1439,30 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1470,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="131" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2275,8 +2299,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3519,8 +3637,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -5814,6 +6085,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5821,7 +6374,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="172">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6265,49 +6818,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6632,7 +7230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6958,6 +7556,9 @@
       <c r="C5" t="s">
         <v>225</v>
       </c>
+      <c r="D5" t="s">
+        <v>459</v>
+      </c>
       <c r="E5" t="s">
         <v>337</v>
       </c>
@@ -7051,7 +7652,7 @@
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>176</v>
+        <v>465</v>
       </c>
       <c r="W6" t="s">
         <v>181</v>
@@ -7106,6 +7707,9 @@
       <c r="U7" t="s">
         <v>101</v>
       </c>
+      <c r="V7" t="s">
+        <v>466</v>
+      </c>
       <c r="W7" t="s">
         <v>182</v>
       </c>
@@ -7156,6 +7760,9 @@
       <c r="U8" t="s">
         <v>102</v>
       </c>
+      <c r="V8" t="s">
+        <v>176</v>
+      </c>
       <c r="W8" t="s">
         <v>183</v>
       </c>
@@ -7224,7 +7831,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>461</v>
       </c>
       <c r="M10" t="s">
         <v>440</v>
@@ -7259,7 +7866,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -7291,7 +7898,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -7319,6 +7926,9 @@
       <c r="I13" t="s">
         <v>83</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>95</v>
       </c>
@@ -7469,7 +8079,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -7486,7 +8096,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -7502,6 +8112,9 @@
       <c r="E22" t="s">
         <v>300</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>111</v>
       </c>
@@ -7732,7 +8345,7 @@
         <v>343</v>
       </c>
       <c r="U45" t="s">
-        <v>214</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46">
@@ -7740,7 +8353,7 @@
         <v>212</v>
       </c>
       <c r="U46" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47">
@@ -7748,7 +8361,7 @@
         <v>321</v>
       </c>
       <c r="U47" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -7756,7 +8369,7 @@
         <v>340</v>
       </c>
       <c r="U48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
@@ -7764,7 +8377,7 @@
         <v>369</v>
       </c>
       <c r="U49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -7772,7 +8385,7 @@
         <v>303</v>
       </c>
       <c r="U50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51">
@@ -7780,7 +8393,7 @@
         <v>357</v>
       </c>
       <c r="U51" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52">
@@ -7788,7 +8401,7 @@
         <v>332</v>
       </c>
       <c r="U52" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53">
@@ -7796,7 +8409,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
@@ -7804,7 +8417,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
@@ -7812,7 +8425,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -7820,7 +8433,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
@@ -7828,7 +8441,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
@@ -7836,7 +8449,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -7844,7 +8457,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -7852,7 +8465,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>215</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61">
@@ -7860,7 +8473,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62">
@@ -7868,7 +8481,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>140</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63">
@@ -7876,7 +8489,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>141</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64">
@@ -7884,7 +8497,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>448</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -7892,7 +8505,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
@@ -7900,7 +8513,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
@@ -7908,7 +8521,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
@@ -7916,7 +8529,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
@@ -7924,7 +8537,7 @@
         <v>411</v>
       </c>
       <c r="U69" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70">
@@ -7932,7 +8545,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
@@ -7940,7 +8553,7 @@
         <v>412</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -7948,7 +8561,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -7956,7 +8569,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -7964,7 +8577,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -7972,7 +8585,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -7980,7 +8593,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -7988,7 +8601,7 @@
         <v>435</v>
       </c>
       <c r="U77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -7996,7 +8609,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
@@ -8004,7 +8617,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80">
@@ -8012,7 +8625,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81">
@@ -8020,7 +8633,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82">
@@ -8028,7 +8641,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="83">
@@ -8036,7 +8649,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84">
@@ -8044,7 +8657,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -8052,7 +8665,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -8060,7 +8673,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -8068,7 +8681,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
@@ -8076,7 +8689,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89">
@@ -8084,7 +8697,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -8092,7 +8705,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
@@ -8100,7 +8713,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92">
@@ -8108,106 +8721,116 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>165</v>
+        <v>464</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4538" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4993" uniqueCount="467">
   <si>
     <t>description</t>
   </si>
@@ -1470,7 +1470,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="146" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2393,8 +2393,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3790,8 +3884,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6367,6 +6614,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6374,7 +6903,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="187">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6863,49 +7392,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4993" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5449" uniqueCount="467">
   <si>
     <t>description</t>
   </si>
@@ -1470,7 +1470,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="161" x14ac:knownFonts="1">
+  <fonts count="176" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2487,8 +2487,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4037,8 +4131,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6896,6 +7143,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6903,7 +7432,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="202">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7437,49 +7966,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="151" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8261,7 +8835,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -8317,7 +8891,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
@@ -8367,7 +8941,7 @@
         <v>391</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -8405,7 +8979,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>461</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>440</v>
@@ -8440,7 +9014,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>461</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -8472,7 +9046,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -8501,7 +9075,7 @@
         <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>95</v>
@@ -8528,6 +9102,9 @@
       </c>
       <c r="I14" t="s">
         <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
       </c>
       <c r="M14" t="s">
         <v>96</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5449" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6823" uniqueCount="470">
   <si>
     <t>description</t>
   </si>
@@ -1463,6 +1463,15 @@
   </si>
   <si>
     <t>replyOK(text)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1479,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="176" x14ac:knownFonts="1">
+  <fonts count="221" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2581,8 +2590,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4284,8 +4575,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -7425,6 +8175,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7432,7 +9028,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="247">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8011,49 +9607,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="164" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="166" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="179" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="181" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="193" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="194" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="196" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="342" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="345" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8566,7 +10297,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>469</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -8640,7 +10371,7 @@
         <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>468</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -8711,7 +10442,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -8773,7 +10504,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -8829,7 +10560,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -8885,7 +10616,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -8937,6 +10668,9 @@
       <c r="E9" t="s">
         <v>307</v>
       </c>
+      <c r="F9" t="s">
+        <v>325</v>
+      </c>
       <c r="I9" t="s">
         <v>391</v>
       </c>
@@ -8974,6 +10708,9 @@
       </c>
       <c r="E10" t="s">
         <v>353</v>
+      </c>
+      <c r="F10" t="s">
+        <v>326</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -18,12 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6823" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7747" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1472,6 +1472,18 @@
   </si>
   <si>
     <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1491,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="221" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2872,8 +2884,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5034,8 +5234,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9021,6 +9527,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9028,7 +10098,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="277">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9742,49 +10812,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="211" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="369" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="372" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="223" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="224" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="226" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="396" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="399" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10217,7 +11377,7 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>471</v>
       </c>
       <c r="G2" t="s">
         <v>80</v>
@@ -10297,7 +11457,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>469</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -10371,7 +11531,7 @@
         <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -10442,7 +11602,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>469</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -10504,7 +11664,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>468</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -10560,7 +11720,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -10616,7 +11776,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -10669,7 +11829,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="I9" t="s">
         <v>391</v>
@@ -10710,7 +11870,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -10747,6 +11907,9 @@
       <c r="E11" t="s">
         <v>275</v>
       </c>
+      <c r="F11" t="s">
+        <v>324</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -10779,6 +11942,9 @@
       <c r="E12" t="s">
         <v>264</v>
       </c>
+      <c r="F12" t="s">
+        <v>325</v>
+      </c>
       <c r="I12" t="s">
         <v>82</v>
       </c>
@@ -10808,6 +11974,9 @@
       <c r="E13" t="s">
         <v>317</v>
       </c>
+      <c r="F13" t="s">
+        <v>326</v>
+      </c>
       <c r="I13" t="s">
         <v>83</v>
       </c>
@@ -11012,7 +12181,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>470</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -11026,7 +12195,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -11040,7 +12209,7 @@
         <v>432</v>
       </c>
       <c r="C25" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -11054,7 +12223,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>434</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -11065,7 +12234,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -11076,7 +12245,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -11087,7 +12256,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -11098,7 +12267,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -11109,7 +12278,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -11120,7 +12289,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -11131,7 +12300,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -11141,6 +12310,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
       <c r="E34" t="s">
         <v>331</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7747" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8673" uniqueCount="476">
   <si>
     <t>description</t>
   </si>
@@ -1484,6 +1484,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1497,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="281" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3072,8 +3078,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5540,8 +5734,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -10091,6 +10591,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10098,7 +11162,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="307">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10902,49 +11966,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="239" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="423" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="426" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="253" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="254" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="256" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="450" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="453" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11269,7 +12423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12661,7 +13815,7 @@
         <v>435</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78">
@@ -12669,7 +13823,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -12677,7 +13831,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
@@ -12685,7 +13839,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81">
@@ -12693,7 +13847,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82">
@@ -12701,7 +13855,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83">
@@ -12709,7 +13863,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84">
@@ -12717,7 +13871,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85">
@@ -12725,7 +13879,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -12733,7 +13887,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -12741,7 +13895,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -12749,7 +13903,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -12757,7 +13911,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90">
@@ -12765,7 +13919,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -12773,7 +13927,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
@@ -12781,116 +13935,121 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8673" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9137" uniqueCount="477">
   <si>
     <t>description</t>
   </si>
@@ -1490,6 +1490,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1500,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="281" x14ac:knownFonts="1">
+  <fonts count="296" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3266,8 +3269,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6040,8 +6137,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -11155,6 +11405,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11162,7 +11694,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="322">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12056,49 +12588,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="268" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="477" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="480" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12423,7 +13000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13759,7 +14336,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71">
@@ -13767,7 +14344,7 @@
         <v>412</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -13775,7 +14352,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -13783,7 +14360,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -13791,7 +14368,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -13799,7 +14376,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76">
@@ -13807,7 +14384,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -13815,7 +14392,7 @@
         <v>435</v>
       </c>
       <c r="U77" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -13823,7 +14400,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79">
@@ -13831,7 +14408,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -13839,7 +14416,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -13847,7 +14424,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82">
@@ -13855,7 +14432,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83">
@@ -13863,7 +14440,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -13871,7 +14448,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85">
@@ -13879,7 +14456,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="86">
@@ -13887,7 +14464,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
@@ -13895,7 +14472,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -13903,7 +14480,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -13911,7 +14488,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -13919,7 +14496,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91">
@@ -13927,7 +14504,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
@@ -13935,121 +14512,126 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9137" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9602" uniqueCount="478">
   <si>
     <t>description</t>
   </si>
@@ -1493,6 +1493,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1503,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="296" x14ac:knownFonts="1">
+  <fonts count="311" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3363,8 +3366,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6290,8 +6387,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -11687,6 +11937,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11694,7 +12226,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="337">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12633,49 +13165,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="283" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="284" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="504" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="507" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13333,7 +13910,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -13395,7 +13972,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -13451,7 +14028,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>468</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -13507,7 +14084,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -13560,7 +14137,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>473</v>
+        <v>330</v>
       </c>
       <c r="I9" t="s">
         <v>391</v>
@@ -13601,7 +14178,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>473</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -13639,7 +14216,7 @@
         <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -13674,7 +14251,7 @@
         <v>264</v>
       </c>
       <c r="F12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -13706,7 +14283,7 @@
         <v>317</v>
       </c>
       <c r="F13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
@@ -13736,6 +14313,9 @@
       </c>
       <c r="E14" t="s">
         <v>265</v>
+      </c>
+      <c r="F14" t="s">
+        <v>326</v>
       </c>
       <c r="I14" t="s">
         <v>84</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9602" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10068" uniqueCount="479">
   <si>
     <t>description</t>
   </si>
@@ -1496,6 +1496,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1506,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="311" x14ac:knownFonts="1">
+  <fonts count="326" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3460,8 +3463,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="571">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6540,8 +6637,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="591">
     <border>
       <left/>
       <right/>
@@ -12219,6 +12469,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12226,7 +12758,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="352">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13210,49 +13742,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="298" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="299" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="531" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="534" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="561" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14318,7 +14895,7 @@
         <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>478</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -14347,7 +14924,7 @@
         <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -14373,7 +14950,7 @@
         <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>381</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>253</v>
@@ -14396,7 +14973,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
@@ -14413,7 +14990,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -14430,7 +15007,7 @@
         <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>393</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -14447,7 +15024,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>460</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -14464,7 +15041,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -14481,7 +15058,7 @@
         <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -14496,6 +15073,9 @@
       </c>
       <c r="E23" t="s">
         <v>291</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10068" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10536" uniqueCount="481">
   <si>
     <t>description</t>
   </si>
@@ -1499,6 +1499,12 @@
   </si>
   <si>
     <t>rename(target,newName)</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1512,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="326" x14ac:knownFonts="1">
+  <fonts count="341" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3557,8 +3563,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="571">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6790,8 +6890,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="591">
+  <borders count="619">
     <border>
       <left/>
       <right/>
@@ -12751,6 +13004,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12758,7 +13293,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="352">
+  <cellXfs count="367">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13787,49 +14322,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="313" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="314" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="315" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="316" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="558" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="561" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="561" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14333,7 +14913,7 @@
         <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>479</v>
       </c>
       <c r="D3" t="s">
         <v>366</v>
@@ -14407,7 +14987,7 @@
         <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>74</v>
@@ -14478,7 +15058,7 @@
         <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>480</v>
       </c>
       <c r="D5" t="s">
         <v>459</v>
@@ -14543,7 +15123,7 @@
         <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>389</v>
@@ -14599,7 +15179,7 @@
         <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
         <v>367</v>
@@ -14655,7 +15235,7 @@
         <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E8" t="s">
         <v>368</v>
@@ -14708,7 +15288,7 @@
         <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>307</v>
@@ -14749,7 +15329,7 @@
         <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
         <v>353</v>
@@ -14787,7 +15367,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
         <v>275</v>
@@ -14822,7 +15402,7 @@
         <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="E12" t="s">
         <v>264</v>
@@ -14854,7 +15434,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
         <v>317</v>
@@ -14886,7 +15466,7 @@
         <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>386</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>265</v>
@@ -14918,7 +15498,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>387</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>266</v>
@@ -14944,7 +15524,7 @@
         <v>397</v>
       </c>
       <c r="C16" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="E16" t="s">
         <v>318</v>
@@ -14967,7 +15547,7 @@
         <v>430</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -14984,7 +15564,7 @@
         <v>431</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>433</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -15001,7 +15581,7 @@
         <v>358</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>297</v>
@@ -15018,7 +15598,7 @@
         <v>398</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>298</v>
@@ -15035,7 +15615,7 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="E21" t="s">
         <v>299</v>
@@ -15052,7 +15632,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>300</v>
@@ -15069,7 +15649,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -15086,7 +15666,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -15100,7 +15680,7 @@
         <v>432</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>470</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -15114,7 +15694,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>434</v>
+        <v>226</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -15125,7 +15705,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -15136,7 +15716,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>434</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -15147,7 +15727,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -15158,7 +15738,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -15169,7 +15749,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -15180,7 +15760,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -15191,7 +15771,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -15202,7 +15782,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>331</v>
@@ -15212,6 +15792,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
       <c r="E35" t="s">
         <v>308</v>
       </c>
@@ -15220,6 +15803,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
       <c r="E36" t="s">
         <v>262</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10536" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11005" uniqueCount="482">
   <si>
     <t>description</t>
   </si>
@@ -1505,6 +1505,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1515,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="341" x14ac:knownFonts="1">
+  <fonts count="356" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3657,8 +3660,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="625">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7043,8 +7140,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="619">
+  <borders count="647">
     <border>
       <left/>
       <right/>
@@ -13286,6 +13536,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13293,7 +13825,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="367">
+  <cellXfs count="382">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14367,49 +14899,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="328" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="579" fontId="329" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="331" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="585" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="588" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="615" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14734,7 +15311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15946,7 +16523,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>133</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54">
@@ -15954,7 +16531,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -15962,7 +16539,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -15970,7 +16547,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -15978,7 +16555,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -15986,7 +16563,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -15994,7 +16571,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -16002,7 +16579,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
@@ -16010,7 +16587,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>215</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62">
@@ -16018,7 +16595,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63">
@@ -16026,7 +16603,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64">
@@ -16034,7 +16611,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="65">
@@ -16042,7 +16619,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -16050,7 +16627,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -16058,7 +16635,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
@@ -16066,7 +16643,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
@@ -16074,7 +16651,7 @@
         <v>411</v>
       </c>
       <c r="U69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -16082,7 +16659,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>476</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
@@ -16090,7 +16667,7 @@
         <v>412</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72">
@@ -16098,7 +16675,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -16106,7 +16683,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -16114,7 +16691,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -16122,7 +16699,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -16130,7 +16707,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
@@ -16138,7 +16715,7 @@
         <v>435</v>
       </c>
       <c r="U77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -16146,7 +16723,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79">
@@ -16154,7 +16731,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80">
@@ -16162,7 +16739,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -16170,7 +16747,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -16178,7 +16755,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83">
@@ -16186,7 +16763,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
@@ -16194,7 +16771,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -16202,7 +16779,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86">
@@ -16210,7 +16787,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="87">
@@ -16218,7 +16795,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -16226,7 +16803,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -16234,7 +16811,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -16242,7 +16819,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -16250,7 +16827,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92">
@@ -16258,126 +16835,131 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11005" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11474" uniqueCount="482">
   <si>
     <t>description</t>
   </si>
@@ -1515,7 +1515,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="356" x14ac:knownFonts="1">
+  <fonts count="371" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3754,8 +3754,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="625">
+  <fills count="652">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7293,8 +7387,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="647">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -13818,6 +14065,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13825,7 +14354,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="382">
+  <cellXfs count="397">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14944,49 +15473,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="603" fontId="343" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="606" fontId="344" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="345" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="346" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="612" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="615" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="615" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="618" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="618" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="639" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="642" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -18,36 +18,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11474" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11949" uniqueCount="487">
   <si>
     <t>description</t>
   </si>
@@ -1508,6 +1509,21 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1531,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="371" x14ac:knownFonts="1">
+  <fonts count="387" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3848,8 +3864,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="652">
+  <fills count="679">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7540,8 +7657,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="675">
+  <borders count="703">
     <border>
       <left/>
       <right/>
@@ -7578,6 +7848,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -14354,7 +14906,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="413">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15518,49 +16070,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="627" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="630" fontId="358" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="633" fontId="359" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="360" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="361" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="639" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="639" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="642" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="642" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="645" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="645" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15885,7 +16485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15904,75 +16504,78 @@
         <v>372</v>
       </c>
       <c r="C1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>348</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>197</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>240</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>430</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>431</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>358</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>398</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>432</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -15984,1556 +16587,1571 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>471</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>350</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>316</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>385</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>436</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>437</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>438</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>254</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>218</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>399</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>442</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>443</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>382</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>408</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>172</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>177</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>184</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>451</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>482</v>
       </c>
       <c r="B3" t="s">
         <v>374</v>
       </c>
       <c r="C3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D3" t="s">
         <v>479</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>366</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>351</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>335</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>439</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>241</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>219</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>400</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>444</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>383</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>409</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>99</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>173</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>178</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>365</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>185</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>388</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>472</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>352</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>239</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>336</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>242</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>220</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>401</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>445</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>359</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>410</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>355</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>174</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>179</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>185</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>452</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>480</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>459</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>337</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>477</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>349</v>
       </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>485</v>
+      </c>
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>243</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>221</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>402</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>446</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>360</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>356</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>175</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>180</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>186</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>453</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>389</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>469</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>244</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>392</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>403</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>362</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>100</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>465</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>181</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>187</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>454</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>225</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>367</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>468</v>
       </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>245</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>441</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>404</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>361</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>466</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>182</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>188</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>455</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>319</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>368</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>329</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>246</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>405</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>363</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>176</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>183</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>189</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>456</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>307</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>330</v>
       </c>
-      <c r="I9" t="s">
-        <v>391</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>93</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>247</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>406</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>364</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>210</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>190</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>316</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>353</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>473</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>391</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>440</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>248</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>407</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>258</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>191</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" t="s">
         <v>256</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>275</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>323</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>461</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>249</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>259</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>320</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>264</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>324</v>
       </c>
-      <c r="I12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>250</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>103</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
         <v>342</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>317</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>325</v>
       </c>
-      <c r="I13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>95</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>255</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>327</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>265</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>326</v>
       </c>
-      <c r="I14" t="s">
-        <v>478</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>96</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>251</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>104</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>266</v>
       </c>
-      <c r="I15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>478</v>
+      </c>
+      <c r="N15" t="s">
         <v>97</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>252</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>105</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>397</v>
-      </c>
-      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
         <v>386</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>318</v>
       </c>
-      <c r="I16" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" t="s">
         <v>253</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>76</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>430</v>
-      </c>
-      <c r="C17" t="s">
+        <v>397</v>
+      </c>
+      <c r="D17" t="s">
         <v>387</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
-        <v>381</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" t="s">
         <v>106</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>431</v>
-      </c>
-      <c r="C18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D18" t="s">
         <v>433</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>91</v>
       </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>381</v>
+      </c>
+      <c r="V18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" t="s">
+        <v>431</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>297</v>
       </c>
-      <c r="I19" t="s">
-        <v>393</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>398</v>
-      </c>
-      <c r="C20" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>298</v>
       </c>
-      <c r="I20" t="s">
-        <v>86</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>393</v>
+      </c>
+      <c r="V20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" t="s">
         <v>257</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>299</v>
       </c>
-      <c r="I21" t="s">
-        <v>460</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>300</v>
       </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>460</v>
+      </c>
+      <c r="V22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>322</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>291</v>
       </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>280</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>432</v>
-      </c>
-      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
         <v>470</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>77</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" t="s">
+        <v>283</v>
+      </c>
+      <c r="V26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>228</v>
       </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" t="s">
-        <v>283</v>
-      </c>
-      <c r="U26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>227</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>434</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>411</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>412</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>435</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11949" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12425" uniqueCount="489">
   <si>
     <t>description</t>
   </si>
@@ -1524,6 +1524,12 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1537,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="387" x14ac:knownFonts="1">
+  <fonts count="403" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3965,8 +3971,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="679">
+  <fills count="706">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7810,8 +7917,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="703">
+  <borders count="731">
     <border>
       <left/>
       <right/>
@@ -7848,6 +8108,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -14906,7 +15448,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="413">
+  <cellXfs count="429">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16115,52 +16657,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="654" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="657" fontId="373" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="660" fontId="374" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="663" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="376" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="377" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="669" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="672" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="386" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16485,7 +17075,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16587,7 +17177,7 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -17699,7 +18289,7 @@
         <v>357</v>
       </c>
       <c r="V51" t="s">
-        <v>132</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52">
@@ -17707,7 +18297,7 @@
         <v>332</v>
       </c>
       <c r="V52" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -17715,7 +18305,7 @@
         <v>269</v>
       </c>
       <c r="V53" t="s">
-        <v>481</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54">
@@ -17723,7 +18313,7 @@
         <v>293</v>
       </c>
       <c r="V54" t="s">
-        <v>133</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55">
@@ -17731,7 +18321,7 @@
         <v>294</v>
       </c>
       <c r="V55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -17739,7 +18329,7 @@
         <v>295</v>
       </c>
       <c r="V56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -17747,7 +18337,7 @@
         <v>304</v>
       </c>
       <c r="V57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -17755,7 +18345,7 @@
         <v>313</v>
       </c>
       <c r="V58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -17763,7 +18353,7 @@
         <v>338</v>
       </c>
       <c r="V59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -17771,7 +18361,7 @@
         <v>310</v>
       </c>
       <c r="V60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -17779,7 +18369,7 @@
         <v>311</v>
       </c>
       <c r="V61" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
@@ -17787,7 +18377,7 @@
         <v>370</v>
       </c>
       <c r="V62" t="s">
-        <v>215</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63">
@@ -17795,7 +18385,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64">
@@ -17803,7 +18393,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="65">
@@ -17811,7 +18401,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66">
@@ -17819,7 +18409,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -17827,7 +18417,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -17835,7 +18425,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69">
@@ -17843,7 +18433,7 @@
         <v>411</v>
       </c>
       <c r="V69" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70">
@@ -17851,7 +18441,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71">
@@ -17859,7 +18449,7 @@
         <v>412</v>
       </c>
       <c r="V71" t="s">
-        <v>476</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72">
@@ -17867,7 +18457,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>144</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73">
@@ -17875,7 +18465,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -17883,7 +18473,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -17891,7 +18481,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -17899,7 +18489,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
@@ -17907,7 +18497,7 @@
         <v>435</v>
       </c>
       <c r="V77" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78">
@@ -17915,7 +18505,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79">
@@ -17923,7 +18513,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
@@ -17931,7 +18521,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="81">
@@ -17939,7 +18529,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82">
@@ -17947,7 +18537,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83">
@@ -17955,7 +18545,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84">
@@ -17963,7 +18553,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
@@ -17971,7 +18561,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86">
@@ -17979,7 +18569,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87">
@@ -17987,7 +18577,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="88">
@@ -17995,7 +18585,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -18003,7 +18593,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -18011,7 +18601,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -18019,7 +18609,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -18027,131 +18617,136 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -25,7 +25,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12425" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13857" uniqueCount="492">
   <si>
     <t>description</t>
   </si>
@@ -1530,6 +1530,15 @@
   </si>
   <si>
     <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1546,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="403" x14ac:knownFonts="1">
+  <fonts count="451" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4072,8 +4081,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="706">
+  <fills count="787">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8070,8 +8382,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="731">
+  <borders count="815">
     <border>
       <left/>
       <right/>
@@ -8108,6 +8879,852 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -15448,7 +17065,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="429">
+  <cellXfs count="477">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16705,52 +18322,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="681" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="684" fontId="389" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="687" fontId="390" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="690" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="392" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="393" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="696" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="699" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="398" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="401" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="402" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="708" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="404" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="711" fontId="405" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="714" fontId="406" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="717" fontId="407" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="408" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="409" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="723" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="726" fontId="412" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="413" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="414" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="415" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="416" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="417" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="735" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="420" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="738" fontId="421" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="741" fontId="422" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="744" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="424" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="425" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="750" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="753" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="430" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="433" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="434" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="762" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="765" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="768" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="771" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="777" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="780" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17195,7 +18956,7 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="J2" t="s">
         <v>316</v>
@@ -17278,7 +19039,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J3" t="s">
         <v>342</v>
@@ -17349,7 +19110,7 @@
         <v>472</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J4" t="s">
         <v>239</v>
@@ -17420,7 +19181,7 @@
         <v>477</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J5" t="s">
         <v>485</v>
@@ -17480,6 +19241,9 @@
       </c>
       <c r="G6" t="s">
         <v>469</v>
+      </c>
+      <c r="I6" t="s">
+        <v>349</v>
       </c>
       <c r="J6" t="s">
         <v>73</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13857" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15296" uniqueCount="496">
   <si>
     <t>description</t>
   </si>
@@ -1539,6 +1539,18 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1558,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="451" x14ac:knownFonts="1">
+  <fonts count="499" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4384,8 +4396,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="787">
+  <fills count="868">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8841,8 +9156,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="815">
+  <borders count="899">
     <border>
       <left/>
       <right/>
@@ -8879,6 +9653,852 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -17065,7 +18685,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="477">
+  <cellXfs count="525">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18466,52 +20086,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="762" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="762" fontId="435" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="436" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="765" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="765" fontId="437" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="768" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="768" fontId="438" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="771" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="771" fontId="439" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="440" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="441" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="777" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="777" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="780" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="780" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="446" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="448" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="449" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="789" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="792" fontId="453" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="795" fontId="454" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="798" fontId="455" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="456" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="457" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="804" fontId="459" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="807" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="462" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="465" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="466" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="816" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="468" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="819" fontId="469" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="822" fontId="470" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="825" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="472" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="473" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="831" fontId="475" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="834" fontId="476" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="477" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="478" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="479" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="480" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="481" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="482" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18836,7 +20600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19704,7 +21468,7 @@
         <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>495</v>
       </c>
       <c r="V19" t="s">
         <v>108</v>
@@ -19721,7 +21485,7 @@
         <v>298</v>
       </c>
       <c r="J20" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>109</v>
@@ -19738,7 +21502,7 @@
         <v>299</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>393</v>
       </c>
       <c r="V21" t="s">
         <v>110</v>
@@ -19755,7 +21519,7 @@
         <v>300</v>
       </c>
       <c r="J22" t="s">
-        <v>460</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
         <v>111</v>
@@ -19772,7 +21536,7 @@
         <v>291</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="V23" t="s">
         <v>112</v>
@@ -19789,7 +21553,7 @@
         <v>280</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>113</v>
@@ -19805,6 +21569,9 @@
       <c r="F25" t="s">
         <v>77</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>114</v>
       </c>
@@ -19839,7 +21606,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
@@ -19850,7 +21617,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>494</v>
       </c>
       <c r="F29" t="s">
         <v>285</v>
@@ -19861,7 +21628,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>66</v>
+        <v>434</v>
       </c>
       <c r="F30" t="s">
         <v>217</v>
@@ -19872,7 +21639,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>276</v>
@@ -19883,7 +21650,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>286</v>
@@ -19894,7 +21661,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>261</v>
@@ -19905,7 +21672,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>331</v>
@@ -19916,7 +21683,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
         <v>308</v>
@@ -19927,7 +21694,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>262</v>
@@ -19937,6 +21704,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
       <c r="F37" t="s">
         <v>309</v>
       </c>
@@ -19945,6 +21715,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
       <c r="F38" t="s">
         <v>268</v>
       </c>
@@ -20229,7 +22002,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>144</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74">
@@ -20237,7 +22010,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -20245,7 +22018,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -20253,7 +22026,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -20261,7 +22034,7 @@
         <v>435</v>
       </c>
       <c r="V77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
@@ -20269,7 +22042,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
@@ -20277,7 +22050,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -20285,7 +22058,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -20293,7 +22066,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="82">
@@ -20301,7 +22074,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -20309,7 +22082,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84">
@@ -20317,7 +22090,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85">
@@ -20325,7 +22098,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
@@ -20333,7 +22106,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -20341,7 +22114,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88">
@@ -20349,7 +22122,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="89">
@@ -20357,7 +22130,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
@@ -20365,7 +22138,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -20373,7 +22146,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -20381,136 +22154,141 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15296" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15779" uniqueCount="498">
   <si>
     <t>description</t>
   </si>
@@ -1551,6 +1551,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1564,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="499" x14ac:knownFonts="1">
+  <fonts count="515" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4699,8 +4705,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="868">
+  <fills count="895">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9615,8 +9722,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="899">
+  <borders count="927">
     <border>
       <left/>
       <right/>
@@ -9653,6 +9913,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -18685,7 +19227,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="525">
+  <cellXfs count="541">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20230,52 +20772,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="843" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="846" fontId="485" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="849" fontId="486" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="852" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="488" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="489" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="490" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="858" fontId="491" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="861" fontId="492" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="493" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="494" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="495" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="496" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="497" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="498" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="870" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="873" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="876" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="879" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="885" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="888" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21257,7 +21847,7 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="N11" t="s">
         <v>94</v>
@@ -21292,7 +21882,7 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>461</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
@@ -21324,7 +21914,7 @@
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>497</v>
       </c>
       <c r="N13" t="s">
         <v>95</v>
@@ -21356,7 +21946,7 @@
         <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
         <v>96</v>
@@ -21384,6 +21974,9 @@
       <c r="J15" t="s">
         <v>478</v>
       </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" t="s">
         <v>97</v>
       </c>
@@ -21409,6 +22002,9 @@
       </c>
       <c r="J16" t="s">
         <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
       </c>
       <c r="O16" t="s">
         <v>253</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15779" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16265" uniqueCount="501">
   <si>
     <t>description</t>
   </si>
@@ -1557,6 +1557,15 @@
   </si>
   <si>
     <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1573,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="515" x14ac:knownFonts="1">
+  <fonts count="531" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4806,8 +4815,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="895">
+  <fills count="922">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9875,8 +9985,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="927">
+  <borders count="955">
     <border>
       <left/>
       <right/>
@@ -9913,6 +10176,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -19227,7 +19772,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="541">
+  <cellXfs count="557">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20820,52 +21365,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="498" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="870" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="870" fontId="499" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="500" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="873" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="873" fontId="501" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="876" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="876" fontId="502" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="879" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="879" fontId="503" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="504" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="505" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="506" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="885" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="885" fontId="507" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="888" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="888" fontId="508" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="509" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="510" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="511" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="512" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="513" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="514" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="897" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="900" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="903" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21190,7 +21783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21789,7 +22382,7 @@
         <v>190</v>
       </c>
       <c r="AA9" t="s">
-        <v>236</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10">
@@ -21827,7 +22420,7 @@
         <v>191</v>
       </c>
       <c r="AA10" t="s">
-        <v>237</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
@@ -21862,7 +22455,7 @@
         <v>260</v>
       </c>
       <c r="AA11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -21896,6 +22489,9 @@
       <c r="Y12" t="s">
         <v>192</v>
       </c>
+      <c r="AA12" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -21928,6 +22524,9 @@
       <c r="Y13" t="s">
         <v>193</v>
       </c>
+      <c r="AA13" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -22518,7 +23117,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>215</v>
+        <v>498</v>
       </c>
     </row>
     <row r="64">
@@ -22526,7 +23125,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65">
@@ -22534,7 +23133,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66">
@@ -22542,7 +23141,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67">
@@ -22550,7 +23149,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -22558,7 +23157,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -22566,7 +23165,7 @@
         <v>411</v>
       </c>
       <c r="V69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -22574,7 +23173,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -22582,7 +23181,7 @@
         <v>412</v>
       </c>
       <c r="V71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72">
@@ -22590,7 +23189,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>476</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73">
@@ -22598,7 +23197,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74">
@@ -22606,7 +23205,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>144</v>
+        <v>492</v>
       </c>
     </row>
     <row r="75">
@@ -22614,7 +23213,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
@@ -22622,7 +23221,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -22630,7 +23229,7 @@
         <v>435</v>
       </c>
       <c r="V77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
@@ -22638,7 +23237,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
@@ -22646,7 +23245,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
@@ -22654,7 +23253,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -22662,7 +23261,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82">
@@ -22670,7 +23269,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="83">
@@ -22678,7 +23277,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -22686,7 +23285,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85">
@@ -22694,7 +23293,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86">
@@ -22702,7 +23301,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
@@ -22710,7 +23309,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -22718,7 +23317,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="89">
@@ -22726,7 +23325,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="90">
@@ -22734,7 +23333,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
@@ -22742,7 +23341,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -22750,141 +23349,146 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -24,31 +24,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16265" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16759" uniqueCount="510">
   <si>
     <t>description</t>
   </si>
@@ -1566,6 +1567,33 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1601,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="531" x14ac:knownFonts="1">
+  <fonts count="547" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4916,8 +4944,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="922">
+  <fills count="949">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10138,8 +10267,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="955">
+  <borders count="983">
     <border>
       <left/>
       <right/>
@@ -10176,6 +10458,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -19772,7 +20336,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="557">
+  <cellXfs count="573">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21413,52 +21977,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="514" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="897" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="897" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="516" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="900" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="900" fontId="517" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="903" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="903" fontId="518" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="906" fontId="519" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="520" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="521" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="522" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="912" fontId="523" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="915" fontId="524" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="525" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="526" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="527" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="528" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="529" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="530" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="924" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="927" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="930" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="939" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="942" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21783,7 +22395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21832,48 +22444,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>501</v>
+      </c>
+      <c r="N1" t="s">
         <v>197</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>240</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>397</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>430</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>431</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>358</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>398</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>432</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -21915,48 +22530,51 @@
         <v>436</v>
       </c>
       <c r="M2" t="s">
+        <v>504</v>
+      </c>
+      <c r="N2" t="s">
         <v>437</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>438</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>254</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>399</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>442</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>443</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>382</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>408</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>172</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>177</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>184</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>451</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -21983,7 +22601,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>502</v>
       </c>
       <c r="I3" t="s">
         <v>350</v>
@@ -21997,43 +22615,46 @@
       <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>505</v>
+      </c>
+      <c r="O3" t="s">
         <v>439</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>241</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>400</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>444</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>383</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>409</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>99</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>173</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>178</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>365</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -22056,6 +22677,9 @@
       <c r="G4" t="s">
         <v>472</v>
       </c>
+      <c r="H4" t="s">
+        <v>503</v>
+      </c>
       <c r="I4" t="s">
         <v>351</v>
       </c>
@@ -22068,43 +22692,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>506</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>242</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>401</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>445</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>359</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>410</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>355</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>174</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>452</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -22136,40 +22763,40 @@
       <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>243</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>402</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>446</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>360</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>356</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>175</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>186</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>453</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -22198,37 +22825,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>244</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>392</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>403</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>362</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>465</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>187</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>454</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -22254,37 +22881,37 @@
       <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>245</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>441</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>404</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>361</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>101</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>466</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>182</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>188</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>455</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -22310,34 +22937,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>246</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>405</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>363</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>102</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>176</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>183</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>189</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>456</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -22363,25 +22990,25 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>93</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>247</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>406</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>364</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>210</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>190</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>499</v>
       </c>
     </row>
@@ -22404,22 +23031,22 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>440</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>248</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>407</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>258</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>191</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>500</v>
       </c>
     </row>
@@ -22442,19 +23069,19 @@
       <c r="L11" t="s">
         <v>496</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>249</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>259</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>236</v>
       </c>
     </row>
@@ -22477,25 +23104,25 @@
       <c r="L12" t="s">
         <v>461</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>250</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>192</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>501</v>
       </c>
       <c r="D13" t="s">
         <v>342</v>
@@ -22512,25 +23139,25 @@
       <c r="L13" t="s">
         <v>497</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>255</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>327</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>193</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -22547,22 +23174,22 @@
       <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>251</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -22576,22 +23203,22 @@
       <c r="L15" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>97</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>252</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>105</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
         <v>386</v>
@@ -22605,19 +23232,19 @@
       <c r="L16" t="s">
         <v>43</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>253</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>397</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>387</v>
@@ -22628,16 +23255,16 @@
       <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>106</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="D18" t="s">
         <v>433</v>
@@ -22648,13 +23275,13 @@
       <c r="J18" t="s">
         <v>381</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -22665,13 +23292,13 @@
       <c r="J19" t="s">
         <v>495</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
@@ -22682,13 +23309,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="D21" t="s">
         <v>257</v>
@@ -22699,13 +23326,13 @@
       <c r="J21" t="s">
         <v>393</v>
       </c>
-      <c r="V21" t="s">
-        <v>110</v>
+      <c r="W21" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -22716,13 +23343,13 @@
       <c r="J22" t="s">
         <v>86</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>322</v>
@@ -22733,13 +23360,13 @@
       <c r="J23" t="s">
         <v>460</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -22750,13 +23377,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>470</v>
@@ -22767,13 +23394,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>432</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>226</v>
@@ -22781,13 +23408,13 @@
       <c r="F26" t="s">
         <v>283</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>432</v>
       </c>
       <c r="D27" t="s">
         <v>227</v>
@@ -22795,18 +23422,21 @@
       <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="s">
         <v>493</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -22817,7 +23447,7 @@
       <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -22828,7 +23458,7 @@
       <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -22839,7 +23469,7 @@
       <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -22850,7 +23480,7 @@
       <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -22861,7 +23491,7 @@
       <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -22872,7 +23502,7 @@
       <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>211</v>
       </c>
     </row>
@@ -22883,7 +23513,7 @@
       <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -22894,7 +23524,7 @@
       <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>339</v>
       </c>
     </row>
@@ -22905,7 +23535,7 @@
       <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>447</v>
       </c>
     </row>
@@ -22916,7 +23546,7 @@
       <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>394</v>
       </c>
     </row>
@@ -22924,7 +23554,7 @@
       <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -22932,7 +23562,7 @@
       <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -22940,7 +23570,7 @@
       <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -22948,7 +23578,7 @@
       <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>126</v>
       </c>
     </row>
@@ -22956,7 +23586,7 @@
       <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -22964,7 +23594,7 @@
       <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -22972,7 +23602,7 @@
       <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>462</v>
       </c>
     </row>
@@ -22980,7 +23610,7 @@
       <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>214</v>
       </c>
     </row>
@@ -22988,7 +23618,7 @@
       <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -22996,7 +23626,7 @@
       <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>129</v>
       </c>
     </row>
@@ -23004,7 +23634,7 @@
       <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>130</v>
       </c>
     </row>
@@ -23012,7 +23642,7 @@
       <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -23020,475 +23650,485 @@
       <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="V51" t="s">
-        <v>488</v>
+      <c r="W51" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="V52" t="s">
-        <v>132</v>
+      <c r="W52" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="V53" t="s">
-        <v>347</v>
+      <c r="W53" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="V54" t="s">
-        <v>481</v>
+      <c r="W54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="V55" t="s">
-        <v>133</v>
+      <c r="W55" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="V56" t="s">
-        <v>134</v>
+      <c r="W56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="V57" t="s">
-        <v>135</v>
+      <c r="W57" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="V58" t="s">
-        <v>136</v>
+      <c r="W58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="V59" t="s">
-        <v>137</v>
+      <c r="W59" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="V60" t="s">
-        <v>138</v>
+      <c r="W60" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="V61" t="s">
-        <v>139</v>
+      <c r="W61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="V62" t="s">
-        <v>458</v>
+      <c r="W62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="V63" t="s">
-        <v>498</v>
+      <c r="W63" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="V64" t="s">
-        <v>215</v>
+      <c r="W64" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="V65" t="s">
-        <v>390</v>
+      <c r="W65" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="V66" t="s">
-        <v>463</v>
+      <c r="W66" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="V67" t="s">
-        <v>140</v>
+      <c r="W67" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="V68" t="s">
-        <v>141</v>
+      <c r="W68" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>411</v>
       </c>
-      <c r="V69" t="s">
-        <v>142</v>
+      <c r="W69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="V70" t="s">
-        <v>143</v>
+      <c r="W70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>412</v>
       </c>
-      <c r="V71" t="s">
-        <v>198</v>
+      <c r="W71" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="V72" t="s">
-        <v>199</v>
+      <c r="W72" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="V73" t="s">
-        <v>476</v>
+      <c r="W73" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="V74" t="s">
-        <v>492</v>
+      <c r="W74" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="V75" t="s">
-        <v>144</v>
+      <c r="W75" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="V76" t="s">
-        <v>145</v>
+      <c r="W76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>435</v>
       </c>
-      <c r="V77" t="s">
-        <v>146</v>
+      <c r="W77" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="V78" t="s">
-        <v>147</v>
+      <c r="W78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="V79" t="s">
-        <v>148</v>
+      <c r="W79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="V80" t="s">
-        <v>200</v>
+      <c r="W80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="V81" t="s">
-        <v>201</v>
+      <c r="W81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="V82" t="s">
-        <v>475</v>
+      <c r="W82" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="V83" t="s">
-        <v>202</v>
+      <c r="W83" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="V84" t="s">
-        <v>203</v>
+      <c r="W84" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="V85" t="s">
-        <v>216</v>
+      <c r="W85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="V86" t="s">
-        <v>149</v>
+      <c r="W86" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="V87" t="s">
-        <v>204</v>
+      <c r="W87" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="V88" t="s">
-        <v>449</v>
+      <c r="W88" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="V89" t="s">
-        <v>457</v>
+      <c r="W89" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="V90" t="s">
-        <v>205</v>
+      <c r="W90" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="V91" t="s">
-        <v>206</v>
+      <c r="W91" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16759" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17253" uniqueCount="510">
   <si>
     <t>description</t>
   </si>
@@ -1601,7 +1601,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="547" x14ac:knownFonts="1">
+  <fonts count="563" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5045,8 +5045,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="949">
+  <fills count="976">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10420,8 +10521,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="983">
+  <borders count="1011">
     <border>
       <left/>
       <right/>
@@ -10458,6 +10712,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -20336,7 +20872,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="573">
+  <cellXfs count="589">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22025,52 +22561,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="530" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="924" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="924" fontId="531" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="532" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="927" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="927" fontId="533" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="930" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="930" fontId="534" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="535" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="933" fontId="535" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="536" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="936" fontId="537" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="538" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="939" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="939" fontId="539" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="942" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="942" fontId="540" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="541" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="542" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="543" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="948" fontId="544" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="545" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="546" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="951" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="954" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="957" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="960" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="966" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="969" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="975" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -18,38 +18,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17253" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18258" uniqueCount="520">
   <si>
     <t>description</t>
   </si>
@@ -1594,6 +1595,36 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1632,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="563" x14ac:knownFonts="1">
+  <fonts count="595" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5146,8 +5177,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="976">
+  <fills count="1030">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10674,8 +10907,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1011">
+  <borders count="1067">
     <border>
       <left/>
       <right/>
@@ -10712,6 +11251,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -20872,7 +21975,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="589">
+  <cellXfs count="621">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22609,52 +23712,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="546" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="951" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="951" fontId="547" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="548" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="954" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="954" fontId="549" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="957" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="957" fontId="550" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="960" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="960" fontId="551" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="552" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="963" fontId="553" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="555" fillId="966" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="556" fillId="969" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="557" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="558" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="559" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="560" fillId="975" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="561" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="554" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="966" fontId="555" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="969" fontId="556" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="972" fontId="557" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="972" fontId="558" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="559" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="975" fontId="560" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="561" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="562" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="978" fontId="563" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="564" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="981" fontId="565" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="984" fontId="566" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="987" fontId="567" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="568" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="990" fontId="569" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="570" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="993" fontId="571" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="996" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="999" fontId="573" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="999" fontId="574" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="575" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="576" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="577" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="1005" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="1008" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="1011" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="1014" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="1020" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="1023" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22979,7 +24178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -23001,78 +24200,81 @@
         <v>482</v>
       </c>
       <c r="D1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>348</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>501</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>397</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>430</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>431</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>358</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>398</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>432</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -23087,79 +24289,82 @@
         <v>487</v>
       </c>
       <c r="D2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>471</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>491</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>316</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>385</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>436</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>504</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>437</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>438</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>218</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>399</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>442</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>443</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>382</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>408</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>172</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>184</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>451</v>
       </c>
-      <c r="AB2" t="s">
-        <v>229</v>
+      <c r="AC2" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="3">
@@ -23173,1546 +24378,1573 @@
         <v>484</v>
       </c>
       <c r="D3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E3" t="s">
         <v>479</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>366</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>502</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>350</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>335</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>505</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>439</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>241</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>219</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>400</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>444</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>383</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>409</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>173</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>365</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" t="s">
-        <v>230</v>
+      <c r="AC3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
       <c r="D4" t="s">
+        <v>513</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>388</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>472</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>503</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>351</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>506</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>220</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>401</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>445</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>410</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>355</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>185</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>452</v>
       </c>
-      <c r="AB4" t="s">
-        <v>231</v>
+      <c r="AC4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
       <c r="D5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E5" t="s">
         <v>480</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>459</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>337</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>477</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>352</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>485</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>243</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>221</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>402</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>446</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>360</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>356</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>175</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>180</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>186</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>453</v>
       </c>
-      <c r="AB5" t="s">
-        <v>232</v>
+      <c r="AC5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>389</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>469</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>349</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>244</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>392</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>403</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>362</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>465</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>187</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>454</v>
       </c>
-      <c r="AB6" t="s">
-        <v>233</v>
+      <c r="AC6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>367</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>468</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>441</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>404</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>361</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>101</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>466</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>182</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>188</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>455</v>
       </c>
-      <c r="AB7" t="s">
-        <v>234</v>
+      <c r="AC7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>319</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>368</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>246</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>405</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>363</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>183</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>189</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>456</v>
       </c>
-      <c r="AB8" t="s">
-        <v>235</v>
+      <c r="AC8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>307</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>330</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>247</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>406</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>364</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>210</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>190</v>
       </c>
-      <c r="AB9" t="s">
-        <v>499</v>
+      <c r="AC9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
         <v>316</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>353</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>473</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>391</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>440</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>248</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>407</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>258</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>191</v>
       </c>
-      <c r="AB10" t="s">
-        <v>500</v>
+      <c r="AC10" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>256</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>275</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>323</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>496</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>94</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>249</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>259</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
-        <v>236</v>
+      <c r="AC11" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
         <v>320</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>324</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>461</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>250</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>103</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>192</v>
       </c>
-      <c r="AB12" t="s">
-        <v>237</v>
+      <c r="AC12" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>501</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>342</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>317</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>325</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>497</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>95</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>255</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>327</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>193</v>
       </c>
-      <c r="AB13" t="s">
-        <v>238</v>
+      <c r="AC13" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="s">
+        <v>501</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>265</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>326</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>96</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>251</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>104</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>194</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>266</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>478</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>97</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>252</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>105</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>195</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>386</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>318</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>253</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>196</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
         <v>387</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>106</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>486</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>397</v>
-      </c>
-      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>433</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>381</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>107</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>430</v>
-      </c>
-      <c r="D19" t="s">
+        <v>397</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>297</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>495</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>431</v>
-      </c>
-      <c r="D20" t="s">
+        <v>430</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>298</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>358</v>
-      </c>
-      <c r="D21" t="s">
+        <v>431</v>
+      </c>
+      <c r="E21" t="s">
         <v>257</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>299</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>393</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>300</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>86</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
+        <v>398</v>
+      </c>
+      <c r="E23" t="s">
         <v>322</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>291</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>460</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>280</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
         <v>470</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>77</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>226</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>283</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>432</v>
-      </c>
-      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>267</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>432</v>
+      </c>
+      <c r="E28" t="s">
+        <v>493</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="X28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
-        <v>493</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="W28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>494</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>434</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>261</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>331</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>308</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>262</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>309</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>268</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>79</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>213</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>290</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>301</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>344</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>343</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>212</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>321</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>340</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>369</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>303</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>357</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>332</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>269</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>293</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>304</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>313</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>338</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>310</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>370</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>371</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>346</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>314</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>270</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>354</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>411</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>305</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>412</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>263</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>345</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>281</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>287</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>292</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>435</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>333</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>271</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>282</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>288</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>277</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>272</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>289</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>273</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>306</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>312</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>296</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>341</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>279</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18258" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18767" uniqueCount="524">
   <si>
     <t>description</t>
   </si>
@@ -1625,6 +1625,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1644,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="595" x14ac:knownFonts="1">
+  <fonts count="611" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5379,8 +5391,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1030">
+  <fills count="1057">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11213,8 +11326,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1067">
+  <borders count="1095">
     <border>
       <left/>
       <right/>
@@ -11251,6 +11517,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -21975,7 +22523,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="621">
+  <cellXfs count="637">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -23808,52 +24356,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="578" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="579" fillId="1005" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1046" fillId="1005" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="580" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="581" fillId="1008" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1008" fontId="581" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="582" fillId="1011" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1011" fontId="582" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="583" fillId="1014" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1014" fontId="583" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="584" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="585" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="585" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="587" fillId="1020" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="588" fillId="1023" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="589" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="590" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="591" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="592" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="593" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="586" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1058" fillId="1020" fontId="587" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1023" fontId="588" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1026" fontId="589" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1026" fontId="590" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="591" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="592" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="593" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="594" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="1032" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="1035" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="1038" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="1041" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="1047" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="1050" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="1053" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="1053" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="1056" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24178,7 +24774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -24950,7 +25546,7 @@
         <v>193</v>
       </c>
       <c r="AC13" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14">
@@ -24985,7 +25581,7 @@
         <v>194</v>
       </c>
       <c r="AC14" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15">
@@ -25017,7 +25613,7 @@
         <v>195</v>
       </c>
       <c r="AC15" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16">
@@ -25046,7 +25642,7 @@
         <v>196</v>
       </c>
       <c r="AC16" t="s">
-        <v>236</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17">
@@ -25069,7 +25665,7 @@
         <v>486</v>
       </c>
       <c r="AC17" t="s">
-        <v>237</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18">
@@ -25089,7 +25685,7 @@
         <v>107</v>
       </c>
       <c r="AC18" t="s">
-        <v>238</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19">
@@ -25108,6 +25704,9 @@
       <c r="X19" t="s">
         <v>108</v>
       </c>
+      <c r="AC19" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -25125,6 +25724,9 @@
       <c r="X20" t="s">
         <v>109</v>
       </c>
+      <c r="AC20" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -25142,6 +25744,9 @@
       <c r="X21" t="s">
         <v>507</v>
       </c>
+      <c r="AC21" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -25691,7 +26296,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>147</v>
+        <v>520</v>
       </c>
     </row>
     <row r="80">
@@ -25699,7 +26304,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -25707,7 +26312,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82">
@@ -25715,7 +26320,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>509</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -25723,7 +26328,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>201</v>
+        <v>509</v>
       </c>
     </row>
     <row r="84">
@@ -25731,7 +26336,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85">
@@ -25739,7 +26344,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86">
@@ -25747,7 +26352,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -25755,7 +26360,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -25763,7 +26368,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
@@ -25771,7 +26376,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -25779,7 +26384,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -25787,7 +26392,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92">
@@ -25795,156 +26400,161 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -33,7 +33,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18767" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19788" uniqueCount="527">
   <si>
     <t>description</t>
   </si>
@@ -1637,6 +1637,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1653,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="611" x14ac:knownFonts="1">
+  <fonts count="643" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5492,8 +5501,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1057">
+  <fills count="1111">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11479,8 +11690,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1095">
+  <borders count="1151">
     <border>
       <left/>
       <right/>
@@ -11517,6 +12034,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -22523,7 +23604,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="637">
+  <cellXfs count="669">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24404,52 +25485,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="594" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="595" fillId="1032" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1074" fillId="1032" fontId="595" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="596" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="597" fillId="1035" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1035" fontId="597" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="598" fillId="1038" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1038" fontId="598" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="599" fillId="1041" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1041" fontId="599" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="600" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="600" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="601" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1044" fontId="601" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="603" fillId="1047" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="604" fillId="1050" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="605" fillId="1053" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="606" fillId="1053" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="607" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="608" fillId="1056" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="609" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="610" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="602" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="1047" fontId="603" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1090" fillId="1050" fontId="604" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1053" fontId="605" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1053" fontId="606" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="607" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1056" fontId="608" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="609" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="610" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1059" fontId="611" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="612" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1106" fillId="1062" fontId="613" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1065" fontId="614" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1068" fontId="615" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="616" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1071" fontId="617" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="618" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1114" fillId="1074" fontId="619" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1077" fontId="620" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1080" fontId="621" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1080" fontId="622" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1068" fontId="623" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1083" fontId="624" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1068" fontId="625" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="626" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="1086" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="1089" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="1092" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="1095" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="1101" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="1104" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24774,7 +25951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -25601,7 +26778,7 @@
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>524</v>
       </c>
       <c r="Q15" t="s">
         <v>252</v>
@@ -25632,6 +26809,9 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
+      <c r="P16" t="s">
+        <v>525</v>
+      </c>
       <c r="Q16" t="s">
         <v>253</v>
       </c>
@@ -25659,7 +26839,7 @@
         <v>85</v>
       </c>
       <c r="X17" t="s">
-        <v>106</v>
+        <v>526</v>
       </c>
       <c r="AA17" t="s">
         <v>486</v>
@@ -25682,7 +26862,7 @@
         <v>381</v>
       </c>
       <c r="X18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC18" t="s">
         <v>523</v>
@@ -25702,7 +26882,7 @@
         <v>495</v>
       </c>
       <c r="X19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s">
         <v>236</v>
@@ -25722,7 +26902,7 @@
         <v>44</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC20" t="s">
         <v>237</v>
@@ -25742,7 +26922,7 @@
         <v>393</v>
       </c>
       <c r="X21" t="s">
-        <v>507</v>
+        <v>109</v>
       </c>
       <c r="AC21" t="s">
         <v>238</v>
@@ -25762,7 +26942,7 @@
         <v>86</v>
       </c>
       <c r="X22" t="s">
-        <v>111</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23">
@@ -25779,7 +26959,7 @@
         <v>460</v>
       </c>
       <c r="X23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -25796,7 +26976,7 @@
         <v>45</v>
       </c>
       <c r="X24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -25813,7 +26993,7 @@
         <v>46</v>
       </c>
       <c r="X25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -25827,7 +27007,7 @@
         <v>283</v>
       </c>
       <c r="X26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -25841,7 +27021,7 @@
         <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -25855,7 +27035,7 @@
         <v>284</v>
       </c>
       <c r="X28" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29">
@@ -25869,7 +27049,7 @@
         <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -25880,7 +27060,7 @@
         <v>217</v>
       </c>
       <c r="X30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -25891,7 +27071,7 @@
         <v>276</v>
       </c>
       <c r="X31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -25902,7 +27082,7 @@
         <v>286</v>
       </c>
       <c r="X32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -25913,7 +27093,7 @@
         <v>261</v>
       </c>
       <c r="X33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -25924,7 +27104,7 @@
         <v>331</v>
       </c>
       <c r="X34" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -25935,7 +27115,7 @@
         <v>308</v>
       </c>
       <c r="X35" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
@@ -25946,7 +27126,7 @@
         <v>262</v>
       </c>
       <c r="X36" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -25957,7 +27137,7 @@
         <v>309</v>
       </c>
       <c r="X37" t="s">
-        <v>447</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
@@ -25968,7 +27148,7 @@
         <v>268</v>
       </c>
       <c r="X38" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39">
@@ -25976,7 +27156,7 @@
         <v>79</v>
       </c>
       <c r="X39" t="s">
-        <v>123</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40">
@@ -25984,7 +27164,7 @@
         <v>213</v>
       </c>
       <c r="X40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -25992,7 +27172,7 @@
         <v>290</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -26000,7 +27180,7 @@
         <v>301</v>
       </c>
       <c r="X42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -26008,7 +27188,7 @@
         <v>302</v>
       </c>
       <c r="X43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -26016,7 +27196,7 @@
         <v>344</v>
       </c>
       <c r="X44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -26024,7 +27204,7 @@
         <v>343</v>
       </c>
       <c r="X45" t="s">
-        <v>462</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -26032,7 +27212,7 @@
         <v>212</v>
       </c>
       <c r="X46" t="s">
-        <v>214</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47">
@@ -26040,7 +27220,7 @@
         <v>321</v>
       </c>
       <c r="X47" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48">
@@ -26048,7 +27228,7 @@
         <v>340</v>
       </c>
       <c r="X48" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -26056,7 +27236,7 @@
         <v>369</v>
       </c>
       <c r="X49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -26064,7 +27244,7 @@
         <v>303</v>
       </c>
       <c r="X50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -26072,7 +27252,7 @@
         <v>357</v>
       </c>
       <c r="X51" t="s">
-        <v>508</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -26080,7 +27260,7 @@
         <v>332</v>
       </c>
       <c r="X52" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53">
@@ -26088,7 +27268,7 @@
         <v>269</v>
       </c>
       <c r="X53" t="s">
-        <v>132</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54">
@@ -26096,7 +27276,7 @@
         <v>293</v>
       </c>
       <c r="X54" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -26104,7 +27284,7 @@
         <v>294</v>
       </c>
       <c r="X55" t="s">
-        <v>481</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56">
@@ -26112,7 +27292,7 @@
         <v>295</v>
       </c>
       <c r="X56" t="s">
-        <v>133</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57">
@@ -26120,7 +27300,7 @@
         <v>304</v>
       </c>
       <c r="X57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58">
@@ -26128,7 +27308,7 @@
         <v>313</v>
       </c>
       <c r="X58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59">
@@ -26136,7 +27316,7 @@
         <v>338</v>
       </c>
       <c r="X59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -26144,7 +27324,7 @@
         <v>310</v>
       </c>
       <c r="X60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -26152,7 +27332,7 @@
         <v>311</v>
       </c>
       <c r="X61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
@@ -26160,7 +27340,7 @@
         <v>370</v>
       </c>
       <c r="X62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -26168,7 +27348,7 @@
         <v>371</v>
       </c>
       <c r="X63" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -26176,7 +27356,7 @@
         <v>346</v>
       </c>
       <c r="X64" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
     </row>
     <row r="65">
@@ -26184,7 +27364,7 @@
         <v>314</v>
       </c>
       <c r="X65" t="s">
-        <v>215</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66">
@@ -26192,7 +27372,7 @@
         <v>270</v>
       </c>
       <c r="X66" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67">
@@ -26200,7 +27380,7 @@
         <v>354</v>
       </c>
       <c r="X67" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68">
@@ -26208,7 +27388,7 @@
         <v>315</v>
       </c>
       <c r="X68" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="69">
@@ -26216,7 +27396,7 @@
         <v>411</v>
       </c>
       <c r="X69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -26224,7 +27404,7 @@
         <v>305</v>
       </c>
       <c r="X70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71">
@@ -26232,7 +27412,7 @@
         <v>412</v>
       </c>
       <c r="X71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -26240,7 +27420,7 @@
         <v>263</v>
       </c>
       <c r="X72" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -26248,7 +27428,7 @@
         <v>345</v>
       </c>
       <c r="X73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
@@ -26256,7 +27436,7 @@
         <v>281</v>
       </c>
       <c r="X74" t="s">
-        <v>476</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -26264,7 +27444,7 @@
         <v>287</v>
       </c>
       <c r="X75" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76">
@@ -26272,7 +27452,7 @@
         <v>292</v>
       </c>
       <c r="X76" t="s">
-        <v>144</v>
+        <v>492</v>
       </c>
     </row>
     <row r="77">
@@ -26280,7 +27460,7 @@
         <v>435</v>
       </c>
       <c r="X77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78">
@@ -26288,7 +27468,7 @@
         <v>333</v>
       </c>
       <c r="X78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
@@ -26296,7 +27476,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>520</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
@@ -26304,7 +27484,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>147</v>
+        <v>520</v>
       </c>
     </row>
     <row r="81">
@@ -26312,7 +27492,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -26320,7 +27500,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
@@ -26328,7 +27508,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>509</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84">
@@ -26336,7 +27516,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>201</v>
+        <v>509</v>
       </c>
     </row>
     <row r="85">
@@ -26344,7 +27524,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86">
@@ -26352,7 +27532,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="87">
@@ -26360,7 +27540,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
@@ -26368,7 +27548,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89">
@@ -26376,7 +27556,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -26384,7 +27564,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -26392,7 +27572,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92">
@@ -26400,161 +27580,166 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19788" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20304" uniqueCount="532">
   <si>
     <t>description</t>
   </si>
@@ -1646,6 +1646,21 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1668,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="643" x14ac:knownFonts="1">
+  <fonts count="659" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5703,8 +5718,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1111">
+  <fills count="1138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11996,8 +12112,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1151">
+  <borders count="1179">
     <border>
       <left/>
       <right/>
@@ -12034,6 +12303,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -23604,7 +24155,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="669">
+  <cellXfs count="685">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25581,52 +26132,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="626" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="627" fillId="1086" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1130" fillId="1086" fontId="627" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="628" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="629" fillId="1089" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1089" fontId="629" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="630" fillId="1092" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1092" fontId="630" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="631" fillId="1095" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1095" fontId="631" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="632" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="633" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1098" fontId="633" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="635" fillId="1101" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="636" fillId="1104" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="637" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="638" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="639" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="640" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="641" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="634" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1142" fillId="1101" fontId="635" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1146" fillId="1104" fontId="636" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1107" fontId="637" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1107" fontId="638" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="639" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1110" fontId="640" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="641" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="642" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="1113" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="1116" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="1119" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="1122" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="1128" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="1131" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="1134" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="1134" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25951,7 +26550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26381,6 +26980,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>527</v>
+      </c>
       <c r="G6" t="s">
         <v>389</v>
       </c>
@@ -26503,7 +27105,7 @@
         <v>329</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>528</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -26556,7 +27158,7 @@
         <v>330</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -26597,7 +27199,7 @@
         <v>473</v>
       </c>
       <c r="K10" t="s">
-        <v>391</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -26635,7 +27237,7 @@
         <v>323</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>529</v>
       </c>
       <c r="M11" t="s">
         <v>496</v>
@@ -26670,7 +27272,7 @@
         <v>324</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="M12" t="s">
         <v>461</v>
@@ -26705,7 +27307,7 @@
         <v>325</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>497</v>
@@ -26740,7 +27342,7 @@
         <v>326</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -26772,7 +27374,7 @@
         <v>266</v>
       </c>
       <c r="K15" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -26804,7 +27406,7 @@
         <v>318</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -26836,7 +27438,7 @@
         <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
         <v>526</v>
@@ -26859,7 +27461,7 @@
         <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>381</v>
+        <v>478</v>
       </c>
       <c r="X18" t="s">
         <v>106</v>
@@ -26879,7 +27481,7 @@
         <v>297</v>
       </c>
       <c r="K19" t="s">
-        <v>495</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
         <v>107</v>
@@ -26899,7 +27501,7 @@
         <v>298</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="X20" t="s">
         <v>108</v>
@@ -26919,7 +27521,7 @@
         <v>299</v>
       </c>
       <c r="K21" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="X21" t="s">
         <v>109</v>
@@ -26939,7 +27541,7 @@
         <v>300</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>495</v>
       </c>
       <c r="X22" t="s">
         <v>507</v>
@@ -26956,7 +27558,7 @@
         <v>291</v>
       </c>
       <c r="K23" t="s">
-        <v>460</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>111</v>
@@ -26973,7 +27575,7 @@
         <v>280</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="X24" t="s">
         <v>112</v>
@@ -26990,7 +27592,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
         <v>113</v>
@@ -27006,6 +27608,9 @@
       <c r="G26" t="s">
         <v>283</v>
       </c>
+      <c r="K26" t="s">
+        <v>460</v>
+      </c>
       <c r="X26" t="s">
         <v>114</v>
       </c>
@@ -27020,6 +27625,9 @@
       <c r="G27" t="s">
         <v>267</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>115</v>
       </c>
@@ -27034,6 +27642,9 @@
       <c r="G28" t="s">
         <v>284</v>
       </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
       <c r="X28" t="s">
         <v>328</v>
       </c>
@@ -27620,126 +28231,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>150</v>
+        <v>531</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -22,7 +22,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20304" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20822" uniqueCount="534">
   <si>
     <t>description</t>
   </si>
@@ -1661,6 +1661,12 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1674,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="659" x14ac:knownFonts="1">
+  <fonts count="675" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5819,8 +5825,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1138">
+  <fills count="1165">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12265,8 +12372,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1179">
+  <borders count="1207">
     <border>
       <left/>
       <right/>
@@ -12303,6 +12563,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -24155,7 +24697,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="685">
+  <cellXfs count="701">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26180,52 +26722,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="642" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="643" fillId="1113" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1113" fontId="643" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="644" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="645" fillId="1116" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1162" fillId="1116" fontId="645" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="646" fillId="1119" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1119" fontId="646" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="647" fillId="1122" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1122" fontId="647" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="648" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="648" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="649" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1125" fontId="649" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="651" fillId="1128" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="652" fillId="1131" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="653" fillId="1134" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="654" fillId="1134" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="655" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="656" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="657" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="658" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="650" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1170" fillId="1128" fontId="651" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1174" fillId="1131" fontId="652" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1134" fontId="653" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1134" fontId="654" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="655" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1137" fontId="656" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="657" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="658" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="1140" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="1143" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="1146" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="1149" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="1152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="1155" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="1158" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27701,7 +28291,7 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>532</v>
       </c>
       <c r="X33" t="s">
         <v>120</v>
@@ -27712,7 +28302,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="X34" t="s">
         <v>121</v>
@@ -27723,7 +28313,7 @@
         <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
         <v>211</v>
@@ -27734,7 +28324,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="X36" t="s">
         <v>122</v>
@@ -27745,7 +28335,7 @@
         <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="X37" t="s">
         <v>339</v>
@@ -27756,7 +28346,7 @@
         <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="X38" t="s">
         <v>447</v>
@@ -27764,7 +28354,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="X39" t="s">
         <v>394</v>
@@ -27772,7 +28362,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s">
         <v>123</v>
@@ -27780,7 +28370,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="X41" t="s">
         <v>124</v>
@@ -27788,7 +28378,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="X42" t="s">
         <v>125</v>
@@ -27796,7 +28386,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X43" t="s">
         <v>126</v>
@@ -27804,7 +28394,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="X44" t="s">
         <v>127</v>
@@ -27812,7 +28402,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X45" t="s">
         <v>128</v>
@@ -27820,7 +28410,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="X46" t="s">
         <v>462</v>
@@ -27828,7 +28418,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="X47" t="s">
         <v>214</v>
@@ -27836,7 +28426,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="X48" t="s">
         <v>78</v>
@@ -27844,7 +28434,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="X49" t="s">
         <v>129</v>
@@ -27852,7 +28442,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="X50" t="s">
         <v>130</v>
@@ -27860,7 +28450,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="X51" t="s">
         <v>131</v>
@@ -27868,7 +28458,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="X52" t="s">
         <v>508</v>
@@ -27876,7 +28466,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="X53" t="s">
         <v>488</v>
@@ -27884,7 +28474,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="X54" t="s">
         <v>132</v>
@@ -27892,7 +28482,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X55" t="s">
         <v>347</v>
@@ -27900,7 +28490,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X56" t="s">
         <v>481</v>
@@ -27908,7 +28498,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="X57" t="s">
         <v>133</v>
@@ -27916,7 +28506,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="X58" t="s">
         <v>134</v>
@@ -27924,7 +28514,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="X59" t="s">
         <v>135</v>
@@ -27932,7 +28522,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="X60" t="s">
         <v>136</v>
@@ -27940,7 +28530,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X61" t="s">
         <v>137</v>
@@ -27948,7 +28538,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="X62" t="s">
         <v>138</v>
@@ -27956,7 +28546,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X63" t="s">
         <v>139</v>
@@ -27964,7 +28554,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="X64" t="s">
         <v>458</v>
@@ -27972,7 +28562,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="X65" t="s">
         <v>498</v>
@@ -27980,7 +28570,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="X66" t="s">
         <v>215</v>
@@ -27988,7 +28578,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="X67" t="s">
         <v>390</v>
@@ -27996,7 +28586,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="X68" t="s">
         <v>463</v>
@@ -28004,7 +28594,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>411</v>
+        <v>315</v>
       </c>
       <c r="X69" t="s">
         <v>140</v>
@@ -28012,7 +28602,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>305</v>
+        <v>411</v>
       </c>
       <c r="X70" t="s">
         <v>141</v>
@@ -28020,7 +28610,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>412</v>
+        <v>305</v>
       </c>
       <c r="X71" t="s">
         <v>142</v>
@@ -28028,7 +28618,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>263</v>
+        <v>412</v>
       </c>
       <c r="X72" t="s">
         <v>143</v>
@@ -28036,7 +28626,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="X73" t="s">
         <v>198</v>
@@ -28044,7 +28634,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>281</v>
+        <v>533</v>
       </c>
       <c r="X74" t="s">
         <v>199</v>
@@ -28052,7 +28642,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="X75" t="s">
         <v>476</v>
@@ -28060,7 +28650,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="X76" t="s">
         <v>492</v>
@@ -28068,7 +28658,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>435</v>
+        <v>287</v>
       </c>
       <c r="X77" t="s">
         <v>144</v>
@@ -28076,7 +28666,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="X78" t="s">
         <v>145</v>
@@ -28084,7 +28674,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>271</v>
+        <v>435</v>
       </c>
       <c r="X79" t="s">
         <v>146</v>
@@ -28092,7 +28682,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="X80" t="s">
         <v>520</v>
@@ -28100,7 +28690,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="X81" t="s">
         <v>147</v>
@@ -28108,7 +28698,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="X82" t="s">
         <v>148</v>
@@ -28116,7 +28706,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="X83" t="s">
         <v>200</v>
@@ -28124,7 +28714,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="X84" t="s">
         <v>509</v>
@@ -28132,7 +28722,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X85" t="s">
         <v>201</v>
@@ -28140,7 +28730,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="X86" t="s">
         <v>475</v>
@@ -28148,7 +28738,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="X87" t="s">
         <v>202</v>
@@ -28156,7 +28746,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="X88" t="s">
         <v>203</v>
@@ -28164,7 +28754,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="X89" t="s">
         <v>216</v>
@@ -28172,7 +28762,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="X90" t="s">
         <v>149</v>
@@ -28180,7 +28770,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="X91" t="s">
         <v>204</v>
@@ -28188,18 +28778,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="X92" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>278</v>
+      </c>
       <c r="X93" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>279</v>
+      </c>
       <c r="X94" t="s">
         <v>205</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20822" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21342" uniqueCount="536">
   <si>
     <t>description</t>
   </si>
@@ -1667,6 +1667,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1680,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="675" x14ac:knownFonts="1">
+  <fonts count="691" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5926,8 +5932,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1165">
+  <fills count="1195">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12525,8 +12632,178 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1207">
+  <borders count="1235">
     <border>
       <left/>
       <right/>
@@ -12563,6 +12840,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -24697,7 +25256,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="701">
+  <cellXfs count="717">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26770,52 +27329,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="658" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="659" fillId="1140" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="660" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1186" fillId="1140" fontId="659" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="660" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="661" fillId="1143" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1143" fontId="661" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="662" fillId="1146" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1146" fontId="662" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="663" fillId="1149" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1149" fontId="663" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="664" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="664" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="665" fillId="1152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1152" fontId="665" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="666" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="667" fillId="1155" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="668" fillId="1158" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="669" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="670" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="671" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="672" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="673" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="674" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="666" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1155" fontId="667" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1202" fillId="1158" fontId="668" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1161" fontId="669" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1161" fontId="670" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1149" fontId="671" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1164" fontId="672" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1149" fontId="673" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="674" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="1167" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="1170" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="1173" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="1176" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="1182" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="1185" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="1188" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="1188" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="1191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="1194" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27140,7 +27747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -28832,126 +29439,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>150</v>
+        <v>534</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>151</v>
+        <v>535</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>464</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>165</v>
+        <v>464</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -29,28 +29,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21342" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21870" uniqueCount="543">
   <si>
     <t>description</t>
   </si>
@@ -1673,6 +1674,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1680,7 +1702,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="691" x14ac:knownFonts="1">
+  <fonts count="707" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6033,8 +6055,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1195">
+  <fills count="1225">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12802,8 +12925,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1235">
+  <borders count="1263">
     <border>
       <left/>
       <right/>
@@ -12840,6 +13133,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -25256,7 +25831,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="717">
+  <cellXfs count="733">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27377,52 +27952,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="674" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="675" fillId="1167" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1167" fontId="675" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="676" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="677" fillId="1170" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1218" fillId="1170" fontId="677" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="678" fillId="1173" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1173" fontId="678" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="679" fillId="1176" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1176" fontId="679" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="680" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="680" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="681" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1179" fontId="681" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="683" fillId="1182" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="684" fillId="1185" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="685" fillId="1188" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="686" fillId="1188" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="687" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="688" fillId="1191" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="689" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="690" fillId="1194" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="682" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1226" fillId="1182" fontId="683" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1230" fillId="1185" fontId="684" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1188" fontId="685" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1188" fontId="686" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="687" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1191" fontId="688" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="689" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1194" fontId="690" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="1197" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="1200" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="1203" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="1206" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="1209" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="1212" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="1215" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="1218" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="1218" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="1206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="1221" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="1206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="1224" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27747,7 +28370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -27799,51 +28422,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>536</v>
+      </c>
+      <c r="O1" t="s">
         <v>501</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>197</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>240</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>397</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>430</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>431</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>358</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>398</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>432</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -27888,51 +28514,54 @@
         <v>436</v>
       </c>
       <c r="N2" t="s">
+        <v>537</v>
+      </c>
+      <c r="O2" t="s">
         <v>504</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>437</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>438</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>254</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>218</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>399</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>442</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>443</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>382</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>408</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>177</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>451</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>515</v>
       </c>
     </row>
@@ -27977,45 +28606,48 @@
         <v>87</v>
       </c>
       <c r="N3" t="s">
+        <v>538</v>
+      </c>
+      <c r="O3" t="s">
         <v>505</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>439</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>241</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>219</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>400</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>444</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>383</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>409</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>173</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>178</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>365</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>185</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -28057,45 +28689,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>539</v>
+      </c>
+      <c r="O4" t="s">
         <v>506</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>242</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>220</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>401</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>445</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>359</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>410</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>355</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>174</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>179</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>185</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>452</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -28130,40 +28765,43 @@
       <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>243</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>221</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>402</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>446</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>356</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>175</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>180</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>186</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>453</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -28195,37 +28833,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>244</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>392</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>403</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>100</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>465</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>181</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>187</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>454</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -28251,37 +28892,40 @@
       <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>245</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>441</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>404</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>466</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>182</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>188</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>455</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -28307,34 +28951,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>246</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>405</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>176</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>183</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>189</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>456</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -28360,25 +29004,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>247</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>406</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>235</v>
       </c>
     </row>
@@ -28401,22 +29045,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>440</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>248</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>407</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>499</v>
       </c>
     </row>
@@ -28439,19 +29083,19 @@
       <c r="M11" t="s">
         <v>496</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>516</v>
       </c>
     </row>
@@ -28474,19 +29118,19 @@
       <c r="M12" t="s">
         <v>461</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>517</v>
       </c>
     </row>
@@ -28509,25 +29153,25 @@
       <c r="M13" t="s">
         <v>497</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>95</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>501</v>
+        <v>536</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -28544,25 +29188,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>501</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -28576,25 +29220,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>524</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
         <v>386</v>
@@ -28608,25 +29252,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>525</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>387</v>
@@ -28637,19 +29281,19 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>526</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>486</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
         <v>433</v>
@@ -28660,16 +29304,16 @@
       <c r="K18" t="s">
         <v>478</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>397</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -28680,16 +29324,16 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
@@ -28700,16 +29344,16 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E21" t="s">
         <v>257</v>
@@ -28720,16 +29364,16 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -28740,13 +29384,13 @@
       <c r="K22" t="s">
         <v>495</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="E23" t="s">
         <v>322</v>
@@ -28757,13 +29401,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
@@ -28774,13 +29418,13 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>470</v>
@@ -28791,13 +29435,13 @@
       <c r="K25" t="s">
         <v>86</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>226</v>
@@ -28808,13 +29452,13 @@
       <c r="K26" t="s">
         <v>460</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>227</v>
@@ -28825,13 +29469,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>432</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>493</v>
@@ -28842,13 +29486,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>432</v>
       </c>
       <c r="E29" t="s">
         <v>494</v>
@@ -28856,18 +29500,21 @@
       <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
       <c r="E30" t="s">
         <v>434</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -28878,7 +29525,7 @@
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -28889,7 +29536,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -28900,7 +29547,7 @@
       <c r="G33" t="s">
         <v>532</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -28911,7 +29558,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -28922,7 +29569,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -28933,7 +29580,7 @@
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -28944,7 +29591,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -28955,7 +29602,7 @@
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>447</v>
       </c>
     </row>
@@ -28963,7 +29610,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>394</v>
       </c>
     </row>
@@ -28971,7 +29618,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -28979,7 +29626,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>124</v>
       </c>
     </row>
@@ -28987,7 +29634,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>125</v>
       </c>
     </row>
@@ -28995,7 +29642,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -29003,7 +29650,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>127</v>
       </c>
     </row>
@@ -29011,7 +29658,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>128</v>
       </c>
     </row>
@@ -29019,7 +29666,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>462</v>
       </c>
     </row>
@@ -29027,7 +29674,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>214</v>
       </c>
     </row>
@@ -29035,7 +29682,7 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>78</v>
       </c>
     </row>
@@ -29043,7 +29690,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>129</v>
       </c>
     </row>
@@ -29051,7 +29698,7 @@
       <c r="G50" t="s">
         <v>369</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -29059,7 +29706,7 @@
       <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>131</v>
       </c>
     </row>
@@ -29067,7 +29714,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>508</v>
       </c>
     </row>
@@ -29075,7 +29722,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>488</v>
       </c>
     </row>
@@ -29083,7 +29730,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>132</v>
       </c>
     </row>
@@ -29091,7 +29738,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>347</v>
       </c>
     </row>
@@ -29099,7 +29746,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>481</v>
       </c>
     </row>
@@ -29107,7 +29754,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>133</v>
       </c>
     </row>
@@ -29115,7 +29762,7 @@
       <c r="G58" t="s">
         <v>304</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>134</v>
       </c>
     </row>
@@ -29123,7 +29770,7 @@
       <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -29131,7 +29778,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>136</v>
       </c>
     </row>
@@ -29139,7 +29786,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>137</v>
       </c>
     </row>
@@ -29147,7 +29794,7 @@
       <c r="G62" t="s">
         <v>311</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>138</v>
       </c>
     </row>
@@ -29155,7 +29802,7 @@
       <c r="G63" t="s">
         <v>370</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>139</v>
       </c>
     </row>
@@ -29163,7 +29810,7 @@
       <c r="G64" t="s">
         <v>371</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>458</v>
       </c>
     </row>
@@ -29171,7 +29818,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>498</v>
       </c>
     </row>
@@ -29179,7 +29826,7 @@
       <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>215</v>
       </c>
     </row>
@@ -29187,7 +29834,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>390</v>
       </c>
     </row>
@@ -29195,7 +29842,7 @@
       <c r="G68" t="s">
         <v>354</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>463</v>
       </c>
     </row>
@@ -29203,7 +29850,7 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>140</v>
       </c>
     </row>
@@ -29211,7 +29858,7 @@
       <c r="G70" t="s">
         <v>411</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>141</v>
       </c>
     </row>
@@ -29219,7 +29866,7 @@
       <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>142</v>
       </c>
     </row>
@@ -29227,7 +29874,7 @@
       <c r="G72" t="s">
         <v>412</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>143</v>
       </c>
     </row>
@@ -29235,7 +29882,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>198</v>
       </c>
     </row>
@@ -29243,7 +29890,7 @@
       <c r="G74" t="s">
         <v>533</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>199</v>
       </c>
     </row>
@@ -29251,7 +29898,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>476</v>
       </c>
     </row>
@@ -29259,7 +29906,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>492</v>
       </c>
     </row>
@@ -29267,7 +29914,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>144</v>
       </c>
     </row>
@@ -29275,7 +29922,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>145</v>
       </c>
     </row>
@@ -29283,7 +29930,7 @@
       <c r="G79" t="s">
         <v>435</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>146</v>
       </c>
     </row>
@@ -29291,7 +29938,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>520</v>
       </c>
     </row>
@@ -29299,7 +29946,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>147</v>
       </c>
     </row>
@@ -29307,7 +29954,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>148</v>
       </c>
     </row>
@@ -29315,7 +29962,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>200</v>
       </c>
     </row>
@@ -29323,7 +29970,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>509</v>
       </c>
     </row>
@@ -29331,7 +29978,7 @@
       <c r="G85" t="s">
         <v>272</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>201</v>
       </c>
     </row>
@@ -29339,7 +29986,7 @@
       <c r="G86" t="s">
         <v>289</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>475</v>
       </c>
     </row>
@@ -29347,7 +29994,7 @@
       <c r="G87" t="s">
         <v>273</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>202</v>
       </c>
     </row>
@@ -29355,7 +30002,7 @@
       <c r="G88" t="s">
         <v>274</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>203</v>
       </c>
     </row>
@@ -29363,7 +30010,7 @@
       <c r="G89" t="s">
         <v>306</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>216</v>
       </c>
     </row>
@@ -29371,7 +30018,7 @@
       <c r="G90" t="s">
         <v>312</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>149</v>
       </c>
     </row>
@@ -29379,7 +30026,7 @@
       <c r="G91" t="s">
         <v>296</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>204</v>
       </c>
     </row>
@@ -29387,7 +30034,7 @@
       <c r="G92" t="s">
         <v>341</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>449</v>
       </c>
     </row>
@@ -29395,7 +30042,7 @@
       <c r="G93" t="s">
         <v>278</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>457</v>
       </c>
     </row>
@@ -29403,172 +30050,172 @@
       <c r="G94" t="s">
         <v>279</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -51,7 +51,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21870" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22933" uniqueCount="547">
   <si>
     <t>description</t>
   </si>
@@ -1695,6 +1695,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1702,7 +1714,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="707" x14ac:knownFonts="1">
+  <fonts count="739" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6156,8 +6168,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1225">
+  <fills count="1285">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13095,8 +13309,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1263">
+  <borders count="1319">
     <border>
       <left/>
       <right/>
@@ -13133,6 +13687,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -25831,7 +26949,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="733">
+  <cellXfs count="765">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28000,52 +29118,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1194" fontId="690" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="691" fillId="1197" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1242" fillId="1197" fontId="691" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="692" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="693" fillId="1200" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1200" fontId="693" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="694" fillId="1203" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1203" fontId="694" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="695" fillId="1206" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1206" fontId="695" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="696" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="696" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="697" fillId="1209" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1209" fontId="697" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="698" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="699" fillId="1212" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="700" fillId="1215" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="701" fillId="1218" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="702" fillId="1218" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="703" fillId="1206" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="704" fillId="1221" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="705" fillId="1206" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="706" fillId="1224" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="698" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1212" fontId="699" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1258" fillId="1215" fontId="700" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1218" fontId="701" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1218" fontId="702" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1206" fontId="703" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1221" fontId="704" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1206" fontId="705" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1224" fontId="706" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1270" fillId="1227" fontId="707" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="708" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1230" fontId="709" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1233" fontId="710" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1236" fontId="711" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="712" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1239" fontId="713" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="714" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1282" fillId="1242" fontId="715" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1286" fillId="1245" fontId="716" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1248" fontId="717" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1248" fontId="718" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1236" fontId="719" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1251" fontId="720" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1236" fontId="721" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1254" fontId="722" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="1257" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="1260" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="1263" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="1266" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="1272" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="1275" borderId="1314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="1278" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="1278" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="1266" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="1281" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="1266" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="1284" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28766,7 +29980,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -28834,7 +30048,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -28893,7 +30107,7 @@
         <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -28951,6 +30165,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>540</v>
+      </c>
       <c r="Q8" t="s">
         <v>92</v>
       </c>
@@ -29004,6 +30221,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>541</v>
+      </c>
       <c r="Q9" t="s">
         <v>93</v>
       </c>
@@ -29045,6 +30265,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>542</v>
+      </c>
       <c r="Q10" t="s">
         <v>440</v>
       </c>
@@ -29433,7 +30656,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>546</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>
@@ -29450,7 +30673,7 @@
         <v>283</v>
       </c>
       <c r="K26" t="s">
-        <v>460</v>
+        <v>86</v>
       </c>
       <c r="Y26" t="s">
         <v>114</v>
@@ -29467,7 +30690,7 @@
         <v>267</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="Y27" t="s">
         <v>115</v>
@@ -29484,7 +30707,7 @@
         <v>284</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s">
         <v>328</v>
@@ -29499,6 +30722,9 @@
       </c>
       <c r="G29" t="s">
         <v>285</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
       </c>
       <c r="Y29" t="s">
         <v>116</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -50,8 +50,8 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22933" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23468" uniqueCount="551">
   <si>
     <t>description</t>
   </si>
@@ -1707,6 +1707,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1726,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="739" x14ac:knownFonts="1">
+  <fonts count="755" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6370,8 +6382,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1285">
+  <fills count="1315">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13649,8 +13762,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1319">
+  <borders count="1347">
     <border>
       <left/>
       <right/>
@@ -13687,6 +13970,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -26949,7 +27514,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="765">
+  <cellXfs count="781">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29214,52 +29779,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1254" fontId="722" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="723" fillId="1257" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="724" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1298" fillId="1257" fontId="723" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="724" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="725" fillId="1260" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1260" fontId="725" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="726" fillId="1263" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1306" fillId="1263" fontId="726" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="727" fillId="1266" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1306" fillId="1266" fontId="727" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="728" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="728" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="729" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1269" fontId="729" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="730" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="731" fillId="1272" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="732" fillId="1275" borderId="1314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="733" fillId="1278" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="734" fillId="1278" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="735" fillId="1266" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="736" fillId="1281" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="737" fillId="1266" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="738" fillId="1284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="730" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1310" fillId="1272" fontId="731" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1314" fillId="1275" fontId="732" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1278" fontId="733" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1278" fontId="734" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1266" fontId="735" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1281" fontId="736" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1266" fontId="737" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="738" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="1287" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="1290" borderId="1330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="1293" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="1296" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="1299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="1302" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="1305" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="1308" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="1308" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="1296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="1311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="1296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="1314" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29790,7 +30403,7 @@
         <v>484</v>
       </c>
       <c r="D3" t="s">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="E3" t="s">
         <v>479</v>
@@ -29873,7 +30486,7 @@
         <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -29956,7 +30569,7 @@
         <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E5" t="s">
         <v>480</v>
@@ -29980,7 +30593,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -30026,6 +30639,9 @@
       <c r="B6" t="s">
         <v>377</v>
       </c>
+      <c r="D6" t="s">
+        <v>514</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -30048,7 +30664,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -30107,7 +30723,7 @@
         <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -30166,7 +30782,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="Q8" t="s">
         <v>92</v>
@@ -30222,7 +30838,7 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="Q9" t="s">
         <v>93</v>
@@ -30266,7 +30882,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Q10" t="s">
         <v>440</v>
@@ -30306,6 +30922,9 @@
       <c r="M11" t="s">
         <v>496</v>
       </c>
+      <c r="N11" t="s">
+        <v>541</v>
+      </c>
       <c r="Q11" t="s">
         <v>94</v>
       </c>
@@ -30341,6 +30960,9 @@
       <c r="M12" t="s">
         <v>461</v>
       </c>
+      <c r="N12" t="s">
+        <v>542</v>
+      </c>
       <c r="Q12" t="s">
         <v>41</v>
       </c>
@@ -30656,7 +31278,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -24,7 +24,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23468" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24005" uniqueCount="553">
   <si>
     <t>description</t>
   </si>
@@ -1719,6 +1719,12 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1732,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="755" x14ac:knownFonts="1">
+  <fonts count="771" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6483,8 +6489,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1315">
+  <fills count="1345">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13932,8 +14039,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1347">
+  <borders count="1375">
     <border>
       <left/>
       <right/>
@@ -13970,6 +14247,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -27514,7 +28073,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="781">
+  <cellXfs count="797">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29827,52 +30386,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="738" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="739" fillId="1287" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="740" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1326" fillId="1287" fontId="739" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="740" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="741" fillId="1290" borderId="1330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1330" fillId="1290" fontId="741" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="742" fillId="1293" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1334" fillId="1293" fontId="742" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="743" fillId="1296" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1334" fillId="1296" fontId="743" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="744" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="744" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="745" fillId="1299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1299" fontId="745" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="746" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="747" fillId="1302" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="748" fillId="1305" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="749" fillId="1308" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="750" fillId="1308" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="751" fillId="1296" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="752" fillId="1311" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="753" fillId="1296" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="754" fillId="1314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="746" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1338" fillId="1302" fontId="747" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1342" fillId="1305" fontId="748" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1346" fillId="1308" fontId="749" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1346" fillId="1308" fontId="750" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1296" fontId="751" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1311" fontId="752" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1296" fontId="753" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1314" fontId="754" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="1317" borderId="1354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="756" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="1320" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="1323" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="1326" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="1329" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="1332" borderId="1366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="1335" borderId="1370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="1338" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="1338" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="1326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="1341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="1326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="1344" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30197,7 +30804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -30583,6 +31190,9 @@
       <c r="H5" t="s">
         <v>477</v>
       </c>
+      <c r="I5" t="s">
+        <v>551</v>
+      </c>
       <c r="J5" t="s">
         <v>352</v>
       </c>
@@ -31459,7 +32069,7 @@
         <v>268</v>
       </c>
       <c r="Y39" t="s">
-        <v>394</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40">
@@ -31467,7 +32077,7 @@
         <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>123</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41">
@@ -31475,7 +32085,7 @@
         <v>213</v>
       </c>
       <c r="Y41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
@@ -31483,7 +32093,7 @@
         <v>290</v>
       </c>
       <c r="Y42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -31491,7 +32101,7 @@
         <v>301</v>
       </c>
       <c r="Y43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
@@ -31499,7 +32109,7 @@
         <v>302</v>
       </c>
       <c r="Y44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -31507,7 +32117,7 @@
         <v>344</v>
       </c>
       <c r="Y45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
@@ -31515,7 +32125,7 @@
         <v>343</v>
       </c>
       <c r="Y46" t="s">
-        <v>462</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
@@ -31523,7 +32133,7 @@
         <v>212</v>
       </c>
       <c r="Y47" t="s">
-        <v>214</v>
+        <v>462</v>
       </c>
     </row>
     <row r="48">
@@ -31531,7 +32141,7 @@
         <v>321</v>
       </c>
       <c r="Y48" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49">
@@ -31539,7 +32149,7 @@
         <v>340</v>
       </c>
       <c r="Y49" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -31547,7 +32157,7 @@
         <v>369</v>
       </c>
       <c r="Y50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -31555,7 +32165,7 @@
         <v>303</v>
       </c>
       <c r="Y51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -31563,7 +32173,7 @@
         <v>357</v>
       </c>
       <c r="Y52" t="s">
-        <v>508</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
@@ -31571,7 +32181,7 @@
         <v>332</v>
       </c>
       <c r="Y53" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
     </row>
     <row r="54">
@@ -31579,7 +32189,7 @@
         <v>269</v>
       </c>
       <c r="Y54" t="s">
-        <v>132</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55">
@@ -31587,7 +32197,7 @@
         <v>293</v>
       </c>
       <c r="Y55" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56">
@@ -31595,7 +32205,7 @@
         <v>294</v>
       </c>
       <c r="Y56" t="s">
-        <v>481</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57">
@@ -31603,7 +32213,7 @@
         <v>295</v>
       </c>
       <c r="Y57" t="s">
-        <v>133</v>
+        <v>481</v>
       </c>
     </row>
     <row r="58">
@@ -31611,7 +32221,7 @@
         <v>304</v>
       </c>
       <c r="Y58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59">
@@ -31619,7 +32229,7 @@
         <v>313</v>
       </c>
       <c r="Y59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60">
@@ -31627,7 +32237,7 @@
         <v>338</v>
       </c>
       <c r="Y60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
@@ -31635,7 +32245,7 @@
         <v>310</v>
       </c>
       <c r="Y61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62">
@@ -31643,7 +32253,7 @@
         <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63">
@@ -31651,7 +32261,7 @@
         <v>370</v>
       </c>
       <c r="Y63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
@@ -31659,7 +32269,7 @@
         <v>371</v>
       </c>
       <c r="Y64" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -31667,7 +32277,7 @@
         <v>346</v>
       </c>
       <c r="Y65" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66">
@@ -31675,7 +32285,7 @@
         <v>314</v>
       </c>
       <c r="Y66" t="s">
-        <v>215</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67">
@@ -31683,7 +32293,7 @@
         <v>270</v>
       </c>
       <c r="Y67" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68">
@@ -31691,7 +32301,7 @@
         <v>354</v>
       </c>
       <c r="Y68" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69">
@@ -31699,7 +32309,7 @@
         <v>315</v>
       </c>
       <c r="Y69" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="70">
@@ -31707,7 +32317,7 @@
         <v>411</v>
       </c>
       <c r="Y70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71">
@@ -31715,7 +32325,7 @@
         <v>305</v>
       </c>
       <c r="Y71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72">
@@ -31723,7 +32333,7 @@
         <v>412</v>
       </c>
       <c r="Y72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
@@ -31731,7 +32341,7 @@
         <v>263</v>
       </c>
       <c r="Y73" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
@@ -31739,7 +32349,7 @@
         <v>533</v>
       </c>
       <c r="Y74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75">
@@ -31747,7 +32357,7 @@
         <v>345</v>
       </c>
       <c r="Y75" t="s">
-        <v>476</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76">
@@ -31755,7 +32365,7 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77">
@@ -31763,7 +32373,7 @@
         <v>287</v>
       </c>
       <c r="Y77" t="s">
-        <v>144</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78">
@@ -31771,7 +32381,7 @@
         <v>292</v>
       </c>
       <c r="Y78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79">
@@ -31779,7 +32389,7 @@
         <v>435</v>
       </c>
       <c r="Y79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80">
@@ -31787,7 +32397,7 @@
         <v>333</v>
       </c>
       <c r="Y80" t="s">
-        <v>520</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81">
@@ -31795,7 +32405,7 @@
         <v>271</v>
       </c>
       <c r="Y81" t="s">
-        <v>147</v>
+        <v>520</v>
       </c>
     </row>
     <row r="82">
@@ -31803,7 +32413,7 @@
         <v>282</v>
       </c>
       <c r="Y82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
@@ -31811,7 +32421,7 @@
         <v>288</v>
       </c>
       <c r="Y83" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84">
@@ -31819,7 +32429,7 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>509</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85">
@@ -31827,7 +32437,7 @@
         <v>272</v>
       </c>
       <c r="Y85" t="s">
-        <v>201</v>
+        <v>509</v>
       </c>
     </row>
     <row r="86">
@@ -31835,7 +32445,7 @@
         <v>289</v>
       </c>
       <c r="Y86" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87">
@@ -31843,7 +32453,7 @@
         <v>273</v>
       </c>
       <c r="Y87" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88">
@@ -31851,7 +32461,7 @@
         <v>274</v>
       </c>
       <c r="Y88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
@@ -31859,7 +32469,7 @@
         <v>306</v>
       </c>
       <c r="Y89" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90">
@@ -31867,7 +32477,7 @@
         <v>312</v>
       </c>
       <c r="Y90" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91">
@@ -31875,7 +32485,7 @@
         <v>296</v>
       </c>
       <c r="Y91" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92">
@@ -31883,7 +32493,7 @@
         <v>341</v>
       </c>
       <c r="Y92" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93">
@@ -31891,7 +32501,7 @@
         <v>278</v>
       </c>
       <c r="Y93" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94">
@@ -31899,171 +32509,176 @@
         <v>279</v>
       </c>
       <c r="Y94" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>531</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>150</v>
+        <v>534</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>535</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>384</v>
+        <v>535</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -22,13 +22,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24005" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24552" uniqueCount="564">
   <si>
     <t>description</t>
   </si>
@@ -1725,6 +1725,39 @@
   </si>
   <si>
     <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1765,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="771" x14ac:knownFonts="1">
+  <fonts count="787" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6590,8 +6623,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1345">
+  <fills count="1372">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14209,8 +14343,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1375">
+  <borders count="1407">
     <border>
       <left/>
       <right/>
@@ -27888,6 +28175,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -28073,7 +28686,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="797">
+  <cellXfs count="813">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -30434,52 +31047,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1314" fontId="754" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="755" fillId="1317" borderId="1354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="756" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1354" fillId="1317" fontId="755" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="756" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="757" fillId="1320" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1358" fillId="1320" fontId="757" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="758" fillId="1323" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1362" fillId="1323" fontId="758" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="759" fillId="1326" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1362" fillId="1326" fontId="759" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="760" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="760" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="761" fillId="1329" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1329" fontId="761" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="762" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="763" fillId="1332" borderId="1366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="764" fillId="1335" borderId="1370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="765" fillId="1338" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="766" fillId="1338" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="767" fillId="1326" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="768" fillId="1341" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="769" fillId="1326" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="770" fillId="1344" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="762" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1366" fillId="1332" fontId="763" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1370" fillId="1335" fontId="764" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1338" fontId="765" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1338" fontId="766" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1326" fontId="767" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1341" fontId="768" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1326" fontId="769" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1344" fontId="770" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="1347" borderId="1382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="1350" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="1353" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="1356" borderId="1394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="1359" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="1362" borderId="1398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="1353" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="1365" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="1365" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="1356" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="1368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="1356" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="1371" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30804,7 +31465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -31326,6 +31987,9 @@
       <c r="H7" t="s">
         <v>468</v>
       </c>
+      <c r="J7" t="s">
+        <v>555</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -31366,7 +32030,7 @@
         <v>455</v>
       </c>
       <c r="AD7" t="s">
-        <v>233</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8">
@@ -31422,7 +32086,7 @@
         <v>456</v>
       </c>
       <c r="AD8" t="s">
-        <v>234</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9">
@@ -31469,7 +32133,7 @@
         <v>190</v>
       </c>
       <c r="AD9" t="s">
-        <v>235</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10">
@@ -31510,7 +32174,7 @@
         <v>191</v>
       </c>
       <c r="AD10" t="s">
-        <v>499</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
@@ -31548,7 +32212,7 @@
         <v>260</v>
       </c>
       <c r="AD11" t="s">
-        <v>516</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -31568,7 +32232,7 @@
         <v>391</v>
       </c>
       <c r="M12" t="s">
-        <v>461</v>
+        <v>556</v>
       </c>
       <c r="N12" t="s">
         <v>542</v>
@@ -31586,7 +32250,7 @@
         <v>192</v>
       </c>
       <c r="AD12" t="s">
-        <v>517</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
@@ -31606,7 +32270,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="Q13" t="s">
         <v>95</v>
@@ -31621,7 +32285,7 @@
         <v>193</v>
       </c>
       <c r="AD13" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14">
@@ -31641,7 +32305,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>497</v>
       </c>
       <c r="Q14" t="s">
         <v>96</v>
@@ -31656,7 +32320,7 @@
         <v>194</v>
       </c>
       <c r="AD14" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15">
@@ -31673,7 +32337,7 @@
         <v>530</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>524</v>
@@ -31688,7 +32352,7 @@
         <v>195</v>
       </c>
       <c r="AD15" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16">
@@ -31705,7 +32369,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="s">
         <v>525</v>
@@ -31720,7 +32384,7 @@
         <v>196</v>
       </c>
       <c r="AD16" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17">
@@ -31736,6 +32400,9 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
       <c r="Y17" t="s">
         <v>526</v>
       </c>
@@ -31743,7 +32410,7 @@
         <v>486</v>
       </c>
       <c r="AD17" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18">
@@ -31763,7 +32430,7 @@
         <v>106</v>
       </c>
       <c r="AD18" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19">
@@ -31783,7 +32450,7 @@
         <v>107</v>
       </c>
       <c r="AD19" t="s">
-        <v>236</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20">
@@ -31803,7 +32470,7 @@
         <v>108</v>
       </c>
       <c r="AD20" t="s">
-        <v>237</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21">
@@ -31823,7 +32490,7 @@
         <v>109</v>
       </c>
       <c r="AD21" t="s">
-        <v>238</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22">
@@ -31842,6 +32509,9 @@
       <c r="Y22" t="s">
         <v>507</v>
       </c>
+      <c r="AD22" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -31859,6 +32529,9 @@
       <c r="Y23" t="s">
         <v>111</v>
       </c>
+      <c r="AD23" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -31876,6 +32549,9 @@
       <c r="Y24" t="s">
         <v>112</v>
       </c>
+      <c r="AD24" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -31893,6 +32569,9 @@
       <c r="Y25" t="s">
         <v>113</v>
       </c>
+      <c r="AD25" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -31910,6 +32589,9 @@
       <c r="Y26" t="s">
         <v>114</v>
       </c>
+      <c r="AD26" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -31927,6 +32609,9 @@
       <c r="Y27" t="s">
         <v>115</v>
       </c>
+      <c r="AD27" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -32157,7 +32842,7 @@
         <v>369</v>
       </c>
       <c r="Y50" t="s">
-        <v>129</v>
+        <v>557</v>
       </c>
     </row>
     <row r="51">
@@ -32165,7 +32850,7 @@
         <v>303</v>
       </c>
       <c r="Y51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
@@ -32173,7 +32858,7 @@
         <v>357</v>
       </c>
       <c r="Y52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
@@ -32181,7 +32866,7 @@
         <v>332</v>
       </c>
       <c r="Y53" t="s">
-        <v>508</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
@@ -32189,7 +32874,7 @@
         <v>269</v>
       </c>
       <c r="Y54" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55">
@@ -32197,7 +32882,7 @@
         <v>293</v>
       </c>
       <c r="Y55" t="s">
-        <v>132</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56">
@@ -32205,7 +32890,7 @@
         <v>294</v>
       </c>
       <c r="Y56" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57">
@@ -32213,7 +32898,7 @@
         <v>295</v>
       </c>
       <c r="Y57" t="s">
-        <v>481</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58">
@@ -32221,7 +32906,7 @@
         <v>304</v>
       </c>
       <c r="Y58" t="s">
-        <v>133</v>
+        <v>481</v>
       </c>
     </row>
     <row r="59">
@@ -32229,7 +32914,7 @@
         <v>313</v>
       </c>
       <c r="Y59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60">
@@ -32237,7 +32922,7 @@
         <v>338</v>
       </c>
       <c r="Y60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61">
@@ -32245,7 +32930,7 @@
         <v>310</v>
       </c>
       <c r="Y61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
@@ -32253,7 +32938,7 @@
         <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
@@ -32261,7 +32946,7 @@
         <v>370</v>
       </c>
       <c r="Y63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
@@ -32269,7 +32954,7 @@
         <v>371</v>
       </c>
       <c r="Y64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -32277,7 +32962,7 @@
         <v>346</v>
       </c>
       <c r="Y65" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -32285,7 +32970,7 @@
         <v>314</v>
       </c>
       <c r="Y66" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
     </row>
     <row r="67">
@@ -32293,15 +32978,15 @@
         <v>270</v>
       </c>
       <c r="Y67" t="s">
-        <v>215</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>354</v>
+        <v>553</v>
       </c>
       <c r="Y68" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69">
@@ -32309,7 +32994,7 @@
         <v>315</v>
       </c>
       <c r="Y69" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70">
@@ -32317,7 +33002,7 @@
         <v>411</v>
       </c>
       <c r="Y70" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71">
@@ -32325,7 +33010,7 @@
         <v>305</v>
       </c>
       <c r="Y71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72">
@@ -32333,7 +33018,7 @@
         <v>412</v>
       </c>
       <c r="Y72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73">
@@ -32341,7 +33026,7 @@
         <v>263</v>
       </c>
       <c r="Y73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74">
@@ -32349,7 +33034,7 @@
         <v>533</v>
       </c>
       <c r="Y74" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75">
@@ -32357,7 +33042,7 @@
         <v>345</v>
       </c>
       <c r="Y75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76">
@@ -32365,7 +33050,7 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s">
-        <v>476</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77">
@@ -32373,7 +33058,7 @@
         <v>287</v>
       </c>
       <c r="Y77" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78">
@@ -32381,7 +33066,7 @@
         <v>292</v>
       </c>
       <c r="Y78" t="s">
-        <v>144</v>
+        <v>492</v>
       </c>
     </row>
     <row r="79">
@@ -32389,7 +33074,7 @@
         <v>435</v>
       </c>
       <c r="Y79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80">
@@ -32397,7 +33082,7 @@
         <v>333</v>
       </c>
       <c r="Y80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81">
@@ -32405,7 +33090,7 @@
         <v>271</v>
       </c>
       <c r="Y81" t="s">
-        <v>520</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82">
@@ -32413,7 +33098,7 @@
         <v>282</v>
       </c>
       <c r="Y82" t="s">
-        <v>147</v>
+        <v>520</v>
       </c>
     </row>
     <row r="83">
@@ -32421,7 +33106,7 @@
         <v>288</v>
       </c>
       <c r="Y83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
@@ -32429,256 +33114,264 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>272</v>
+        <v>554</v>
       </c>
       <c r="Y85" t="s">
-        <v>509</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Y86" t="s">
-        <v>201</v>
+        <v>509</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="Y87" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y88" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="Y89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Y90" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="Y91" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="Y92" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="Y93" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>279</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>531</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>150</v>
+        <v>534</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>535</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>384</v>
+        <v>535</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -41,17 +41,18 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24552" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25103" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1758,6 +1759,15 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
   </si>
 </sst>
 </file>
@@ -1765,7 +1775,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="787" x14ac:knownFonts="1">
+  <fonts count="803" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6724,8 +6734,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1372">
+  <fills count="1399">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14496,8 +14607,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1407">
+  <borders count="1439">
     <border>
       <left/>
       <right/>
@@ -28175,6 +28439,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -28686,7 +29276,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="813">
+  <cellXfs count="829">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31095,52 +31685,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1344" fontId="770" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="771" fillId="1347" borderId="1382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="772" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1382" fillId="1347" fontId="771" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="772" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="773" fillId="1350" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1386" fillId="1350" fontId="773" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="774" fillId="1353" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1390" fillId="1353" fontId="774" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="775" fillId="1356" borderId="1394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1394" fillId="1356" fontId="775" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="776" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="776" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="777" fillId="1359" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1359" fontId="777" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="778" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="779" fillId="1362" borderId="1398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="780" fillId="1353" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="781" fillId="1365" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="782" fillId="1365" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="783" fillId="1356" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="784" fillId="1368" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="785" fillId="1356" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="786" fillId="1371" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="778" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1398" fillId="1362" fontId="779" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1402" fillId="1353" fontId="780" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1406" fillId="1365" fontId="781" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1406" fillId="1365" fontId="782" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1356" fontId="783" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1368" fontId="784" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1356" fontId="785" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1371" fontId="786" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="1374" borderId="1414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="1377" borderId="1418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="1380" borderId="1422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="1383" borderId="1426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="1386" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="1389" borderId="1430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="1380" borderId="1434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="1392" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="1392" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="1383" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="1395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="1383" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="802" fillId="1398" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31465,7 +32103,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -31550,21 +32188,24 @@
         <v>398</v>
       </c>
       <c r="Y1" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>432</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -31642,21 +32283,24 @@
         <v>408</v>
       </c>
       <c r="Y2" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>451</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>515</v>
       </c>
     </row>
@@ -31727,22 +32371,22 @@
       <c r="X3" t="s">
         <v>409</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>365</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -31810,22 +32454,22 @@
       <c r="X4" t="s">
         <v>410</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>355</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>452</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -31884,22 +32528,22 @@
       <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>356</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>453</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -31952,22 +32596,22 @@
       <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>465</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>454</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -32014,22 +32658,22 @@
       <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>466</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>455</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>558</v>
       </c>
     </row>
@@ -32070,22 +32714,22 @@
       <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>456</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>559</v>
       </c>
     </row>
@@ -32126,13 +32770,13 @@
       <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>560</v>
       </c>
     </row>
@@ -32167,13 +32811,13 @@
       <c r="T10" t="s">
         <v>407</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>258</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>191</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -32205,13 +32849,13 @@
       <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>259</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>260</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -32243,13 +32887,13 @@
       <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>192</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -32278,13 +32922,13 @@
       <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>327</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>193</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>499</v>
       </c>
     </row>
@@ -32313,13 +32957,13 @@
       <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>104</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>194</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>516</v>
       </c>
     </row>
@@ -32345,13 +32989,13 @@
       <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>195</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>517</v>
       </c>
     </row>
@@ -32377,13 +33021,13 @@
       <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -32403,13 +33047,13 @@
       <c r="M17" t="s">
         <v>43</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>526</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>486</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -32426,10 +33070,10 @@
       <c r="K18" t="s">
         <v>478</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>106</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>500</v>
       </c>
     </row>
@@ -32446,10 +33090,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>518</v>
       </c>
     </row>
@@ -32466,10 +33110,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>519</v>
       </c>
     </row>
@@ -32486,10 +33130,10 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>109</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>523</v>
       </c>
     </row>
@@ -32498,7 +33142,7 @@
         <v>431</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>565</v>
       </c>
       <c r="G22" t="s">
         <v>300</v>
@@ -32506,10 +33150,10 @@
       <c r="K22" t="s">
         <v>495</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>507</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -32518,7 +33162,7 @@
         <v>358</v>
       </c>
       <c r="E23" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>291</v>
@@ -32526,10 +33170,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>111</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>561</v>
       </c>
     </row>
@@ -32538,7 +33182,7 @@
         <v>398</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="G24" t="s">
         <v>280</v>
@@ -32546,19 +33190,19 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>112</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>564</v>
       </c>
       <c r="E25" t="s">
-        <v>470</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -32566,19 +33210,19 @@
       <c r="K25" t="s">
         <v>548</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>113</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>470</v>
       </c>
       <c r="G26" t="s">
         <v>283</v>
@@ -32586,19 +33230,19 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>114</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
         <v>267</v>
@@ -32606,19 +33250,19 @@
       <c r="K27" t="s">
         <v>460</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>115</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>493</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
         <v>284</v>
@@ -32626,16 +33270,16 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>432</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G29" t="s">
         <v>285</v>
@@ -32643,117 +33287,123 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>432</v>
       </c>
       <c r="E30" t="s">
-        <v>434</v>
+        <v>494</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>228</v>
+      </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>434</v>
       </c>
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
         <v>532</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>552</v>
       </c>
     </row>
@@ -32761,7 +33411,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>394</v>
       </c>
     </row>
@@ -32769,7 +33419,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -32777,7 +33427,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -32785,7 +33435,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -32793,7 +33443,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -32801,7 +33451,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -32809,7 +33459,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -32817,7 +33467,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>462</v>
       </c>
     </row>
@@ -32825,7 +33475,7 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -32833,7 +33483,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -32841,7 +33491,7 @@
       <c r="G50" t="s">
         <v>369</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>557</v>
       </c>
     </row>
@@ -32849,7 +33499,7 @@
       <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -32857,7 +33507,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -32865,7 +33515,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -32873,7 +33523,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>508</v>
       </c>
     </row>
@@ -32881,7 +33531,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>488</v>
       </c>
     </row>
@@ -32889,7 +33539,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -32897,7 +33547,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>347</v>
       </c>
     </row>
@@ -32905,7 +33555,7 @@
       <c r="G58" t="s">
         <v>304</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>481</v>
       </c>
     </row>
@@ -32913,7 +33563,7 @@
       <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -32921,7 +33571,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -32929,7 +33579,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -32937,7 +33587,7 @@
       <c r="G62" t="s">
         <v>311</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -32945,7 +33595,7 @@
       <c r="G63" t="s">
         <v>370</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -32953,7 +33603,7 @@
       <c r="G64" t="s">
         <v>371</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -32961,7 +33611,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -32969,7 +33619,7 @@
       <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>458</v>
       </c>
     </row>
@@ -32977,7 +33627,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>498</v>
       </c>
     </row>
@@ -32985,7 +33635,7 @@
       <c r="G68" t="s">
         <v>553</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -32993,7 +33643,7 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>390</v>
       </c>
     </row>
@@ -33001,7 +33651,7 @@
       <c r="G70" t="s">
         <v>411</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>463</v>
       </c>
     </row>
@@ -33009,7 +33659,7 @@
       <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -33017,7 +33667,7 @@
       <c r="G72" t="s">
         <v>412</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -33025,7 +33675,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -33033,7 +33683,7 @@
       <c r="G74" t="s">
         <v>533</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -33041,7 +33691,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -33049,7 +33699,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>199</v>
       </c>
     </row>
@@ -33057,7 +33707,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>476</v>
       </c>
     </row>
@@ -33065,7 +33715,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>492</v>
       </c>
     </row>
@@ -33073,7 +33723,7 @@
       <c r="G79" t="s">
         <v>435</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -33081,7 +33731,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -33089,7 +33739,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -33097,7 +33747,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>520</v>
       </c>
     </row>
@@ -33105,7 +33755,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -33113,7 +33763,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -33121,7 +33771,7 @@
       <c r="G85" t="s">
         <v>554</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -33129,7 +33779,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>509</v>
       </c>
     </row>
@@ -33137,7 +33787,7 @@
       <c r="G87" t="s">
         <v>289</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -33145,7 +33795,7 @@
       <c r="G88" t="s">
         <v>273</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>475</v>
       </c>
     </row>
@@ -33153,7 +33803,7 @@
       <c r="G89" t="s">
         <v>274</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -33161,7 +33811,7 @@
       <c r="G90" t="s">
         <v>306</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>203</v>
       </c>
     </row>
@@ -33169,7 +33819,7 @@
       <c r="G91" t="s">
         <v>312</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -33177,7 +33827,7 @@
       <c r="G92" t="s">
         <v>296</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -33185,7 +33835,7 @@
       <c r="G93" t="s">
         <v>341</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>204</v>
       </c>
     </row>
@@ -33193,7 +33843,7 @@
       <c r="G94" t="s">
         <v>278</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>449</v>
       </c>
     </row>
@@ -33201,177 +33851,177 @@
       <c r="G95" t="s">
         <v>279</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -22,7 +22,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25103" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25656" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1768,6 +1768,12 @@
   </si>
   <si>
     <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1781,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="803" x14ac:knownFonts="1">
+  <fonts count="819" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6835,8 +6841,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1399">
+  <fills count="1426">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14760,8 +14867,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1439">
+  <borders count="1471">
     <border>
       <left/>
       <right/>
@@ -28439,6 +28699,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -29276,7 +29862,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="829">
+  <cellXfs count="845">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31733,52 +32319,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1371" fontId="786" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="787" fillId="1374" borderId="1414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="788" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1414" fillId="1374" fontId="787" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="788" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="789" fillId="1377" borderId="1418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1418" fillId="1377" fontId="789" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="790" fillId="1380" borderId="1422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1422" fillId="1380" fontId="790" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="791" fillId="1383" borderId="1426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1426" fillId="1383" fontId="791" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="792" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="792" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="793" fillId="1386" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1386" fontId="793" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="794" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="795" fillId="1389" borderId="1430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="796" fillId="1380" borderId="1434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="797" fillId="1392" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="798" fillId="1392" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="799" fillId="1383" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="800" fillId="1395" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="801" fillId="1383" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="802" fillId="1398" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="794" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1430" fillId="1389" fontId="795" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1434" fillId="1380" fontId="796" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1438" fillId="1392" fontId="797" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1438" fillId="1392" fontId="798" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1383" fontId="799" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1395" fontId="800" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1383" fontId="801" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1398" fontId="802" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="803" fillId="1401" borderId="1446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="1404" borderId="1450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="1407" borderId="1454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="1410" borderId="1458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="809" fillId="1413" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="1416" borderId="1462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="1407" borderId="1466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="1419" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="1419" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="1425" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -33425,7 +34059,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>290</v>
+        <v>567</v>
       </c>
       <c r="Z42" t="s">
         <v>124</v>
@@ -33433,7 +34067,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Z43" t="s">
         <v>125</v>
@@ -33441,7 +34075,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z44" t="s">
         <v>126</v>
@@ -33449,7 +34083,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="Z45" t="s">
         <v>127</v>
@@ -33457,7 +34091,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z46" t="s">
         <v>128</v>
@@ -33465,7 +34099,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="Z47" t="s">
         <v>462</v>
@@ -33473,7 +34107,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="Z48" t="s">
         <v>214</v>
@@ -33481,7 +34115,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="Z49" t="s">
         <v>78</v>
@@ -33489,7 +34123,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="Z50" t="s">
         <v>557</v>
@@ -33497,7 +34131,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="Z51" t="s">
         <v>129</v>
@@ -33505,7 +34139,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="Z52" t="s">
         <v>130</v>
@@ -33513,7 +34147,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="Z53" t="s">
         <v>131</v>
@@ -33521,7 +34155,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="Z54" t="s">
         <v>508</v>
@@ -33529,7 +34163,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="Z55" t="s">
         <v>488</v>
@@ -33537,7 +34171,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z56" t="s">
         <v>132</v>
@@ -33545,7 +34179,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z57" t="s">
         <v>347</v>
@@ -33553,7 +34187,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>304</v>
+        <v>568</v>
       </c>
       <c r="Z58" t="s">
         <v>481</v>
@@ -33561,7 +34195,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="Z59" t="s">
         <v>133</v>
@@ -33569,7 +34203,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="Z60" t="s">
         <v>134</v>
@@ -33577,7 +34211,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Z61" t="s">
         <v>135</v>
@@ -33585,7 +34219,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="Z62" t="s">
         <v>136</v>
@@ -33593,7 +34227,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="Z63" t="s">
         <v>137</v>
@@ -33601,7 +34235,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="Z64" t="s">
         <v>138</v>
@@ -33609,7 +34243,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="Z65" t="s">
         <v>139</v>
@@ -33617,7 +34251,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="Z66" t="s">
         <v>458</v>
@@ -33625,7 +34259,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="Z67" t="s">
         <v>498</v>
@@ -33633,7 +34267,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>553</v>
+        <v>314</v>
       </c>
       <c r="Z68" t="s">
         <v>215</v>
@@ -33641,7 +34275,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Z69" t="s">
         <v>390</v>
@@ -33649,7 +34283,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>411</v>
+        <v>553</v>
       </c>
       <c r="Z70" t="s">
         <v>463</v>
@@ -33657,7 +34291,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="Z71" t="s">
         <v>140</v>
@@ -33665,7 +34299,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z72" t="s">
         <v>141</v>
@@ -33673,7 +34307,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="Z73" t="s">
         <v>142</v>
@@ -33681,7 +34315,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>533</v>
+        <v>412</v>
       </c>
       <c r="Z74" t="s">
         <v>143</v>
@@ -33689,7 +34323,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="Z75" t="s">
         <v>198</v>
@@ -33697,7 +34331,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>281</v>
+        <v>533</v>
       </c>
       <c r="Z76" t="s">
         <v>199</v>
@@ -33705,7 +34339,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="Z77" t="s">
         <v>476</v>
@@ -33713,7 +34347,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="Z78" t="s">
         <v>492</v>
@@ -33721,7 +34355,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>435</v>
+        <v>287</v>
       </c>
       <c r="Z79" t="s">
         <v>144</v>
@@ -33729,7 +34363,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="Z80" t="s">
         <v>145</v>
@@ -33737,7 +34371,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>271</v>
+        <v>435</v>
       </c>
       <c r="Z81" t="s">
         <v>146</v>
@@ -33745,7 +34379,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="Z82" t="s">
         <v>520</v>
@@ -33753,7 +34387,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="Z83" t="s">
         <v>147</v>
@@ -33761,7 +34395,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Z84" t="s">
         <v>148</v>
@@ -33769,7 +34403,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>554</v>
+        <v>288</v>
       </c>
       <c r="Z85" t="s">
         <v>200</v>
@@ -33777,7 +34411,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Z86" t="s">
         <v>509</v>
@@ -33785,7 +34419,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>289</v>
+        <v>554</v>
       </c>
       <c r="Z87" t="s">
         <v>201</v>
@@ -33793,7 +34427,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z88" t="s">
         <v>475</v>
@@ -33801,7 +34435,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Z89" t="s">
         <v>202</v>
@@ -33809,7 +34443,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="Z90" t="s">
         <v>203</v>
@@ -33817,7 +34451,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="Z91" t="s">
         <v>216</v>
@@ -33825,7 +34459,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="Z92" t="s">
         <v>149</v>
@@ -33833,7 +34467,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="Z93" t="s">
         <v>204</v>
@@ -33841,7 +34475,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="Z94" t="s">
         <v>449</v>
@@ -33849,18 +34483,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="Z95" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>278</v>
+      </c>
       <c r="Z96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>279</v>
+      </c>
       <c r="Z97" t="s">
         <v>206</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -41,13 +41,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25656" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26207" uniqueCount="570">
   <si>
     <t>description</t>
   </si>
@@ -1774,6 +1774,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1784,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="819" x14ac:knownFonts="1">
+  <fonts count="835" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6942,8 +6945,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1426">
+  <fills count="1453">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15020,8 +15124,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1471">
+  <borders count="1503">
     <border>
       <left/>
       <right/>
@@ -28699,6 +28956,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -29862,7 +30445,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="845">
+  <cellXfs count="861">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -32367,52 +32950,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1398" fontId="802" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="803" fillId="1401" borderId="1446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="804" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1446" fillId="1401" fontId="803" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="804" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="805" fillId="1404" borderId="1450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1450" fillId="1404" fontId="805" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="806" fillId="1407" borderId="1454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1454" fillId="1407" fontId="806" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="807" fillId="1410" borderId="1458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1458" fillId="1410" fontId="807" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="808" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="808" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="809" fillId="1413" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1413" fontId="809" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="810" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="811" fillId="1416" borderId="1462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="812" fillId="1407" borderId="1466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="813" fillId="1419" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="814" fillId="1419" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="815" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="816" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="817" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="818" fillId="1425" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="810" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1462" fillId="1416" fontId="811" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1466" fillId="1407" fontId="812" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1470" fillId="1419" fontId="813" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1470" fillId="1419" fontId="814" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1410" fontId="815" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1422" fontId="816" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1410" fontId="817" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1425" fontId="818" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="1428" borderId="1478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="821" fillId="1431" borderId="1482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="1434" borderId="1486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="1437" borderId="1490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="1440" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="1443" borderId="1494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="1434" borderId="1498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="1446" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="830" fillId="1446" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="831" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="1449" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="833" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="1452" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32737,7 +33368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -32822,24 +33453,21 @@
         <v>398</v>
       </c>
       <c r="Y1" t="s">
-        <v>564</v>
+        <v>55</v>
       </c>
       <c r="Z1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC1" t="s">
-        <v>58</v>
+        <v>432</v>
       </c>
       <c r="AD1" t="s">
-        <v>432</v>
-      </c>
-      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -32917,24 +33545,21 @@
         <v>408</v>
       </c>
       <c r="Y2" t="s">
-        <v>566</v>
+        <v>98</v>
       </c>
       <c r="Z2" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="AA2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AC2" t="s">
-        <v>184</v>
+        <v>451</v>
       </c>
       <c r="AD2" t="s">
-        <v>451</v>
-      </c>
-      <c r="AE2" t="s">
         <v>515</v>
       </c>
     </row>
@@ -33005,22 +33630,22 @@
       <c r="X3" t="s">
         <v>409</v>
       </c>
+      <c r="Y3" t="s">
+        <v>99</v>
+      </c>
       <c r="Z3" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="AA3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AB3" t="s">
-        <v>178</v>
+        <v>365</v>
       </c>
       <c r="AC3" t="s">
-        <v>365</v>
+        <v>185</v>
       </c>
       <c r="AD3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -33088,22 +33713,22 @@
       <c r="X4" t="s">
         <v>410</v>
       </c>
+      <c r="Y4" t="s">
+        <v>355</v>
+      </c>
       <c r="Z4" t="s">
-        <v>355</v>
+        <v>174</v>
       </c>
       <c r="AA4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AB4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC4" t="s">
-        <v>185</v>
+        <v>452</v>
       </c>
       <c r="AD4" t="s">
-        <v>452</v>
-      </c>
-      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -33162,22 +33787,22 @@
       <c r="W5" t="s">
         <v>360</v>
       </c>
+      <c r="Y5" t="s">
+        <v>356</v>
+      </c>
       <c r="Z5" t="s">
-        <v>356</v>
+        <v>175</v>
       </c>
       <c r="AA5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AB5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC5" t="s">
-        <v>186</v>
+        <v>453</v>
       </c>
       <c r="AD5" t="s">
-        <v>453</v>
-      </c>
-      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -33230,22 +33855,22 @@
       <c r="W6" t="s">
         <v>362</v>
       </c>
+      <c r="Y6" t="s">
+        <v>100</v>
+      </c>
       <c r="Z6" t="s">
-        <v>100</v>
+        <v>465</v>
       </c>
       <c r="AA6" t="s">
-        <v>465</v>
+        <v>181</v>
       </c>
       <c r="AB6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AC6" t="s">
-        <v>187</v>
+        <v>454</v>
       </c>
       <c r="AD6" t="s">
-        <v>454</v>
-      </c>
-      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -33292,22 +33917,22 @@
       <c r="W7" t="s">
         <v>361</v>
       </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
       <c r="Z7" t="s">
-        <v>101</v>
+        <v>466</v>
       </c>
       <c r="AA7" t="s">
-        <v>466</v>
+        <v>182</v>
       </c>
       <c r="AB7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AC7" t="s">
-        <v>188</v>
+        <v>455</v>
       </c>
       <c r="AD7" t="s">
-        <v>455</v>
-      </c>
-      <c r="AE7" t="s">
         <v>558</v>
       </c>
     </row>
@@ -33348,22 +33973,22 @@
       <c r="W8" t="s">
         <v>363</v>
       </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
       <c r="Z8" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="AA8" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AB8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AC8" t="s">
-        <v>189</v>
+        <v>456</v>
       </c>
       <c r="AD8" t="s">
-        <v>456</v>
-      </c>
-      <c r="AE8" t="s">
         <v>559</v>
       </c>
     </row>
@@ -33404,13 +34029,13 @@
       <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>560</v>
       </c>
     </row>
@@ -33445,13 +34070,13 @@
       <c r="T10" t="s">
         <v>407</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -33483,13 +34108,13 @@
       <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -33521,13 +34146,13 @@
       <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -33556,13 +34181,13 @@
       <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>499</v>
       </c>
     </row>
@@ -33591,13 +34216,13 @@
       <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>516</v>
       </c>
     </row>
@@ -33623,13 +34248,13 @@
       <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>517</v>
       </c>
     </row>
@@ -33647,7 +34272,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>569</v>
       </c>
       <c r="Q16" t="s">
         <v>525</v>
@@ -33655,13 +34280,13 @@
       <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -33679,15 +34304,15 @@
         <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
         <v>526</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>486</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -33704,10 +34329,13 @@
       <c r="K18" t="s">
         <v>478</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>500</v>
       </c>
     </row>
@@ -33724,10 +34352,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>518</v>
       </c>
     </row>
@@ -33744,10 +34372,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>519</v>
       </c>
     </row>
@@ -33764,10 +34392,10 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>523</v>
       </c>
     </row>
@@ -33784,10 +34412,10 @@
       <c r="K22" t="s">
         <v>495</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>507</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -33804,10 +34432,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>561</v>
       </c>
     </row>
@@ -33824,16 +34452,16 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>564</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>64</v>
@@ -33844,16 +34472,16 @@
       <c r="K25" t="s">
         <v>548</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>470</v>
@@ -33864,16 +34492,16 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>226</v>
@@ -33884,16 +34512,16 @@
       <c r="K27" t="s">
         <v>460</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>227</v>
@@ -33904,13 +34532,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>432</v>
       </c>
       <c r="E29" t="s">
         <v>493</v>
@@ -33921,13 +34549,13 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>432</v>
+        <v>228</v>
       </c>
       <c r="E30" t="s">
         <v>494</v>
@@ -33935,21 +34563,18 @@
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>228</v>
-      </c>
       <c r="E31" t="s">
         <v>434</v>
       </c>
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -33960,7 +34585,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -33971,7 +34596,7 @@
       <c r="G33" t="s">
         <v>532</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -33982,7 +34607,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -33993,7 +34618,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -34004,7 +34629,7 @@
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -34015,7 +34640,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -34026,7 +34651,7 @@
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>447</v>
       </c>
     </row>
@@ -34037,7 +34662,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>552</v>
       </c>
     </row>
@@ -34045,7 +34670,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>394</v>
       </c>
     </row>
@@ -34053,7 +34678,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -34061,7 +34686,7 @@
       <c r="G42" t="s">
         <v>567</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -34069,7 +34694,7 @@
       <c r="G43" t="s">
         <v>290</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -34077,7 +34702,7 @@
       <c r="G44" t="s">
         <v>301</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -34085,7 +34710,7 @@
       <c r="G45" t="s">
         <v>302</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -34093,7 +34718,7 @@
       <c r="G46" t="s">
         <v>344</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -34101,7 +34726,7 @@
       <c r="G47" t="s">
         <v>343</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>462</v>
       </c>
     </row>
@@ -34109,7 +34734,7 @@
       <c r="G48" t="s">
         <v>212</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -34117,7 +34742,7 @@
       <c r="G49" t="s">
         <v>321</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -34125,7 +34750,7 @@
       <c r="G50" t="s">
         <v>340</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>557</v>
       </c>
     </row>
@@ -34133,7 +34758,7 @@
       <c r="G51" t="s">
         <v>369</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -34141,7 +34766,7 @@
       <c r="G52" t="s">
         <v>303</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -34149,7 +34774,7 @@
       <c r="G53" t="s">
         <v>357</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -34157,7 +34782,7 @@
       <c r="G54" t="s">
         <v>332</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>508</v>
       </c>
     </row>
@@ -34165,7 +34790,7 @@
       <c r="G55" t="s">
         <v>269</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>488</v>
       </c>
     </row>
@@ -34173,7 +34798,7 @@
       <c r="G56" t="s">
         <v>293</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -34181,7 +34806,7 @@
       <c r="G57" t="s">
         <v>294</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>347</v>
       </c>
     </row>
@@ -34189,7 +34814,7 @@
       <c r="G58" t="s">
         <v>568</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>481</v>
       </c>
     </row>
@@ -34197,7 +34822,7 @@
       <c r="G59" t="s">
         <v>295</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -34205,7 +34830,7 @@
       <c r="G60" t="s">
         <v>304</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -34213,7 +34838,7 @@
       <c r="G61" t="s">
         <v>313</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -34221,7 +34846,7 @@
       <c r="G62" t="s">
         <v>338</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -34229,7 +34854,7 @@
       <c r="G63" t="s">
         <v>310</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -34237,7 +34862,7 @@
       <c r="G64" t="s">
         <v>311</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -34245,7 +34870,7 @@
       <c r="G65" t="s">
         <v>370</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -34253,7 +34878,7 @@
       <c r="G66" t="s">
         <v>371</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>458</v>
       </c>
     </row>
@@ -34261,7 +34886,7 @@
       <c r="G67" t="s">
         <v>346</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>498</v>
       </c>
     </row>
@@ -34269,7 +34894,7 @@
       <c r="G68" t="s">
         <v>314</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -34277,7 +34902,7 @@
       <c r="G69" t="s">
         <v>270</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>390</v>
       </c>
     </row>
@@ -34285,7 +34910,7 @@
       <c r="G70" t="s">
         <v>553</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>463</v>
       </c>
     </row>
@@ -34293,7 +34918,7 @@
       <c r="G71" t="s">
         <v>315</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -34301,7 +34926,7 @@
       <c r="G72" t="s">
         <v>411</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -34309,7 +34934,7 @@
       <c r="G73" t="s">
         <v>305</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -34317,7 +34942,7 @@
       <c r="G74" t="s">
         <v>412</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -34325,7 +34950,7 @@
       <c r="G75" t="s">
         <v>263</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -34333,7 +34958,7 @@
       <c r="G76" t="s">
         <v>533</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>199</v>
       </c>
     </row>
@@ -34341,7 +34966,7 @@
       <c r="G77" t="s">
         <v>345</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>476</v>
       </c>
     </row>
@@ -34349,7 +34974,7 @@
       <c r="G78" t="s">
         <v>281</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>492</v>
       </c>
     </row>
@@ -34357,7 +34982,7 @@
       <c r="G79" t="s">
         <v>287</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -34365,7 +34990,7 @@
       <c r="G80" t="s">
         <v>292</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -34373,7 +34998,7 @@
       <c r="G81" t="s">
         <v>435</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -34381,7 +35006,7 @@
       <c r="G82" t="s">
         <v>333</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>520</v>
       </c>
     </row>
@@ -34389,7 +35014,7 @@
       <c r="G83" t="s">
         <v>271</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -34397,7 +35022,7 @@
       <c r="G84" t="s">
         <v>282</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -34405,7 +35030,7 @@
       <c r="G85" t="s">
         <v>288</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -34413,7 +35038,7 @@
       <c r="G86" t="s">
         <v>277</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>509</v>
       </c>
     </row>
@@ -34421,7 +35046,7 @@
       <c r="G87" t="s">
         <v>554</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -34429,7 +35054,7 @@
       <c r="G88" t="s">
         <v>272</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>475</v>
       </c>
     </row>
@@ -34437,7 +35062,7 @@
       <c r="G89" t="s">
         <v>289</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -34445,7 +35070,7 @@
       <c r="G90" t="s">
         <v>273</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>203</v>
       </c>
     </row>
@@ -34453,7 +35078,7 @@
       <c r="G91" t="s">
         <v>274</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -34461,7 +35086,7 @@
       <c r="G92" t="s">
         <v>306</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -34469,7 +35094,7 @@
       <c r="G93" t="s">
         <v>312</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>204</v>
       </c>
     </row>
@@ -34477,7 +35102,7 @@
       <c r="G94" t="s">
         <v>296</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>449</v>
       </c>
     </row>
@@ -34485,7 +35110,7 @@
       <c r="G95" t="s">
         <v>341</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>457</v>
       </c>
     </row>
@@ -34493,7 +35118,7 @@
       <c r="G96" t="s">
         <v>278</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>205</v>
       </c>
     </row>
@@ -34501,167 +35126,167 @@
       <c r="G97" t="s">
         <v>279</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26207" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28978" uniqueCount="574">
   <si>
     <t>description</t>
   </si>
@@ -1777,6 +1777,18 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1796,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="835" x14ac:knownFonts="1">
+  <fonts count="915" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7046,8 +7058,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1453">
+  <fills count="1588">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15277,8 +15794,773 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1503">
+  <borders count="1663">
     <border>
       <left/>
       <right/>
@@ -28956,6 +30238,1636 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -30445,7 +33357,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="861">
+  <cellXfs count="941">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -32998,52 +35910,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1425" fontId="818" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="819" fillId="1428" borderId="1478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="820" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1478" fillId="1428" fontId="819" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="820" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="821" fillId="1431" borderId="1482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1482" fillId="1431" fontId="821" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="822" fillId="1434" borderId="1486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1486" fillId="1434" fontId="822" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="823" fillId="1437" borderId="1490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1490" fillId="1437" fontId="823" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="824" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="824" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="825" fillId="1440" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1440" fontId="825" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="826" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="827" fillId="1443" borderId="1494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="828" fillId="1434" borderId="1498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="829" fillId="1446" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="830" fillId="1446" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="831" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="832" fillId="1449" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="833" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="834" fillId="1452" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="826" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1494" fillId="1443" fontId="827" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1498" fillId="1434" fontId="828" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1502" fillId="1446" fontId="829" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1502" fillId="1446" fontId="830" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1437" fontId="831" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1449" fontId="832" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1437" fontId="833" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1452" fontId="834" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1510" fillId="1455" fontId="835" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="836" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1514" fillId="1458" fontId="837" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1518" fillId="1461" fontId="838" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1522" fillId="1464" fontId="839" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="840" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1467" fontId="841" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="842" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1526" fillId="1470" fontId="843" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1530" fillId="1461" fontId="844" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1534" fillId="1473" fontId="845" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1534" fillId="1473" fontId="846" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1464" fontId="847" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1476" fontId="848" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1464" fontId="849" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1479" fontId="850" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1542" fillId="1482" fontId="851" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="852" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1546" fillId="1485" fontId="853" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1550" fillId="1488" fontId="854" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1554" fillId="1491" fontId="855" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="856" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1494" fontId="857" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="858" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1558" fillId="1497" fontId="859" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1562" fillId="1488" fontId="860" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1566" fillId="1500" fontId="861" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1566" fillId="1500" fontId="862" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1491" fontId="863" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1503" fontId="864" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1491" fontId="865" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1506" fontId="866" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1574" fillId="1509" fontId="867" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="868" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1578" fillId="1512" fontId="869" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1582" fillId="1515" fontId="870" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1586" fillId="1518" fontId="871" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="872" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1521" fontId="873" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="874" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1590" fillId="1524" fontId="875" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1594" fillId="1515" fontId="876" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1598" fillId="1527" fontId="877" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1598" fillId="1527" fontId="878" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1518" fontId="879" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1530" fontId="880" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1518" fontId="881" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1533" fontId="882" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1606" fillId="1536" fontId="883" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="884" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1610" fillId="1539" fontId="885" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1614" fillId="1542" fontId="886" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1618" fillId="1545" fontId="887" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="888" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1548" fontId="889" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="890" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1622" fillId="1551" fontId="891" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1626" fillId="1542" fontId="892" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1630" fillId="1554" fontId="893" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1630" fillId="1554" fontId="894" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1545" fontId="895" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1557" fontId="896" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1545" fontId="897" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1560" fontId="898" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="899" fillId="1563" borderId="1638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="1566" borderId="1642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="902" fillId="1569" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="903" fillId="1572" borderId="1650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="904" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="905" fillId="1575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="906" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="907" fillId="1578" borderId="1654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="908" fillId="1569" borderId="1658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="909" fillId="1581" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="910" fillId="1581" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="911" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="912" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="913" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="914" fillId="1587" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -33368,7 +36520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -34453,7 +37605,7 @@
         <v>393</v>
       </c>
       <c r="Y24" t="s">
-        <v>112</v>
+        <v>570</v>
       </c>
       <c r="AD24" t="s">
         <v>562</v>
@@ -34473,7 +37625,7 @@
         <v>548</v>
       </c>
       <c r="Y25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD25" t="s">
         <v>563</v>
@@ -34493,7 +37645,7 @@
         <v>86</v>
       </c>
       <c r="Y26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD26" t="s">
         <v>237</v>
@@ -34513,7 +37665,7 @@
         <v>460</v>
       </c>
       <c r="Y27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD27" t="s">
         <v>238</v>
@@ -34533,7 +37685,7 @@
         <v>45</v>
       </c>
       <c r="Y28" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -34550,7 +37702,7 @@
         <v>46</v>
       </c>
       <c r="Y29" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30">
@@ -34564,7 +37716,7 @@
         <v>217</v>
       </c>
       <c r="Y30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -34575,7 +37727,7 @@
         <v>276</v>
       </c>
       <c r="Y31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -34586,7 +37738,7 @@
         <v>286</v>
       </c>
       <c r="Y32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -34597,7 +37749,7 @@
         <v>532</v>
       </c>
       <c r="Y33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -34608,7 +37760,7 @@
         <v>261</v>
       </c>
       <c r="Y34" t="s">
-        <v>121</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35">
@@ -34619,7 +37771,7 @@
         <v>331</v>
       </c>
       <c r="Y35" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -34630,7 +37782,7 @@
         <v>308</v>
       </c>
       <c r="Y36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -34641,7 +37793,7 @@
         <v>262</v>
       </c>
       <c r="Y37" t="s">
-        <v>339</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38">
@@ -34652,7 +37804,7 @@
         <v>309</v>
       </c>
       <c r="Y38" t="s">
-        <v>447</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
@@ -34663,7 +37815,7 @@
         <v>268</v>
       </c>
       <c r="Y39" t="s">
-        <v>552</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40">
@@ -34671,7 +37823,7 @@
         <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41">
@@ -34679,7 +37831,7 @@
         <v>213</v>
       </c>
       <c r="Y41" t="s">
-        <v>123</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42">
@@ -34687,7 +37839,7 @@
         <v>567</v>
       </c>
       <c r="Y42" t="s">
-        <v>124</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43">
@@ -34695,7 +37847,7 @@
         <v>290</v>
       </c>
       <c r="Y43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
@@ -34703,7 +37855,7 @@
         <v>301</v>
       </c>
       <c r="Y44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
@@ -34711,7 +37863,7 @@
         <v>302</v>
       </c>
       <c r="Y45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
@@ -34719,7 +37871,7 @@
         <v>344</v>
       </c>
       <c r="Y46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
@@ -34727,7 +37879,7 @@
         <v>343</v>
       </c>
       <c r="Y47" t="s">
-        <v>462</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
@@ -34735,7 +37887,7 @@
         <v>212</v>
       </c>
       <c r="Y48" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
@@ -34743,7 +37895,7 @@
         <v>321</v>
       </c>
       <c r="Y49" t="s">
-        <v>78</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50">
@@ -34751,7 +37903,7 @@
         <v>340</v>
       </c>
       <c r="Y50" t="s">
-        <v>557</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51">
@@ -34759,7 +37911,7 @@
         <v>369</v>
       </c>
       <c r="Y51" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
@@ -34767,7 +37919,7 @@
         <v>303</v>
       </c>
       <c r="Y52" t="s">
-        <v>130</v>
+        <v>557</v>
       </c>
     </row>
     <row r="53">
@@ -34775,7 +37927,7 @@
         <v>357</v>
       </c>
       <c r="Y53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54">
@@ -34783,7 +37935,7 @@
         <v>332</v>
       </c>
       <c r="Y54" t="s">
-        <v>508</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
@@ -34791,7 +37943,7 @@
         <v>269</v>
       </c>
       <c r="Y55" t="s">
-        <v>488</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56">
@@ -34799,7 +37951,7 @@
         <v>293</v>
       </c>
       <c r="Y56" t="s">
-        <v>132</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57">
@@ -34807,7 +37959,7 @@
         <v>294</v>
       </c>
       <c r="Y57" t="s">
-        <v>347</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58">
@@ -34815,7 +37967,7 @@
         <v>568</v>
       </c>
       <c r="Y58" t="s">
-        <v>481</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59">
@@ -34823,7 +37975,7 @@
         <v>295</v>
       </c>
       <c r="Y59" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60">
@@ -34831,7 +37983,7 @@
         <v>304</v>
       </c>
       <c r="Y60" t="s">
-        <v>134</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61">
@@ -34839,7 +37991,7 @@
         <v>313</v>
       </c>
       <c r="Y61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
@@ -34847,7 +37999,7 @@
         <v>338</v>
       </c>
       <c r="Y62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
@@ -34855,7 +38007,7 @@
         <v>310</v>
       </c>
       <c r="Y63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
@@ -34863,7 +38015,7 @@
         <v>311</v>
       </c>
       <c r="Y64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65">
@@ -34871,7 +38023,7 @@
         <v>370</v>
       </c>
       <c r="Y65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66">
@@ -34879,7 +38031,7 @@
         <v>371</v>
       </c>
       <c r="Y66" t="s">
-        <v>458</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67">
@@ -34887,7 +38039,7 @@
         <v>346</v>
       </c>
       <c r="Y67" t="s">
-        <v>498</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68">
@@ -34895,7 +38047,7 @@
         <v>314</v>
       </c>
       <c r="Y68" t="s">
-        <v>215</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69">
@@ -34903,7 +38055,7 @@
         <v>270</v>
       </c>
       <c r="Y69" t="s">
-        <v>390</v>
+        <v>498</v>
       </c>
     </row>
     <row r="70">
@@ -34911,7 +38063,7 @@
         <v>553</v>
       </c>
       <c r="Y70" t="s">
-        <v>463</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71">
@@ -34919,7 +38071,7 @@
         <v>315</v>
       </c>
       <c r="Y71" t="s">
-        <v>140</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72">
@@ -34927,7 +38079,7 @@
         <v>411</v>
       </c>
       <c r="Y72" t="s">
-        <v>141</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73">
@@ -34935,7 +38087,7 @@
         <v>305</v>
       </c>
       <c r="Y73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
@@ -34943,7 +38095,7 @@
         <v>412</v>
       </c>
       <c r="Y74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75">
@@ -34951,7 +38103,7 @@
         <v>263</v>
       </c>
       <c r="Y75" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76">
@@ -34959,7 +38111,7 @@
         <v>533</v>
       </c>
       <c r="Y76" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77">
@@ -34967,7 +38119,7 @@
         <v>345</v>
       </c>
       <c r="Y77" t="s">
-        <v>476</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78">
@@ -34975,7 +38127,7 @@
         <v>281</v>
       </c>
       <c r="Y78" t="s">
-        <v>492</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79">
@@ -34983,7 +38135,7 @@
         <v>287</v>
       </c>
       <c r="Y79" t="s">
-        <v>144</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80">
@@ -34991,7 +38143,7 @@
         <v>292</v>
       </c>
       <c r="Y80" t="s">
-        <v>145</v>
+        <v>492</v>
       </c>
     </row>
     <row r="81">
@@ -34999,7 +38151,7 @@
         <v>435</v>
       </c>
       <c r="Y81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
@@ -35007,7 +38159,7 @@
         <v>333</v>
       </c>
       <c r="Y82" t="s">
-        <v>520</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83">
@@ -35015,7 +38167,7 @@
         <v>271</v>
       </c>
       <c r="Y83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84">
@@ -35023,7 +38175,7 @@
         <v>282</v>
       </c>
       <c r="Y84" t="s">
-        <v>148</v>
+        <v>520</v>
       </c>
     </row>
     <row r="85">
@@ -35031,7 +38183,7 @@
         <v>288</v>
       </c>
       <c r="Y85" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
@@ -35039,7 +38191,7 @@
         <v>277</v>
       </c>
       <c r="Y86" t="s">
-        <v>509</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87">
@@ -35047,7 +38199,7 @@
         <v>554</v>
       </c>
       <c r="Y87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
@@ -35055,7 +38207,7 @@
         <v>272</v>
       </c>
       <c r="Y88" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
     </row>
     <row r="89">
@@ -35063,7 +38215,7 @@
         <v>289</v>
       </c>
       <c r="Y89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90">
@@ -35071,7 +38223,7 @@
         <v>273</v>
       </c>
       <c r="Y90" t="s">
-        <v>203</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91">
@@ -35079,7 +38231,7 @@
         <v>274</v>
       </c>
       <c r="Y91" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92">
@@ -35087,7 +38239,7 @@
         <v>306</v>
       </c>
       <c r="Y92" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93">
@@ -35095,7 +38247,7 @@
         <v>312</v>
       </c>
       <c r="Y93" t="s">
-        <v>204</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94">
@@ -35103,7 +38255,7 @@
         <v>296</v>
       </c>
       <c r="Y94" t="s">
-        <v>449</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95">
@@ -35111,7 +38263,7 @@
         <v>341</v>
       </c>
       <c r="Y95" t="s">
-        <v>457</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
@@ -35119,7 +38271,7 @@
         <v>278</v>
       </c>
       <c r="Y96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97">
@@ -35127,166 +38279,186 @@
         <v>279</v>
       </c>
       <c r="Y97" t="s">
-        <v>206</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>207</v>
+        <v>457</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>531</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>534</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>384</v>
+        <v>534</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>152</v>
+        <v>535</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>153</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>464</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>166</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>47</v>
+        <v>572</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -22,7 +22,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28978" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29534" uniqueCount="576">
   <si>
     <t>description</t>
   </si>
@@ -1789,6 +1789,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1802,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="915" x14ac:knownFonts="1">
+  <fonts count="931" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7563,8 +7569,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1588">
+  <fills count="1615">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16559,8 +16666,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1663">
+  <borders count="1695">
     <border>
       <left/>
       <right/>
@@ -30238,6 +30498,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -33357,7 +33943,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="941">
+  <cellXfs count="957">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -36150,52 +36736,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1560" fontId="898" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="899" fillId="1563" borderId="1638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="900" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1638" fillId="1563" fontId="899" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="900" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="901" fillId="1566" borderId="1642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1642" fillId="1566" fontId="901" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="902" fillId="1569" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1646" fillId="1569" fontId="902" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="903" fillId="1572" borderId="1650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1650" fillId="1572" fontId="903" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="904" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="904" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="905" fillId="1575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1575" fontId="905" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="906" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="907" fillId="1578" borderId="1654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="908" fillId="1569" borderId="1658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="909" fillId="1581" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="910" fillId="1581" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="911" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="912" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="913" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="914" fillId="1587" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="906" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1654" fillId="1578" fontId="907" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1658" fillId="1569" fontId="908" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1662" fillId="1581" fontId="909" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1662" fillId="1581" fontId="910" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1572" fontId="911" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1584" fontId="912" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1572" fontId="913" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1587" fontId="914" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="915" fillId="1590" borderId="1670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="916" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="917" fillId="1593" borderId="1674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="918" fillId="1596" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="919" fillId="1599" borderId="1682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="920" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="921" fillId="1602" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="923" fillId="1605" borderId="1686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="1596" borderId="1690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="1608" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="926" fillId="1608" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="927" fillId="1599" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="1611" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="929" fillId="1599" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="1614" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -36901,7 +37535,7 @@
         <v>459</v>
       </c>
       <c r="G5" t="s">
-        <v>337</v>
+        <v>574</v>
       </c>
       <c r="H5" t="s">
         <v>477</v>
@@ -36975,7 +37609,7 @@
         <v>527</v>
       </c>
       <c r="G6" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="H6" t="s">
         <v>469</v>
@@ -37037,7 +37671,7 @@
         <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="H7" t="s">
         <v>468</v>
@@ -37099,7 +37733,7 @@
         <v>319</v>
       </c>
       <c r="G8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H8" t="s">
         <v>329</v>
@@ -37155,7 +37789,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>307</v>
+        <v>368</v>
       </c>
       <c r="H9" t="s">
         <v>330</v>
@@ -37199,7 +37833,7 @@
         <v>316</v>
       </c>
       <c r="G10" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="H10" t="s">
         <v>473</v>
@@ -37240,7 +37874,7 @@
         <v>256</v>
       </c>
       <c r="G11" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="H11" t="s">
         <v>323</v>
@@ -37278,7 +37912,7 @@
         <v>320</v>
       </c>
       <c r="G12" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="H12" t="s">
         <v>324</v>
@@ -37316,7 +37950,7 @@
         <v>342</v>
       </c>
       <c r="G13" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="H13" t="s">
         <v>325</v>
@@ -37351,7 +37985,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="H14" t="s">
         <v>326</v>
@@ -37386,7 +38020,7 @@
         <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K15" t="s">
         <v>530</v>
@@ -37418,7 +38052,7 @@
         <v>386</v>
       </c>
       <c r="G16" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="K16" t="s">
         <v>82</v>
@@ -37450,7 +38084,7 @@
         <v>387</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>318</v>
       </c>
       <c r="K17" t="s">
         <v>83</v>
@@ -37476,7 +38110,7 @@
         <v>433</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
         <v>478</v>
@@ -37499,7 +38133,7 @@
         <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>297</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s">
         <v>84</v>
@@ -37519,7 +38153,7 @@
         <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K20" t="s">
         <v>85</v>
@@ -37539,7 +38173,7 @@
         <v>257</v>
       </c>
       <c r="G21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K21" t="s">
         <v>381</v>
@@ -37559,7 +38193,7 @@
         <v>565</v>
       </c>
       <c r="G22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K22" t="s">
         <v>495</v>
@@ -37579,7 +38213,7 @@
         <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
@@ -37599,7 +38233,7 @@
         <v>322</v>
       </c>
       <c r="G24" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="K24" t="s">
         <v>393</v>
@@ -37619,7 +38253,7 @@
         <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="K25" t="s">
         <v>548</v>
@@ -37639,7 +38273,7 @@
         <v>470</v>
       </c>
       <c r="G26" t="s">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s">
         <v>86</v>
@@ -37659,7 +38293,7 @@
         <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
         <v>460</v>
@@ -37679,7 +38313,7 @@
         <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
@@ -37696,7 +38330,7 @@
         <v>493</v>
       </c>
       <c r="G29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
@@ -37713,7 +38347,7 @@
         <v>494</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="Y30" t="s">
         <v>116</v>
@@ -37724,7 +38358,7 @@
         <v>434</v>
       </c>
       <c r="G31" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="Y31" t="s">
         <v>117</v>
@@ -37735,7 +38369,7 @@
         <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="Y32" t="s">
         <v>118</v>
@@ -37746,7 +38380,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>532</v>
+        <v>286</v>
       </c>
       <c r="Y33" t="s">
         <v>119</v>
@@ -37757,7 +38391,7 @@
         <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>532</v>
       </c>
       <c r="Y34" t="s">
         <v>571</v>
@@ -37768,7 +38402,7 @@
         <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="Y35" t="s">
         <v>120</v>
@@ -37779,7 +38413,7 @@
         <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="Y36" t="s">
         <v>121</v>
@@ -37790,7 +38424,7 @@
         <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="Y37" t="s">
         <v>211</v>
@@ -37801,7 +38435,7 @@
         <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="Y38" t="s">
         <v>122</v>
@@ -37812,7 +38446,7 @@
         <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="Y39" t="s">
         <v>339</v>
@@ -37820,7 +38454,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="Y40" t="s">
         <v>447</v>
@@ -37828,7 +38462,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s">
         <v>552</v>
@@ -37836,7 +38470,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>567</v>
+        <v>213</v>
       </c>
       <c r="Y42" t="s">
         <v>394</v>
@@ -37844,7 +38478,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>290</v>
+        <v>567</v>
       </c>
       <c r="Y43" t="s">
         <v>123</v>
@@ -37852,7 +38486,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Y44" t="s">
         <v>124</v>
@@ -37860,7 +38494,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y45" t="s">
         <v>125</v>
@@ -37868,7 +38502,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="Y46" t="s">
         <v>126</v>
@@ -37876,7 +38510,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y47" t="s">
         <v>127</v>
@@ -37884,7 +38518,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="Y48" t="s">
         <v>128</v>
@@ -37892,7 +38526,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="Y49" t="s">
         <v>462</v>
@@ -37900,7 +38534,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="Y50" t="s">
         <v>214</v>
@@ -37908,7 +38542,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="Y51" t="s">
         <v>78</v>
@@ -37916,7 +38550,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="Y52" t="s">
         <v>557</v>
@@ -37924,7 +38558,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="Y53" t="s">
         <v>129</v>
@@ -37932,7 +38566,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="Y54" t="s">
         <v>130</v>
@@ -37940,7 +38574,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="Y55" t="s">
         <v>131</v>
@@ -37948,7 +38582,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="Y56" t="s">
         <v>508</v>
@@ -37956,7 +38590,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y57" t="s">
         <v>488</v>
@@ -37964,7 +38598,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>568</v>
+        <v>294</v>
       </c>
       <c r="Y58" t="s">
         <v>132</v>
@@ -37972,7 +38606,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>295</v>
+        <v>568</v>
       </c>
       <c r="Y59" t="s">
         <v>347</v>
@@ -37980,7 +38614,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="Y60" t="s">
         <v>481</v>
@@ -37988,7 +38622,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="Y61" t="s">
         <v>133</v>
@@ -37996,7 +38630,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="Y62" t="s">
         <v>134</v>
@@ -38004,7 +38638,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="Y63" t="s">
         <v>135</v>
@@ -38012,7 +38646,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y64" t="s">
         <v>136</v>
@@ -38020,7 +38654,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="Y65" t="s">
         <v>137</v>
@@ -38028,7 +38662,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Y66" t="s">
         <v>138</v>
@@ -38036,7 +38670,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="Y67" t="s">
         <v>139</v>
@@ -38044,7 +38678,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="Y68" t="s">
         <v>458</v>
@@ -38052,7 +38686,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="Y69" t="s">
         <v>498</v>
@@ -38060,7 +38694,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>553</v>
+        <v>270</v>
       </c>
       <c r="Y70" t="s">
         <v>215</v>
@@ -38068,7 +38702,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>315</v>
+        <v>553</v>
       </c>
       <c r="Y71" t="s">
         <v>390</v>
@@ -38076,7 +38710,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>411</v>
+        <v>315</v>
       </c>
       <c r="Y72" t="s">
         <v>463</v>
@@ -38084,7 +38718,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>305</v>
+        <v>411</v>
       </c>
       <c r="Y73" t="s">
         <v>140</v>
@@ -38092,7 +38726,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>412</v>
+        <v>305</v>
       </c>
       <c r="Y74" t="s">
         <v>141</v>
@@ -38100,7 +38734,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>263</v>
+        <v>412</v>
       </c>
       <c r="Y75" t="s">
         <v>142</v>
@@ -38108,7 +38742,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>533</v>
+        <v>263</v>
       </c>
       <c r="Y76" t="s">
         <v>143</v>
@@ -38116,7 +38750,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>345</v>
+        <v>533</v>
       </c>
       <c r="Y77" t="s">
         <v>198</v>
@@ -38124,7 +38758,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="Y78" t="s">
         <v>199</v>
@@ -38132,7 +38766,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Y79" t="s">
         <v>476</v>
@@ -38140,7 +38774,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Y80" t="s">
         <v>492</v>
@@ -38148,7 +38782,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>435</v>
+        <v>292</v>
       </c>
       <c r="Y81" t="s">
         <v>144</v>
@@ -38156,7 +38790,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>333</v>
+        <v>435</v>
       </c>
       <c r="Y82" t="s">
         <v>145</v>
@@ -38164,7 +38798,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="Y83" t="s">
         <v>146</v>
@@ -38172,7 +38806,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="Y84" t="s">
         <v>520</v>
@@ -38180,7 +38814,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Y85" t="s">
         <v>147</v>
@@ -38188,7 +38822,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="Y86" t="s">
         <v>148</v>
@@ -38196,7 +38830,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>554</v>
+        <v>277</v>
       </c>
       <c r="Y87" t="s">
         <v>200</v>
@@ -38204,7 +38838,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>272</v>
+        <v>554</v>
       </c>
       <c r="Y88" t="s">
         <v>509</v>
@@ -38212,7 +38846,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Y89" t="s">
         <v>201</v>
@@ -38220,7 +38854,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="Y90" t="s">
         <v>475</v>
@@ -38228,7 +38862,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y91" t="s">
         <v>202</v>
@@ -38236,7 +38870,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="Y92" t="s">
         <v>203</v>
@@ -38244,15 +38878,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Y93" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="Y94" t="s">
         <v>216</v>
@@ -38260,7 +38894,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="Y95" t="s">
         <v>149</v>
@@ -38268,7 +38902,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="Y96" t="s">
         <v>204</v>
@@ -38276,13 +38910,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y97" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>279</v>
+      </c>
       <c r="Y98" t="s">
         <v>457</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29534" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30091" uniqueCount="577">
   <si>
     <t>description</t>
   </si>
@@ -1795,6 +1795,9 @@
   </si>
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1805,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="931" x14ac:knownFonts="1">
+  <fonts count="947" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7670,8 +7673,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1615">
+  <fills count="1642">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16819,8 +16923,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1695">
+  <borders count="1727">
     <border>
       <left/>
       <right/>
@@ -30498,6 +30755,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -33943,7 +34526,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="957">
+  <cellXfs count="973">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -36784,52 +37367,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1587" fontId="914" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="915" fillId="1590" borderId="1670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="916" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1670" fillId="1590" fontId="915" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="916" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="917" fillId="1593" borderId="1674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1674" fillId="1593" fontId="917" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="918" fillId="1596" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1678" fillId="1596" fontId="918" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="919" fillId="1599" borderId="1682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1682" fillId="1599" fontId="919" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="920" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="920" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="921" fillId="1602" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1602" fontId="921" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="922" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="923" fillId="1605" borderId="1686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="924" fillId="1596" borderId="1690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="925" fillId="1608" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="926" fillId="1608" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="927" fillId="1599" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="928" fillId="1611" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="929" fillId="1599" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="930" fillId="1614" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="922" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1686" fillId="1605" fontId="923" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1690" fillId="1596" fontId="924" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1694" fillId="1608" fontId="925" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1694" fillId="1608" fontId="926" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1599" fontId="927" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1611" fontId="928" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1599" fontId="929" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1614" fontId="930" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="1617" borderId="1702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="932" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="933" fillId="1620" borderId="1706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="1623" borderId="1710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="935" fillId="1626" borderId="1714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="937" fillId="1629" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="938" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="939" fillId="1632" borderId="1718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="1623" borderId="1722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="941" fillId="1635" borderId="1726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="942" fillId="1635" borderId="1726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="943" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="944" fillId="1638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="945" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="1641" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37154,7 +37785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -38889,7 +39520,7 @@
         <v>312</v>
       </c>
       <c r="Y94" t="s">
-        <v>216</v>
+        <v>576</v>
       </c>
     </row>
     <row r="95">
@@ -38897,7 +39528,7 @@
         <v>296</v>
       </c>
       <c r="Y95" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96">
@@ -38905,7 +39536,7 @@
         <v>341</v>
       </c>
       <c r="Y96" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97">
@@ -38913,7 +39544,7 @@
         <v>278</v>
       </c>
       <c r="Y97" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98">
@@ -38921,181 +39552,186 @@
         <v>279</v>
       </c>
       <c r="Y98" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>531</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>150</v>
+        <v>534</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>535</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>384</v>
+        <v>535</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>572</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>165</v>
+        <v>572</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -18,41 +18,42 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30091" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30652" uniqueCount="583">
   <si>
     <t>description</t>
   </si>
@@ -1798,6 +1799,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
   </si>
 </sst>
 </file>
@@ -1805,7 +1824,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="947" x14ac:knownFonts="1">
+  <fonts count="963" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7774,8 +7793,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1642">
+  <fills count="1669">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17076,8 +17196,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1727">
+  <borders count="1759">
     <border>
       <left/>
       <right/>
@@ -30755,6 +31028,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -34526,7 +35125,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="973">
+  <cellXfs count="989">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -37415,52 +38014,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1614" fontId="930" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="931" fillId="1617" borderId="1702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="932" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1702" fillId="1617" fontId="931" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="932" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="933" fillId="1620" borderId="1706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1706" fillId="1620" fontId="933" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="934" fillId="1623" borderId="1710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1710" fillId="1623" fontId="934" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="935" fillId="1626" borderId="1714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1714" fillId="1626" fontId="935" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="936" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="936" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="937" fillId="1629" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1629" fontId="937" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="938" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="939" fillId="1632" borderId="1718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="940" fillId="1623" borderId="1722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="941" fillId="1635" borderId="1726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="942" fillId="1635" borderId="1726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="943" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="944" fillId="1638" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="945" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="946" fillId="1641" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="938" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1718" fillId="1632" fontId="939" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1722" fillId="1623" fontId="940" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1726" fillId="1635" fontId="941" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1726" fillId="1635" fontId="942" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1626" fontId="943" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1638" fontId="944" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1626" fontId="945" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1641" fontId="946" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="947" fillId="1644" borderId="1734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="949" fillId="1647" borderId="1738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="950" fillId="1650" borderId="1742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="951" fillId="1653" borderId="1746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="952" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="953" fillId="1656" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="954" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="955" fillId="1659" borderId="1750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="956" fillId="1650" borderId="1754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="957" fillId="1662" borderId="1758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="958" fillId="1662" borderId="1758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="959" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="960" fillId="1665" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="961" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="962" fillId="1668" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37785,7 +38432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -37810,81 +38457,84 @@
         <v>510</v>
       </c>
       <c r="E1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>348</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>334</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>536</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>501</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>197</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>53</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>240</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>54</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>397</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>430</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>431</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>358</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>398</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>432</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -37902,81 +38552,84 @@
         <v>511</v>
       </c>
       <c r="E2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>471</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>80</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>491</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>316</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>385</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>436</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>537</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>504</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>437</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>438</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>254</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>218</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>399</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>442</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>443</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>382</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>408</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>451</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>515</v>
       </c>
     </row>
@@ -37993,76 +38646,76 @@
       <c r="D3" t="s">
         <v>547</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>479</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>366</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>89</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>502</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>350</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>342</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>335</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>538</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>505</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>439</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>241</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>219</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>400</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>444</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>383</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>409</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>365</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -38076,82 +38729,82 @@
       <c r="D4" t="s">
         <v>512</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>74</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>388</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>472</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>503</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>351</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>239</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>336</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>539</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>506</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>242</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>220</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>401</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>445</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>359</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>410</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>355</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>452</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>577</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
@@ -38159,73 +38812,73 @@
       <c r="D5" t="s">
         <v>513</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>480</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>459</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>574</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>477</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>551</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>352</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>485</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>549</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>243</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>221</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>402</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>446</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
-        <v>356</v>
-      </c>
       <c r="Z5" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>453</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
@@ -38233,1505 +38886,1513 @@
       <c r="D6" t="s">
         <v>514</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>527</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>337</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>469</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>349</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>73</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>543</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>244</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>392</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>403</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>362</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>465</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>454</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>225</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>389</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>468</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>555</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>544</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>245</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>441</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>404</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>361</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>466</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>455</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>319</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>367</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>329</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>528</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>545</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>92</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>246</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>405</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>363</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>456</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>368</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>330</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>81</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>550</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>93</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>247</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>406</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>364</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>316</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>307</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>473</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>38</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>540</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>440</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>248</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>407</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>258</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>191</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>256</v>
-      </c>
-      <c r="G11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" t="s">
+        <v>579</v>
+      </c>
+      <c r="H11" t="s">
         <v>353</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>323</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>529</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>496</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>541</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>94</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>249</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>259</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>260</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>334</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>320</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>275</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>324</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>391</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>556</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>542</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>41</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>250</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>192</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" t="s">
         <v>342</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>264</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>325</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>461</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>95</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>255</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>327</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>193</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>536</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>317</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>326</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>42</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>497</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>96</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>251</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>104</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>194</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>501</v>
-      </c>
-      <c r="E15" t="s">
+        <v>536</v>
+      </c>
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>265</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>530</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>524</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>252</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>195</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" t="s">
+        <v>501</v>
+      </c>
+      <c r="F16" t="s">
         <v>386</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>266</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>82</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>569</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>525</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>253</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" t="s">
         <v>387</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>318</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>83</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>526</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>486</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
         <v>433</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>90</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>478</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>43</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>106</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" t="s">
         <v>61</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>91</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>397</v>
-      </c>
-      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
         <v>62</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>297</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>430</v>
-      </c>
-      <c r="E21" t="s">
+        <v>397</v>
+      </c>
+      <c r="F21" t="s">
         <v>257</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>298</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>381</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>109</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>431</v>
-      </c>
-      <c r="E22" t="s">
+        <v>430</v>
+      </c>
+      <c r="F22" t="s">
         <v>565</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>299</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>495</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>507</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>358</v>
-      </c>
-      <c r="E23" t="s">
+        <v>431</v>
+      </c>
+      <c r="F23" t="s">
         <v>63</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>300</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>111</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>398</v>
-      </c>
-      <c r="E24" t="s">
+        <v>358</v>
+      </c>
+      <c r="F24" t="s">
         <v>322</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>291</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>393</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>570</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
+        <v>398</v>
+      </c>
+      <c r="F25" t="s">
         <v>64</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>280</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>548</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>112</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
         <v>470</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>77</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>113</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
         <v>226</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>283</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>460</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>114</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
         <v>227</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>267</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>432</v>
-      </c>
-      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
         <v>493</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>284</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>432</v>
+      </c>
+      <c r="F30" t="s">
+        <v>494</v>
+      </c>
+      <c r="H30" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>228</v>
       </c>
-      <c r="E30" t="s">
-        <v>494</v>
-      </c>
-      <c r="G30" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>434</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>217</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>65</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>276</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>66</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>286</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>67</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>532</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>68</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>261</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>69</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>331</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>70</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>308</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>71</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>262</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>72</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>309</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>268</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>79</v>
       </c>
-      <c r="Y41" t="s">
-        <v>552</v>
+      <c r="Z41" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>213</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>567</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>290</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>301</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>302</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>344</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>343</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>212</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>321</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>340</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>369</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>303</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>357</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>332</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>269</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>293</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>294</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>568</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>295</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>304</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>313</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>338</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>310</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>311</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>370</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>371</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>346</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>314</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>270</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>553</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>315</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>411</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>305</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>412</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>263</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>533</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>345</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>281</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>287</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>292</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>435</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>333</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>271</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>282</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>288</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>277</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>554</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>272</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>289</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>273</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>274</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>306</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>312</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>296</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>341</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>278</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>279</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30652" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31213" uniqueCount="583">
   <si>
     <t>description</t>
   </si>
@@ -1824,7 +1824,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="963" x14ac:knownFonts="1">
+  <fonts count="979" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7894,8 +7894,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1669">
+  <fills count="1696">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17349,8 +17450,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1759">
+  <borders count="1791">
     <border>
       <left/>
       <right/>
@@ -31028,6 +31282,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -35125,7 +35705,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="989">
+  <cellXfs count="1005">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -38062,52 +38642,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1641" fontId="946" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="947" fillId="1644" borderId="1734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="948" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1734" fillId="1644" fontId="947" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="948" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="949" fillId="1647" borderId="1738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1738" fillId="1647" fontId="949" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="950" fillId="1650" borderId="1742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1742" fillId="1650" fontId="950" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="951" fillId="1653" borderId="1746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1746" fillId="1653" fontId="951" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="952" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="952" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="953" fillId="1656" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1656" fontId="953" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="954" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="955" fillId="1659" borderId="1750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="956" fillId="1650" borderId="1754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="957" fillId="1662" borderId="1758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="958" fillId="1662" borderId="1758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="959" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="960" fillId="1665" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="961" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="962" fillId="1668" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="954" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1750" fillId="1659" fontId="955" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1754" fillId="1650" fontId="956" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1758" fillId="1662" fontId="957" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1758" fillId="1662" fontId="958" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1653" fontId="959" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1665" fontId="960" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1653" fontId="961" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1668" fontId="962" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="963" fillId="1671" borderId="1766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="964" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="965" fillId="1674" borderId="1770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="966" fillId="1677" borderId="1774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="967" fillId="1680" borderId="1778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="968" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="969" fillId="1683" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="970" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="971" fillId="1686" borderId="1782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="972" fillId="1677" borderId="1786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="973" fillId="1689" borderId="1790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="974" fillId="1689" borderId="1790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="975" fillId="1680" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="976" fillId="1692" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="977" fillId="1680" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="978" fillId="1695" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31213" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32337" uniqueCount="585">
   <si>
     <t>description</t>
   </si>
@@ -1817,6 +1817,12 @@
   </si>
   <si>
     <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1830,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="979" x14ac:knownFonts="1">
+  <fonts count="1011" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7995,8 +8001,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1696">
+  <fills count="1750">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17603,8 +17811,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1791">
+  <borders count="1855">
     <border>
       <left/>
       <right/>
@@ -31282,6 +31796,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -35705,7 +36871,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1005">
+  <cellXfs count="1037">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -38690,52 +39856,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1668" fontId="962" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="963" fillId="1671" borderId="1766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="964" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1766" fillId="1671" fontId="963" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="964" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="965" fillId="1674" borderId="1770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1770" fillId="1674" fontId="965" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="966" fillId="1677" borderId="1774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1774" fillId="1677" fontId="966" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="967" fillId="1680" borderId="1778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1778" fillId="1680" fontId="967" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="968" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="968" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="969" fillId="1683" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1683" fontId="969" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="970" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="971" fillId="1686" borderId="1782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="972" fillId="1677" borderId="1786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="973" fillId="1689" borderId="1790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="974" fillId="1689" borderId="1790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="975" fillId="1680" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="976" fillId="1692" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="977" fillId="1680" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="978" fillId="1695" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="970" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1782" fillId="1686" fontId="971" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1786" fillId="1677" fontId="972" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1790" fillId="1689" fontId="973" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1790" fillId="1689" fontId="974" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1680" fontId="975" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1692" fontId="976" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1680" fontId="977" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1695" fontId="978" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1798" fillId="1698" fontId="979" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="980" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1802" fillId="1701" fontId="981" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1806" fillId="1704" fontId="982" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1810" fillId="1707" fontId="983" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="984" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1710" fontId="985" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="986" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1814" fillId="1713" fontId="987" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1818" fillId="1704" fontId="988" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1822" fillId="1716" fontId="989" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1822" fillId="1716" fontId="990" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1707" fontId="991" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1719" fontId="992" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1707" fontId="993" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1722" fontId="994" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="995" fillId="1725" borderId="1830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="996" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="997" fillId="1728" borderId="1834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="998" fillId="1731" borderId="1838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="999" fillId="1734" borderId="1842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1000" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1001" fillId="1737" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1002" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1003" fillId="1740" borderId="1846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1004" fillId="1731" borderId="1850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1005" fillId="1743" borderId="1854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1006" fillId="1743" borderId="1854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1007" fillId="1734" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1008" fillId="1746" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1009" fillId="1734" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1010" fillId="1749" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -40019,7 +41281,7 @@
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="H18" t="s">
         <v>90</v>
@@ -40042,7 +41304,7 @@
         <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>433</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
@@ -40062,7 +41324,7 @@
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>297</v>
@@ -40082,13 +41344,13 @@
         <v>397</v>
       </c>
       <c r="F21" t="s">
-        <v>257</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
         <v>298</v>
       </c>
       <c r="L21" t="s">
-        <v>381</v>
+        <v>584</v>
       </c>
       <c r="Z21" t="s">
         <v>109</v>
@@ -40102,7 +41364,7 @@
         <v>430</v>
       </c>
       <c r="F22" t="s">
-        <v>565</v>
+        <v>257</v>
       </c>
       <c r="H22" t="s">
         <v>299</v>
@@ -40122,7 +41384,7 @@
         <v>431</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>565</v>
       </c>
       <c r="H23" t="s">
         <v>300</v>
@@ -40142,7 +41404,7 @@
         <v>358</v>
       </c>
       <c r="F24" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
         <v>291</v>
@@ -40162,7 +41424,7 @@
         <v>398</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="H25" t="s">
         <v>280</v>
@@ -40182,7 +41444,7 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>470</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
@@ -40202,7 +41464,7 @@
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>226</v>
+        <v>470</v>
       </c>
       <c r="H27" t="s">
         <v>283</v>
@@ -40222,7 +41484,7 @@
         <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H28" t="s">
         <v>267</v>
@@ -40239,7 +41501,7 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>493</v>
+        <v>227</v>
       </c>
       <c r="H29" t="s">
         <v>284</v>
@@ -40256,7 +41518,7 @@
         <v>432</v>
       </c>
       <c r="F30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H30" t="s">
         <v>285</v>
@@ -40270,7 +41532,7 @@
         <v>228</v>
       </c>
       <c r="F31" t="s">
-        <v>434</v>
+        <v>494</v>
       </c>
       <c r="H31" t="s">
         <v>217</v>
@@ -40281,7 +41543,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>65</v>
+        <v>434</v>
       </c>
       <c r="H32" t="s">
         <v>276</v>
@@ -40292,7 +41554,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>286</v>
@@ -40303,7 +41565,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>532</v>
@@ -40314,7 +41576,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>261</v>
@@ -40325,7 +41587,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>331</v>
@@ -40336,7 +41598,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>308</v>
@@ -40347,7 +41609,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>262</v>
@@ -40358,7 +41620,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>309</v>
@@ -40368,6 +41630,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>72</v>
+      </c>
       <c r="H40" t="s">
         <v>268</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -18,15 +18,15 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32337" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32902" uniqueCount="590">
   <si>
     <t>description</t>
   </si>
@@ -1823,6 +1823,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1845,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1011" x14ac:knownFonts="1">
+  <fonts count="1027" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8203,8 +8218,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1750">
+  <fills count="1777">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18117,8 +18233,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1855">
+  <borders count="1887">
     <border>
       <left/>
       <right/>
@@ -31796,6 +32065,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -36871,7 +37466,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1037">
+  <cellXfs count="1053">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -39952,52 +40547,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1722" fontId="994" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="995" fillId="1725" borderId="1830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="996" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1830" fillId="1725" fontId="995" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="996" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="997" fillId="1728" borderId="1834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1834" fillId="1728" fontId="997" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="998" fillId="1731" borderId="1838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1838" fillId="1731" fontId="998" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="999" fillId="1734" borderId="1842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1842" fillId="1734" fontId="999" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1000" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1000" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1001" fillId="1737" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1737" fontId="1001" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1002" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1003" fillId="1740" borderId="1846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1004" fillId="1731" borderId="1850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1005" fillId="1743" borderId="1854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1006" fillId="1743" borderId="1854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1007" fillId="1734" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1008" fillId="1746" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1009" fillId="1734" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1010" fillId="1749" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1002" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1846" fillId="1740" fontId="1003" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1850" fillId="1731" fontId="1004" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1854" fillId="1743" fontId="1005" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1854" fillId="1743" fontId="1006" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1734" fontId="1007" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1746" fontId="1008" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1734" fontId="1009" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1749" fontId="1010" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1011" fillId="1752" borderId="1862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1012" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1013" fillId="1755" borderId="1866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1014" fillId="1758" borderId="1870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1015" fillId="1761" borderId="1874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1016" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1017" fillId="1764" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1018" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1019" fillId="1767" borderId="1878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1020" fillId="1758" borderId="1882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1021" fillId="1770" borderId="1886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1022" fillId="1770" borderId="1886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1023" fillId="1761" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1024" fillId="1773" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1025" fillId="1761" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1026" fillId="1776" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -40322,7 +40965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -40638,7 +41281,7 @@
         <v>351</v>
       </c>
       <c r="L4" t="s">
-        <v>239</v>
+        <v>586</v>
       </c>
       <c r="M4" t="s">
         <v>336</v>
@@ -40674,7 +41317,7 @@
         <v>410</v>
       </c>
       <c r="Z4" t="s">
-        <v>355</v>
+        <v>587</v>
       </c>
       <c r="AA4" t="s">
         <v>174</v>
@@ -40721,7 +41364,7 @@
         <v>352</v>
       </c>
       <c r="L5" t="s">
-        <v>485</v>
+        <v>239</v>
       </c>
       <c r="N5" t="s">
         <v>88</v>
@@ -40788,11 +41431,14 @@
       <c r="I6" t="s">
         <v>469</v>
       </c>
+      <c r="J6" t="s">
+        <v>585</v>
+      </c>
       <c r="K6" t="s">
         <v>349</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>485</v>
       </c>
       <c r="N6" t="s">
         <v>29</v>
@@ -40854,7 +41500,7 @@
         <v>555</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s">
         <v>316</v>
@@ -40913,7 +41559,7 @@
         <v>329</v>
       </c>
       <c r="L8" t="s">
-        <v>528</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>34</v>
@@ -40969,7 +41615,7 @@
         <v>330</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>528</v>
       </c>
       <c r="N9" t="s">
         <v>35</v>
@@ -41013,7 +41659,7 @@
         <v>473</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -41054,7 +41700,7 @@
         <v>323</v>
       </c>
       <c r="L11" t="s">
-        <v>529</v>
+        <v>38</v>
       </c>
       <c r="N11" t="s">
         <v>496</v>
@@ -41092,7 +41738,7 @@
         <v>324</v>
       </c>
       <c r="L12" t="s">
-        <v>391</v>
+        <v>529</v>
       </c>
       <c r="N12" t="s">
         <v>556</v>
@@ -41130,7 +41776,7 @@
         <v>325</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>391</v>
       </c>
       <c r="N13" t="s">
         <v>461</v>
@@ -41165,7 +41811,7 @@
         <v>326</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>497</v>
@@ -41197,7 +41843,7 @@
         <v>265</v>
       </c>
       <c r="L15" t="s">
-        <v>530</v>
+        <v>42</v>
       </c>
       <c r="N15" t="s">
         <v>39</v>
@@ -41229,7 +41875,7 @@
         <v>266</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>530</v>
       </c>
       <c r="N16" t="s">
         <v>569</v>
@@ -41261,7 +41907,7 @@
         <v>318</v>
       </c>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
         <v>40</v>
@@ -41281,13 +41927,13 @@
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>583</v>
+        <v>433</v>
       </c>
       <c r="H18" t="s">
         <v>90</v>
       </c>
       <c r="L18" t="s">
-        <v>478</v>
+        <v>83</v>
       </c>
       <c r="N18" t="s">
         <v>43</v>
@@ -41304,13 +41950,13 @@
         <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>433</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>478</v>
       </c>
       <c r="Z19" t="s">
         <v>107</v>
@@ -41324,13 +41970,13 @@
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
         <v>297</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z20" t="s">
         <v>108</v>
@@ -41344,13 +41990,13 @@
         <v>397</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="H21" t="s">
         <v>298</v>
       </c>
       <c r="L21" t="s">
-        <v>584</v>
+        <v>85</v>
       </c>
       <c r="Z21" t="s">
         <v>109</v>
@@ -41364,13 +42010,13 @@
         <v>430</v>
       </c>
       <c r="F22" t="s">
-        <v>257</v>
+        <v>565</v>
       </c>
       <c r="H22" t="s">
         <v>299</v>
       </c>
       <c r="L22" t="s">
-        <v>495</v>
+        <v>584</v>
       </c>
       <c r="Z22" t="s">
         <v>507</v>
@@ -41384,13 +42030,13 @@
         <v>431</v>
       </c>
       <c r="F23" t="s">
-        <v>565</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
         <v>300</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>495</v>
       </c>
       <c r="Z23" t="s">
         <v>111</v>
@@ -41404,13 +42050,13 @@
         <v>358</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>322</v>
       </c>
       <c r="H24" t="s">
         <v>291</v>
       </c>
       <c r="L24" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="Z24" t="s">
         <v>570</v>
@@ -41424,13 +42070,13 @@
         <v>398</v>
       </c>
       <c r="F25" t="s">
-        <v>322</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
         <v>280</v>
       </c>
       <c r="L25" t="s">
-        <v>548</v>
+        <v>393</v>
       </c>
       <c r="Z25" t="s">
         <v>112</v>
@@ -41444,13 +42090,13 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>470</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
       </c>
       <c r="L26" t="s">
-        <v>86</v>
+        <v>548</v>
       </c>
       <c r="Z26" t="s">
         <v>113</v>
@@ -41464,13 +42110,13 @@
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>470</v>
+        <v>226</v>
       </c>
       <c r="H27" t="s">
         <v>283</v>
       </c>
       <c r="L27" t="s">
-        <v>460</v>
+        <v>86</v>
       </c>
       <c r="Z27" t="s">
         <v>114</v>
@@ -41484,13 +42130,13 @@
         <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H28" t="s">
         <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="Z28" t="s">
         <v>115</v>
@@ -41501,13 +42147,13 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>227</v>
+        <v>493</v>
       </c>
       <c r="H29" t="s">
         <v>284</v>
       </c>
       <c r="L29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s">
         <v>328</v>
@@ -41518,10 +42164,13 @@
         <v>432</v>
       </c>
       <c r="F30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H30" t="s">
         <v>285</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
       </c>
       <c r="Z30" t="s">
         <v>116</v>
@@ -41532,7 +42181,7 @@
         <v>228</v>
       </c>
       <c r="F31" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="H31" t="s">
         <v>217</v>
@@ -41543,7 +42192,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>434</v>
+        <v>65</v>
       </c>
       <c r="H32" t="s">
         <v>276</v>
@@ -41554,7 +42203,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H33" t="s">
         <v>286</v>
@@ -41565,7 +42214,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H34" t="s">
         <v>532</v>
@@ -41576,7 +42225,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
         <v>261</v>
@@ -41587,7 +42236,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H36" t="s">
         <v>331</v>
@@ -41598,7 +42247,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
         <v>308</v>
@@ -41609,7 +42258,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
         <v>262</v>
@@ -41620,7 +42269,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s">
         <v>309</v>
@@ -41630,9 +42279,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>72</v>
-      </c>
       <c r="H40" t="s">
         <v>268</v>
       </c>
@@ -42106,186 +42752,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>457</v>
+        <v>588</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>205</v>
+        <v>589</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>206</v>
+        <v>457</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>531</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>582</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>150</v>
+        <v>582</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>151</v>
+        <v>535</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>464</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>572</v>
+        <v>464</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>166</v>
+        <v>572</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32902" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33467" uniqueCount="590">
   <si>
     <t>description</t>
   </si>
@@ -1845,7 +1845,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1027" x14ac:knownFonts="1">
+  <fonts count="1043" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8319,8 +8319,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1777">
+  <fills count="1804">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18386,8 +18487,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1887">
+  <borders count="1919">
     <border>
       <left/>
       <right/>
@@ -32065,6 +32319,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -37466,7 +38046,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1053">
+  <cellXfs count="1069">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -40595,52 +41175,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1749" fontId="1010" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1011" fillId="1752" borderId="1862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1012" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1862" fillId="1752" fontId="1011" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1012" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1013" fillId="1755" borderId="1866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1866" fillId="1755" fontId="1013" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1014" fillId="1758" borderId="1870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1870" fillId="1758" fontId="1014" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1015" fillId="1761" borderId="1874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1874" fillId="1761" fontId="1015" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1016" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1016" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1017" fillId="1764" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1764" fontId="1017" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1018" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1019" fillId="1767" borderId="1878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1020" fillId="1758" borderId="1882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1021" fillId="1770" borderId="1886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1022" fillId="1770" borderId="1886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1023" fillId="1761" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1024" fillId="1773" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1025" fillId="1761" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1026" fillId="1776" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1018" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1878" fillId="1767" fontId="1019" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1882" fillId="1758" fontId="1020" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1886" fillId="1770" fontId="1021" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1886" fillId="1770" fontId="1022" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1761" fontId="1023" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1773" fontId="1024" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1761" fontId="1025" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1776" fontId="1026" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1027" fillId="1779" borderId="1894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1028" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1029" fillId="1782" borderId="1898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1030" fillId="1785" borderId="1902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1031" fillId="1788" borderId="1906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1032" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1033" fillId="1791" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1034" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1035" fillId="1794" borderId="1910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1036" fillId="1785" borderId="1914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1037" fillId="1797" borderId="1918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1038" fillId="1797" borderId="1918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1039" fillId="1788" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1040" fillId="1800" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1041" fillId="1788" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1042" fillId="1803" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33467" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34599" uniqueCount="591">
   <si>
     <t>description</t>
   </si>
@@ -1838,6 +1838,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1848,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1043" x14ac:knownFonts="1">
+  <fonts count="1075" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8420,8 +8423,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1804">
+  <fills count="1858">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18640,8 +18845,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1919">
+  <borders count="1983">
     <border>
       <left/>
       <right/>
@@ -32319,6 +32830,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -38046,7 +39209,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1069">
+  <cellXfs count="1101">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -41223,52 +42386,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1776" fontId="1026" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1027" fillId="1779" borderId="1894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1028" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1894" fillId="1779" fontId="1027" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1028" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1029" fillId="1782" borderId="1898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1898" fillId="1782" fontId="1029" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1030" fillId="1785" borderId="1902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1902" fillId="1785" fontId="1030" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1031" fillId="1788" borderId="1906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1906" fillId="1788" fontId="1031" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1032" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1032" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1033" fillId="1791" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1791" fontId="1033" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1034" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1035" fillId="1794" borderId="1910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1036" fillId="1785" borderId="1914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1037" fillId="1797" borderId="1918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1038" fillId="1797" borderId="1918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1039" fillId="1788" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1040" fillId="1800" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1041" fillId="1788" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1042" fillId="1803" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1034" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1910" fillId="1794" fontId="1035" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1914" fillId="1785" fontId="1036" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1918" fillId="1797" fontId="1037" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1918" fillId="1797" fontId="1038" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1788" fontId="1039" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1800" fontId="1040" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1788" fontId="1041" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1803" fontId="1042" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1926" fillId="1806" fontId="1043" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1044" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1930" fillId="1809" fontId="1045" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1934" fillId="1812" fontId="1046" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1938" fillId="1815" fontId="1047" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1048" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1818" fontId="1049" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1050" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1942" fillId="1821" fontId="1051" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1946" fillId="1812" fontId="1052" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1950" fillId="1824" fontId="1053" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1950" fillId="1824" fontId="1054" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1815" fontId="1055" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1827" fontId="1056" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1815" fontId="1057" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1830" fontId="1058" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1059" fillId="1833" borderId="1958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1060" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1061" fillId="1836" borderId="1962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1062" fillId="1839" borderId="1966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1063" fillId="1842" borderId="1970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1064" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1065" fillId="1845" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1066" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1067" fillId="1848" borderId="1974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1068" fillId="1839" borderId="1978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1069" fillId="1851" borderId="1982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1070" fillId="1851" borderId="1982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1071" fillId="1842" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1072" fillId="1854" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1073" fillId="1842" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1074" fillId="1857" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -41593,7 +42852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -43303,7 +44562,7 @@
         <v>272</v>
       </c>
       <c r="Z89" t="s">
-        <v>201</v>
+        <v>590</v>
       </c>
     </row>
     <row r="90">
@@ -43311,7 +44570,7 @@
         <v>289</v>
       </c>
       <c r="Z90" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91">
@@ -43319,7 +44578,7 @@
         <v>273</v>
       </c>
       <c r="Z91" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92">
@@ -43327,7 +44586,7 @@
         <v>274</v>
       </c>
       <c r="Z92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93">
@@ -43335,7 +44594,7 @@
         <v>306</v>
       </c>
       <c r="Z93" t="s">
-        <v>575</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94">
@@ -43343,7 +44602,7 @@
         <v>312</v>
       </c>
       <c r="Z94" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="95">
@@ -43351,7 +44610,7 @@
         <v>296</v>
       </c>
       <c r="Z95" t="s">
-        <v>216</v>
+        <v>576</v>
       </c>
     </row>
     <row r="96">
@@ -43359,7 +44618,7 @@
         <v>341</v>
       </c>
       <c r="Z96" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97">
@@ -43367,7 +44626,7 @@
         <v>278</v>
       </c>
       <c r="Z97" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
@@ -43375,201 +44634,206 @@
         <v>279</v>
       </c>
       <c r="Z98" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>588</v>
+        <v>449</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>457</v>
+        <v>589</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>531</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>582</v>
+        <v>531</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>534</v>
+        <v>582</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>150</v>
+        <v>534</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>535</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>384</v>
+        <v>535</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>572</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>165</v>
+        <v>572</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34599" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35165" uniqueCount="591">
   <si>
     <t>description</t>
   </si>
@@ -1848,7 +1848,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1075" x14ac:knownFonts="1">
+  <fonts count="1091" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8625,8 +8625,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1858">
+  <fills count="1885">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19151,8 +19252,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1983">
+  <borders count="2015">
     <border>
       <left/>
       <right/>
@@ -32830,6 +33084,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -39209,7 +39789,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1101">
+  <cellXfs count="1117">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -42482,52 +43062,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1830" fontId="1058" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1059" fillId="1833" borderId="1958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1060" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1958" fillId="1833" fontId="1059" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1060" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1061" fillId="1836" borderId="1962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1962" fillId="1836" fontId="1061" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1062" fillId="1839" borderId="1966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1966" fillId="1839" fontId="1062" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1063" fillId="1842" borderId="1970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1970" fillId="1842" fontId="1063" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1064" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1064" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1065" fillId="1845" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1845" fontId="1065" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1066" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1067" fillId="1848" borderId="1974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1068" fillId="1839" borderId="1978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1069" fillId="1851" borderId="1982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1070" fillId="1851" borderId="1982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1071" fillId="1842" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1072" fillId="1854" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1073" fillId="1842" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1074" fillId="1857" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1066" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1974" fillId="1848" fontId="1067" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1978" fillId="1839" fontId="1068" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1982" fillId="1851" fontId="1069" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1982" fillId="1851" fontId="1070" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1842" fontId="1071" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1854" fontId="1072" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1842" fontId="1073" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1857" fontId="1074" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1075" fillId="1860" borderId="1990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1076" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1077" fillId="1863" borderId="1994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1078" fillId="1866" borderId="1998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1079" fillId="1869" borderId="2002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1080" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1081" fillId="1872" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1082" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1083" fillId="1875" borderId="2006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1084" fillId="1866" borderId="2010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1085" fillId="1878" borderId="2014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1086" fillId="1878" borderId="2014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1087" fillId="1869" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1088" fillId="1881" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1089" fillId="1869" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1090" fillId="1884" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -34,7 +34,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -42,9 +42,9 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35165" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35741" uniqueCount="601">
   <si>
     <t>description</t>
   </si>
@@ -1841,6 +1841,36 @@
   </si>
   <si>
     <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1878,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1091" x14ac:knownFonts="1">
+  <fonts count="1107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8726,8 +8756,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1885">
+  <fills count="1912">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19405,8 +19536,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2015">
+  <borders count="2047">
     <border>
       <left/>
       <right/>
@@ -33084,6 +33368,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -39789,7 +40399,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1117">
+  <cellXfs count="1133">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -43110,52 +43720,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1857" fontId="1074" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1075" fillId="1860" borderId="1990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1076" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1990" fillId="1860" fontId="1075" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1076" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1077" fillId="1863" borderId="1994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1994" fillId="1863" fontId="1077" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1078" fillId="1866" borderId="1998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1998" fillId="1866" fontId="1078" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1079" fillId="1869" borderId="2002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2002" fillId="1869" fontId="1079" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1080" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1080" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1081" fillId="1872" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1872" fontId="1081" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1082" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1083" fillId="1875" borderId="2006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1084" fillId="1866" borderId="2010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1085" fillId="1878" borderId="2014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1086" fillId="1878" borderId="2014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1087" fillId="1869" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1088" fillId="1881" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1089" fillId="1869" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1090" fillId="1884" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1082" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2006" fillId="1875" fontId="1083" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2010" fillId="1866" fontId="1084" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2014" fillId="1878" fontId="1085" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2014" fillId="1878" fontId="1086" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1869" fontId="1087" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1881" fontId="1088" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1869" fontId="1089" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1884" fontId="1090" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1091" fillId="1887" borderId="2022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1092" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1093" fillId="1890" borderId="2026" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1094" fillId="1893" borderId="2030" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1095" fillId="1896" borderId="2034" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1096" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1097" fillId="1899" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1098" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1099" fillId="1902" borderId="2038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1100" fillId="1893" borderId="2042" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1101" fillId="1905" borderId="2046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1102" fillId="1905" borderId="2046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1103" fillId="1896" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1104" fillId="1908" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1105" fillId="1896" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1106" fillId="1911" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -43480,7 +44138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -43912,7 +44570,7 @@
         <v>175</v>
       </c>
       <c r="AB5" t="s">
-        <v>180</v>
+        <v>599</v>
       </c>
       <c r="AC5" t="s">
         <v>186</v>
@@ -43983,7 +44641,7 @@
         <v>465</v>
       </c>
       <c r="AB6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC6" t="s">
         <v>187</v>
@@ -44045,7 +44703,7 @@
         <v>466</v>
       </c>
       <c r="AB7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC7" t="s">
         <v>188</v>
@@ -44101,7 +44759,7 @@
         <v>176</v>
       </c>
       <c r="AB8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AC8" t="s">
         <v>189</v>
@@ -44153,6 +44811,9 @@
       <c r="Z9" t="s">
         <v>210</v>
       </c>
+      <c r="AB9" t="s">
+        <v>183</v>
+      </c>
       <c r="AC9" t="s">
         <v>190</v>
       </c>
@@ -44171,7 +44832,7 @@
         <v>307</v>
       </c>
       <c r="I10" t="s">
-        <v>473</v>
+        <v>591</v>
       </c>
       <c r="L10" t="s">
         <v>81</v>
@@ -44193,6 +44854,9 @@
       </c>
       <c r="Z10" t="s">
         <v>258</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>600</v>
       </c>
       <c r="AC10" t="s">
         <v>191</v>
@@ -44212,7 +44876,7 @@
         <v>353</v>
       </c>
       <c r="I11" t="s">
-        <v>323</v>
+        <v>473</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
@@ -44250,7 +44914,7 @@
         <v>275</v>
       </c>
       <c r="I12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L12" t="s">
         <v>529</v>
@@ -44288,7 +44952,7 @@
         <v>264</v>
       </c>
       <c r="I13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L13" t="s">
         <v>391</v>
@@ -44300,7 +44964,7 @@
         <v>95</v>
       </c>
       <c r="S13" t="s">
-        <v>255</v>
+        <v>592</v>
       </c>
       <c r="Z13" t="s">
         <v>327</v>
@@ -44323,7 +44987,7 @@
         <v>317</v>
       </c>
       <c r="I14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -44335,7 +44999,7 @@
         <v>96</v>
       </c>
       <c r="S14" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Z14" t="s">
         <v>104</v>
@@ -44357,6 +45021,9 @@
       <c r="H15" t="s">
         <v>265</v>
       </c>
+      <c r="I15" t="s">
+        <v>326</v>
+      </c>
       <c r="L15" t="s">
         <v>42</v>
       </c>
@@ -44367,10 +45034,10 @@
         <v>524</v>
       </c>
       <c r="S15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z15" t="s">
-        <v>105</v>
+        <v>593</v>
       </c>
       <c r="AC15" t="s">
         <v>195</v>
@@ -44399,10 +45066,10 @@
         <v>525</v>
       </c>
       <c r="S16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z16" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="AC16" t="s">
         <v>196</v>
@@ -44427,8 +45094,11 @@
       <c r="N17" t="s">
         <v>40</v>
       </c>
+      <c r="S17" t="s">
+        <v>253</v>
+      </c>
       <c r="Z17" t="s">
-        <v>526</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s">
         <v>486</v>
@@ -44454,7 +45124,7 @@
         <v>43</v>
       </c>
       <c r="Z18" t="s">
-        <v>106</v>
+        <v>526</v>
       </c>
       <c r="AE18" t="s">
         <v>500</v>
@@ -44474,7 +45144,7 @@
         <v>478</v>
       </c>
       <c r="Z19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE19" t="s">
         <v>518</v>
@@ -44494,7 +45164,7 @@
         <v>84</v>
       </c>
       <c r="Z20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE20" t="s">
         <v>519</v>
@@ -44514,7 +45184,7 @@
         <v>85</v>
       </c>
       <c r="Z21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE21" t="s">
         <v>523</v>
@@ -44534,7 +45204,7 @@
         <v>584</v>
       </c>
       <c r="Z22" t="s">
-        <v>507</v>
+        <v>109</v>
       </c>
       <c r="AE22" t="s">
         <v>236</v>
@@ -44554,7 +45224,7 @@
         <v>495</v>
       </c>
       <c r="Z23" t="s">
-        <v>111</v>
+        <v>507</v>
       </c>
       <c r="AE23" t="s">
         <v>561</v>
@@ -44574,7 +45244,7 @@
         <v>44</v>
       </c>
       <c r="Z24" t="s">
-        <v>570</v>
+        <v>111</v>
       </c>
       <c r="AE24" t="s">
         <v>562</v>
@@ -44594,7 +45264,7 @@
         <v>393</v>
       </c>
       <c r="Z25" t="s">
-        <v>112</v>
+        <v>570</v>
       </c>
       <c r="AE25" t="s">
         <v>563</v>
@@ -44614,7 +45284,7 @@
         <v>548</v>
       </c>
       <c r="Z26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE26" t="s">
         <v>237</v>
@@ -44634,7 +45304,7 @@
         <v>86</v>
       </c>
       <c r="Z27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AE27" t="s">
         <v>238</v>
@@ -44654,7 +45324,7 @@
         <v>460</v>
       </c>
       <c r="Z28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -44671,7 +45341,7 @@
         <v>45</v>
       </c>
       <c r="Z29" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
@@ -44688,7 +45358,7 @@
         <v>46</v>
       </c>
       <c r="Z30" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31">
@@ -44702,7 +45372,7 @@
         <v>217</v>
       </c>
       <c r="Z31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
@@ -44713,7 +45383,7 @@
         <v>276</v>
       </c>
       <c r="Z32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
@@ -44724,7 +45394,7 @@
         <v>286</v>
       </c>
       <c r="Z33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
@@ -44735,7 +45405,7 @@
         <v>532</v>
       </c>
       <c r="Z34" t="s">
-        <v>571</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
@@ -44746,7 +45416,7 @@
         <v>261</v>
       </c>
       <c r="Z35" t="s">
-        <v>120</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36">
@@ -44757,7 +45427,7 @@
         <v>331</v>
       </c>
       <c r="Z36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -44768,7 +45438,7 @@
         <v>308</v>
       </c>
       <c r="Z37" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
@@ -44779,7 +45449,7 @@
         <v>262</v>
       </c>
       <c r="Z38" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39">
@@ -44790,7 +45460,7 @@
         <v>309</v>
       </c>
       <c r="Z39" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
@@ -44798,7 +45468,7 @@
         <v>268</v>
       </c>
       <c r="Z40" t="s">
-        <v>447</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41">
@@ -44806,7 +45476,7 @@
         <v>79</v>
       </c>
       <c r="Z41" t="s">
-        <v>581</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42">
@@ -44814,7 +45484,7 @@
         <v>213</v>
       </c>
       <c r="Z42" t="s">
-        <v>394</v>
+        <v>581</v>
       </c>
     </row>
     <row r="43">
@@ -44822,7 +45492,7 @@
         <v>567</v>
       </c>
       <c r="Z43" t="s">
-        <v>123</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44">
@@ -44830,7 +45500,7 @@
         <v>290</v>
       </c>
       <c r="Z44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
@@ -44838,7 +45508,7 @@
         <v>301</v>
       </c>
       <c r="Z45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -44846,7 +45516,7 @@
         <v>302</v>
       </c>
       <c r="Z46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
@@ -44854,7 +45524,7 @@
         <v>344</v>
       </c>
       <c r="Z47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48">
@@ -44862,7 +45532,7 @@
         <v>343</v>
       </c>
       <c r="Z48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
@@ -44870,7 +45540,7 @@
         <v>212</v>
       </c>
       <c r="Z49" t="s">
-        <v>462</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
@@ -44878,7 +45548,7 @@
         <v>321</v>
       </c>
       <c r="Z50" t="s">
-        <v>214</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51">
@@ -44886,7 +45556,7 @@
         <v>340</v>
       </c>
       <c r="Z51" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52">
@@ -44894,7 +45564,7 @@
         <v>369</v>
       </c>
       <c r="Z52" t="s">
-        <v>557</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
@@ -44902,7 +45572,7 @@
         <v>303</v>
       </c>
       <c r="Z53" t="s">
-        <v>129</v>
+        <v>557</v>
       </c>
     </row>
     <row r="54">
@@ -44910,7 +45580,7 @@
         <v>357</v>
       </c>
       <c r="Z54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
@@ -44918,7 +45588,7 @@
         <v>332</v>
       </c>
       <c r="Z55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56">
@@ -44926,7 +45596,7 @@
         <v>269</v>
       </c>
       <c r="Z56" t="s">
-        <v>508</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57">
@@ -44934,7 +45604,7 @@
         <v>293</v>
       </c>
       <c r="Z57" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58">
@@ -44942,7 +45612,7 @@
         <v>294</v>
       </c>
       <c r="Z58" t="s">
-        <v>132</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59">
@@ -44950,7 +45620,7 @@
         <v>568</v>
       </c>
       <c r="Z59" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60">
@@ -44958,7 +45628,7 @@
         <v>295</v>
       </c>
       <c r="Z60" t="s">
-        <v>481</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61">
@@ -44966,7 +45636,7 @@
         <v>304</v>
       </c>
       <c r="Z61" t="s">
-        <v>133</v>
+        <v>481</v>
       </c>
     </row>
     <row r="62">
@@ -44974,7 +45644,7 @@
         <v>313</v>
       </c>
       <c r="Z62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63">
@@ -44982,7 +45652,7 @@
         <v>338</v>
       </c>
       <c r="Z63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64">
@@ -44990,7 +45660,7 @@
         <v>310</v>
       </c>
       <c r="Z64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
@@ -44998,7 +45668,7 @@
         <v>311</v>
       </c>
       <c r="Z65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66">
@@ -45006,7 +45676,7 @@
         <v>370</v>
       </c>
       <c r="Z66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67">
@@ -45014,7 +45684,7 @@
         <v>371</v>
       </c>
       <c r="Z67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68">
@@ -45022,7 +45692,7 @@
         <v>346</v>
       </c>
       <c r="Z68" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69">
@@ -45030,7 +45700,7 @@
         <v>314</v>
       </c>
       <c r="Z69" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70">
@@ -45038,7 +45708,7 @@
         <v>270</v>
       </c>
       <c r="Z70" t="s">
-        <v>215</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71">
@@ -45046,7 +45716,7 @@
         <v>553</v>
       </c>
       <c r="Z71" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72">
@@ -45054,7 +45724,7 @@
         <v>315</v>
       </c>
       <c r="Z72" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="73">
@@ -45062,7 +45732,7 @@
         <v>411</v>
       </c>
       <c r="Z73" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74">
@@ -45070,7 +45740,7 @@
         <v>305</v>
       </c>
       <c r="Z74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75">
@@ -45078,7 +45748,7 @@
         <v>412</v>
       </c>
       <c r="Z75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76">
@@ -45086,7 +45756,7 @@
         <v>263</v>
       </c>
       <c r="Z76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77">
@@ -45094,7 +45764,7 @@
         <v>533</v>
       </c>
       <c r="Z77" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78">
@@ -45102,7 +45772,7 @@
         <v>345</v>
       </c>
       <c r="Z78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79">
@@ -45110,7 +45780,7 @@
         <v>281</v>
       </c>
       <c r="Z79" t="s">
-        <v>476</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80">
@@ -45118,7 +45788,7 @@
         <v>287</v>
       </c>
       <c r="Z80" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81">
@@ -45126,7 +45796,7 @@
         <v>292</v>
       </c>
       <c r="Z81" t="s">
-        <v>144</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82">
@@ -45134,7 +45804,7 @@
         <v>435</v>
       </c>
       <c r="Z82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83">
@@ -45142,7 +45812,7 @@
         <v>333</v>
       </c>
       <c r="Z83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84">
@@ -45150,7 +45820,7 @@
         <v>271</v>
       </c>
       <c r="Z84" t="s">
-        <v>520</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85">
@@ -45158,7 +45828,7 @@
         <v>282</v>
       </c>
       <c r="Z85" t="s">
-        <v>147</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86">
@@ -45166,7 +45836,7 @@
         <v>288</v>
       </c>
       <c r="Z86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87">
@@ -45174,7 +45844,7 @@
         <v>277</v>
       </c>
       <c r="Z87" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88">
@@ -45182,7 +45852,7 @@
         <v>554</v>
       </c>
       <c r="Z88" t="s">
-        <v>509</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
@@ -45190,7 +45860,7 @@
         <v>272</v>
       </c>
       <c r="Z89" t="s">
-        <v>590</v>
+        <v>509</v>
       </c>
     </row>
     <row r="90">
@@ -45198,7 +45868,7 @@
         <v>289</v>
       </c>
       <c r="Z90" t="s">
-        <v>201</v>
+        <v>590</v>
       </c>
     </row>
     <row r="91">
@@ -45206,7 +45876,7 @@
         <v>273</v>
       </c>
       <c r="Z91" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92">
@@ -45214,7 +45884,7 @@
         <v>274</v>
       </c>
       <c r="Z92" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="93">
@@ -45222,7 +45892,7 @@
         <v>306</v>
       </c>
       <c r="Z93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94">
@@ -45230,7 +45900,7 @@
         <v>312</v>
       </c>
       <c r="Z94" t="s">
-        <v>575</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95">
@@ -45238,7 +45908,7 @@
         <v>296</v>
       </c>
       <c r="Z95" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96">
@@ -45246,7 +45916,7 @@
         <v>341</v>
       </c>
       <c r="Z96" t="s">
-        <v>216</v>
+        <v>576</v>
       </c>
     </row>
     <row r="97">
@@ -45254,7 +45924,7 @@
         <v>278</v>
       </c>
       <c r="Z97" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98">
@@ -45262,206 +45932,236 @@
         <v>279</v>
       </c>
       <c r="Z98" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>588</v>
+        <v>449</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>457</v>
+        <v>589</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>531</v>
+        <v>594</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>582</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>150</v>
+        <v>582</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>151</v>
+        <v>535</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>155</v>
+        <v>595</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>158</v>
+        <v>596</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>464</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>164</v>
+        <v>597</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>572</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>168</v>
+        <v>572</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138">
       <c r="Z138" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35741" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36318" uniqueCount="603">
   <si>
     <t>description</t>
   </si>
@@ -1871,6 +1871,12 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1884,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1107" x14ac:knownFonts="1">
+  <fonts count="1123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8857,8 +8863,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1912">
+  <fills count="1939">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19689,8 +19796,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2047">
+  <borders count="2079">
     <border>
       <left/>
       <right/>
@@ -33368,6 +33628,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -40399,7 +40985,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1133">
+  <cellXfs count="1149">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -43768,52 +44354,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1884" fontId="1090" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1091" fillId="1887" borderId="2022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1092" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2022" fillId="1887" fontId="1091" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1092" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1093" fillId="1890" borderId="2026" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2026" fillId="1890" fontId="1093" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1094" fillId="1893" borderId="2030" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2030" fillId="1893" fontId="1094" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1095" fillId="1896" borderId="2034" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2034" fillId="1896" fontId="1095" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1096" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1096" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1097" fillId="1899" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1899" fontId="1097" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1098" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1099" fillId="1902" borderId="2038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1100" fillId="1893" borderId="2042" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1101" fillId="1905" borderId="2046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1102" fillId="1905" borderId="2046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1103" fillId="1896" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1104" fillId="1908" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1105" fillId="1896" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1106" fillId="1911" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1098" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2038" fillId="1902" fontId="1099" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2042" fillId="1893" fontId="1100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2046" fillId="1905" fontId="1101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2046" fillId="1905" fontId="1102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1896" fontId="1103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1908" fontId="1104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1896" fontId="1105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1911" fontId="1106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1107" fillId="1914" borderId="2054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1109" fillId="1917" borderId="2058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1110" fillId="1920" borderId="2062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1111" fillId="1923" borderId="2066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1113" fillId="1926" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1115" fillId="1929" borderId="2070" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1116" fillId="1920" borderId="2074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1117" fillId="1932" borderId="2078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1118" fillId="1932" borderId="2078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1119" fillId="1923" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1120" fillId="1935" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1121" fillId="1923" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1122" fillId="1938" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -44832,7 +45466,7 @@
         <v>307</v>
       </c>
       <c r="I10" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="L10" t="s">
         <v>81</v>
@@ -44876,7 +45510,7 @@
         <v>353</v>
       </c>
       <c r="I11" t="s">
-        <v>473</v>
+        <v>602</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
@@ -44914,7 +45548,7 @@
         <v>275</v>
       </c>
       <c r="I12" t="s">
-        <v>323</v>
+        <v>473</v>
       </c>
       <c r="L12" t="s">
         <v>529</v>
@@ -44952,7 +45586,7 @@
         <v>264</v>
       </c>
       <c r="I13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L13" t="s">
         <v>391</v>
@@ -44987,7 +45621,7 @@
         <v>317</v>
       </c>
       <c r="I14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -45022,7 +45656,7 @@
         <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L15" t="s">
         <v>42</v>
@@ -45055,6 +45689,9 @@
       </c>
       <c r="H16" t="s">
         <v>266</v>
+      </c>
+      <c r="I16" t="s">
+        <v>326</v>
       </c>
       <c r="L16" t="s">
         <v>530</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2.xlsx
@@ -25,7 +25,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -41,19 +41,20 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36318" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37488" uniqueCount="611">
   <si>
     <t>description</t>
   </si>
@@ -1877,6 +1878,30 @@
   </si>
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1909,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1123" x14ac:knownFonts="1">
+  <fonts count="1155" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8964,8 +8989,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1939">
+  <fills count="1993">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19949,8 +20176,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2079">
+  <borders count="2143">
     <border>
       <left/>
       <right/>
@@ -33628,6 +34161,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -40985,7 +42170,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1149">
+  <cellXfs count="1181">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -44402,52 +45587,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1911" fontId="1106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1107" fillId="1914" borderId="2054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2054" fillId="1914" fontId="1107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1109" fillId="1917" borderId="2058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2058" fillId="1917" fontId="1109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1110" fillId="1920" borderId="2062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2062" fillId="1920" fontId="1110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1111" fillId="1923" borderId="2066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2066" fillId="1923" fontId="1111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1113" fillId="1926" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1926" fontId="1113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1114" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1115" fillId="1929" borderId="2070" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1116" fillId="1920" borderId="2074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1117" fillId="1932" borderId="2078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1118" fillId="1932" borderId="2078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1119" fillId="1923" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1120" fillId="1935" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1121" fillId="1923" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1122" fillId="1938" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2070" fillId="1929" fontId="1115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2074" fillId="1920" fontId="1116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2078" fillId="1932" fontId="1117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2078" fillId="1932" fontId="1118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1923" fontId="1119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1935" fontId="1120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1923" fontId="1121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1938" fontId="1122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2086" fillId="1941" fontId="1123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1124" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2090" fillId="1944" fontId="1125" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2094" fillId="1947" fontId="1126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2098" fillId="1950" fontId="1127" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1128" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1953" fontId="1129" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2102" fillId="1956" fontId="1131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2106" fillId="1947" fontId="1132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2110" fillId="1959" fontId="1133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2110" fillId="1959" fontId="1134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1950" fontId="1135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1962" fontId="1136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1950" fontId="1137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1965" fontId="1138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1139" fillId="1968" borderId="2118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1141" fillId="1971" borderId="2122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1142" fillId="1974" borderId="2126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1143" fillId="1977" borderId="2130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1145" fillId="1980" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1147" fillId="1983" borderId="2134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1148" fillId="1974" borderId="2138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1149" fillId="1986" borderId="2142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1150" fillId="1986" borderId="2142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1151" fillId="1977" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1152" fillId="1989" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1153" fillId="1977" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1154" fillId="1992" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -44772,7 +46053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -44860,21 +46141,24 @@
         <v>398</v>
       </c>
       <c r="Z1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>432</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -44910,7 +46194,7 @@
         <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L2" t="s">
         <v>316</v>
@@ -44955,21 +46239,24 @@
         <v>408</v>
       </c>
       <c r="Z2" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA2" t="s">
         <v>98</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>184</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>451</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>515</v>
       </c>
     </row>
@@ -45041,21 +46328,24 @@
         <v>409</v>
       </c>
       <c r="Z3" t="s">
+        <v>606</v>
+      </c>
+      <c r="AA3" t="s">
         <v>99</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>365</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>185</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -45124,21 +46414,24 @@
         <v>410</v>
       </c>
       <c r="Z4" t="s">
+        <v>607</v>
+      </c>
+      <c r="AA4" t="s">
         <v>587</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>185</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>452</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -45198,21 +46491,24 @@
         <v>360</v>
       </c>
       <c r="Z5" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA5" t="s">
         <v>580</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>599</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>186</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>453</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -45242,7 +46538,7 @@
         <v>585</v>
       </c>
       <c r="K6" t="s">
-        <v>349</v>
+        <v>610</v>
       </c>
       <c r="L6" t="s">
         <v>485</v>
@@ -45269,21 +46565,24 @@
         <v>362</v>
       </c>
       <c r="Z6" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA6" t="s">
         <v>100</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>465</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>180</v>
       </c>
-      <